--- a/final-project/virtual-cards/smoke-test-virtual-cards.xlsx
+++ b/final-project/virtual-cards/smoke-test-virtual-cards.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corina\Desktop\cursuri\siit-testing\final-project\virtual-cards\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="289">
   <si>
     <t xml:space="preserve">Test </t>
   </si>
@@ -823,9 +828,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Check the login functionality by leaving password field empty</t>
-  </si>
-  <si>
     <t>Add existing plastic card by scanning the barcode</t>
   </si>
   <si>
@@ -894,9 +896,6 @@
 x</t>
   </si>
   <si>
-    <t>Play Store</t>
-  </si>
-  <si>
     <t>Check if the user can register with valid credentials</t>
   </si>
   <si>
@@ -953,9 +952,6 @@
   </si>
   <si>
     <t>FEATURE</t>
-  </si>
-  <si>
-    <t>TEST</t>
   </si>
   <si>
     <t>TEST DATA</t>
@@ -1004,9 +1000,6 @@
   </si>
   <si>
     <t>Search</t>
-  </si>
-  <si>
-    <t>Check if the installation can be uninstalled</t>
   </si>
   <si>
     <t>Error: incorrectly filled</t>
@@ -1120,6 +1113,26 @@
     <t>Sensiblue
 d
 no</t>
+  </si>
+  <si>
+    <t>TEST  DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S5
+LG G2 Mini
+Iphone5</t>
+  </si>
+  <si>
+    <t>Check the login functionality by leaving the password field empty</t>
+  </si>
+  <si>
+    <t>User must be logged in</t>
+  </si>
+  <si>
+    <t>Check if the application can be uninstalled</t>
+  </si>
+  <si>
+    <t>User experience</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1504,9 +1517,52 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1519,6 +1575,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1528,72 +1605,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1656,7 +1679,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1691,7 +1714,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1900,80 +1923,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H238"/>
+  <dimension ref="A1:H240"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="50"/>
       <c r="B1" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="F1" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="69"/>
       <c r="B3" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>208</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>212</v>
       </c>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="63" t="s">
-        <v>218</v>
+    <row r="4" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69"/>
+      <c r="B4" s="80" t="s">
+        <v>217</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="34" t="s">
@@ -1981,11 +2004,11 @@
       </c>
       <c r="F4" s="44"/>
     </row>
-    <row r="5" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="63"/>
+    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="69"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="34" t="s">
@@ -1993,11 +2016,11 @@
       </c>
       <c r="F5" s="44"/>
     </row>
-    <row r="6" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="63"/>
+    <row r="6" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="69"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="34" t="s">
@@ -2005,13 +2028,13 @@
       </c>
       <c r="F6" s="44"/>
     </row>
-    <row r="7" spans="1:6" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="63" t="s">
+    <row r="7" spans="1:6" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="69"/>
+      <c r="B7" s="80" t="s">
         <v>209</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>210</v>
@@ -2021,9 +2044,9 @@
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="63"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="25" t="s">
         <v>211</v>
       </c>
@@ -2033,27 +2056,27 @@
       </c>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="63"/>
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="69"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E9" s="46" t="s">
         <v>213</v>
       </c>
       <c r="F9" s="25"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="63" t="s">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="69"/>
+      <c r="B10" s="80" t="s">
         <v>133</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>84</v>
@@ -2063,11 +2086,11 @@
       </c>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="63"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="69"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="25" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>83</v>
@@ -2075,67 +2098,69 @@
       <c r="E11" s="34"/>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="63"/>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="69"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E12" s="34" t="s">
         <v>213</v>
       </c>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="69"/>
       <c r="B13" s="43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="F13" s="25"/>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="63" t="s">
+      <c r="F13" s="25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="69"/>
+      <c r="B14" s="80" t="s">
         <v>206</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E14" s="34" t="s">
         <v>212</v>
       </c>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="63"/>
+    <row r="15" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="69"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="85" t="s">
-        <v>284</v>
+        <v>215</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>280</v>
       </c>
       <c r="E15" s="34" t="s">
         <v>212</v>
       </c>
       <c r="F15" s="25"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="64"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="69"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="25" t="s">
         <v>211</v>
       </c>
@@ -2145,73 +2170,73 @@
       </c>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="69"/>
       <c r="B17" s="23" t="s">
         <v>207</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E17" s="34" t="s">
         <v>212</v>
       </c>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
-      <c r="B18" s="63" t="s">
-        <v>250</v>
+    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="69"/>
+      <c r="B18" s="80" t="s">
+        <v>248</v>
       </c>
       <c r="C18" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>232</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>233</v>
       </c>
       <c r="E18" s="34" t="s">
         <v>212</v>
       </c>
       <c r="F18" s="25"/>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="63"/>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="69"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E19" s="34" t="s">
         <v>212</v>
       </c>
       <c r="F19" s="25"/>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="63"/>
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="69"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" s="34" t="s">
         <v>212</v>
       </c>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="69"/>
       <c r="B21" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="47" t="s">
@@ -2219,1170 +2244,1148 @@
       </c>
       <c r="F21" s="37"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="73" t="s">
-        <v>259</v>
-      </c>
-      <c r="B24" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="71" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="25" t="s">
+    <row r="22" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="69"/>
+      <c r="B26" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D26" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E26" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F26" s="24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="25" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="69"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="25" t="s">
+      <c r="E27" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="69"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D28" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E28" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="25" t="s">
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="69"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D29" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E29" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="71" t="s">
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="69"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="73"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="69"/>
+      <c r="B31" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C31" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D31" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E31" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F30" s="25"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="28" t="s">
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="69"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D32" s="29" t="s">
         <v>54</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="25"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>55</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>57</v>
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
-      <c r="B33" s="71"/>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="69"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="E33" s="22" t="s">
         <v>57</v>
       </c>
       <c r="F33" s="25"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="25" t="s">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="69"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="25"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="69"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D35" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E35" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="25"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="28" t="s">
+      <c r="F35" s="25"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="69"/>
+      <c r="B36" s="64"/>
+      <c r="C36" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D36" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E36" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="25"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="58"/>
-    </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="71" t="s">
+      <c r="F36" s="25"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="69"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="73"/>
+    </row>
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="69"/>
+      <c r="B38" s="64" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C38" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D38" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E38" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="25"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="25" t="s">
+      <c r="F38" s="25"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="69"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D39" s="26" t="s">
         <v>62</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="25"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="26">
-        <v>12345678</v>
       </c>
       <c r="E39" s="22" t="s">
         <v>66</v>
       </c>
       <c r="F39" s="25"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="71"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="69"/>
+      <c r="B40" s="64"/>
       <c r="C40" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="D40" s="26">
+        <v>12345678</v>
       </c>
       <c r="E40" s="22" t="s">
         <v>66</v>
       </c>
       <c r="F40" s="25"/>
     </row>
-    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="71"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="69"/>
+      <c r="B41" s="64"/>
       <c r="C41" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>65</v>
       </c>
       <c r="E41" s="22" t="s">
         <v>66</v>
       </c>
       <c r="F41" s="25"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="71"/>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="69"/>
+      <c r="B42" s="64"/>
       <c r="C42" s="25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>66</v>
       </c>
       <c r="F42" s="25"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-    </row>
-    <row r="44" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="71" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="69"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="25"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="69"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="73"/>
+    </row>
+    <row r="45" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="69"/>
+      <c r="B45" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C45" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="31" t="s">
+      <c r="D45" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E45" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="25"/>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="25" t="s">
+      <c r="F45" s="25"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="69"/>
+      <c r="B46" s="64"/>
+      <c r="C46" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D46" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E46" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="25"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="58"/>
-    </row>
-    <row r="47" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A47" s="55"/>
-      <c r="B47" s="71" t="s">
+      <c r="F46" s="25"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="69"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="73"/>
+    </row>
+    <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="69"/>
+      <c r="B48" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C48" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="F47" s="25"/>
-    </row>
-    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="D48" s="26" t="s">
         <v>82</v>
       </c>
       <c r="E48" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F48" s="25"/>
+    </row>
+    <row r="49" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="69"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F48" s="25"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="58"/>
-    </row>
-    <row r="50" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="71" t="s">
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="69"/>
+      <c r="B50" s="71"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="73"/>
+    </row>
+    <row r="51" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="69"/>
+      <c r="B51" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C51" s="25" t="s">
         <v>102</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E50" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="F50" s="25"/>
-    </row>
-    <row r="51" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="25" t="s">
-        <v>103</v>
       </c>
       <c r="D51" s="26" t="s">
         <v>82</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F51" s="25"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="58"/>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="71" t="s">
+    <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="69"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="69"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="73"/>
+    </row>
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="69"/>
+      <c r="B54" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C54" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D54" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="F53" s="25"/>
-    </row>
-    <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="25" t="s">
+      <c r="E54" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" s="25"/>
+    </row>
+    <row r="55" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A55" s="69"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D55" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E55" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="25"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-    </row>
-    <row r="56" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="16"/>
-    </row>
-    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66" t="s">
-        <v>258</v>
-      </c>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
+      <c r="F55" s="25"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="42"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="74"/>
+      <c r="E56" s="74"/>
+      <c r="F56" s="74"/>
+    </row>
+    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="20"/>
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="74" t="s">
-        <v>258</v>
-      </c>
-      <c r="B58" s="71" t="s">
+    <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="70" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58" s="70"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="16"/>
+    </row>
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C59" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D59" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="25" t="s">
+      <c r="E59" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="69"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D60" s="33" t="s">
         <v>86</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F59" s="25"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>83</v>
       </c>
       <c r="E60" s="22" t="s">
         <v>91</v>
       </c>
       <c r="F60" s="25"/>
     </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="71"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="69"/>
+      <c r="B61" s="64"/>
       <c r="C61" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="E61" s="22" t="s">
         <v>91</v>
       </c>
       <c r="F61" s="25"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="71"/>
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="69"/>
+      <c r="B62" s="64"/>
       <c r="C62" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="25"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="69"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D63" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E63" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F62" s="25"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="58"/>
-    </row>
-    <row r="64" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="71" t="s">
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="69"/>
+      <c r="B64" s="71"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="73"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="69"/>
+      <c r="B65" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C65" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="D65" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E65" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="F65" s="25" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="69"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="33"/>
+      <c r="E66" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F66" s="25"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="69"/>
+      <c r="B67" s="71"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="73"/>
+    </row>
+    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="69"/>
+      <c r="B68" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="25"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="69"/>
+      <c r="B69" s="71"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="73"/>
+    </row>
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="69"/>
+      <c r="B70" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="25"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="69"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="84"/>
+    </row>
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="69"/>
+      <c r="B72" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="25"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="69"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="F73" s="73"/>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A74" s="69"/>
+      <c r="B74" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="25"/>
+    </row>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="69"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="73"/>
+    </row>
+    <row r="76" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="69"/>
+      <c r="B76" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="C76" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="F64" s="25" t="s">
+      <c r="D76" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="22" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F65" s="25"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="58"/>
-    </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
-      <c r="B67" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F67" s="25"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="58"/>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="25"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="62"/>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
-      <c r="B71" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F71" s="25"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="58"/>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="55"/>
-      <c r="B73" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="E73" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="25"/>
-    </row>
-    <row r="74" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="55"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="58"/>
-    </row>
-    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="34" t="s">
-        <v>271</v>
-      </c>
-      <c r="C75" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="D75" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="F75" s="25"/>
-    </row>
-    <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="42"/>
-      <c r="B76" s="59"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="59"/>
-      <c r="E76" s="59"/>
-      <c r="F76" s="59"/>
-    </row>
-    <row r="77" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="20"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="16"/>
-    </row>
-    <row r="78" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="68" t="s">
-        <v>248</v>
-      </c>
-      <c r="C78" s="68"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="19"/>
+      <c r="F76" s="25"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="42"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+    </row>
+    <row r="78" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="20"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="20"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
-      <c r="B79" s="72" t="s">
+      <c r="B79" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="75"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="21"/>
+      <c r="B80" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C80" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D80" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E80" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F79" s="25"/>
-    </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="25" t="s">
+      <c r="F80" s="25"/>
+    </row>
+    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="19"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="24" t="s">
         <v>114</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F80" s="25"/>
-    </row>
-    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="B81" s="72"/>
-      <c r="C81" s="25" t="s">
-        <v>221</v>
       </c>
       <c r="D81" s="26" t="s">
         <v>115</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="F81" s="25"/>
     </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="25" t="s">
-        <v>117</v>
+    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B82" s="65"/>
+      <c r="C82" s="24" t="s">
+        <v>220</v>
       </c>
       <c r="D82" s="26" t="s">
         <v>115</v>
       </c>
       <c r="E82" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="F82" s="25"/>
+    </row>
+    <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="19"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F82" s="25"/>
-    </row>
-    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="25" t="s">
+      <c r="F83" s="25"/>
+    </row>
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="19"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="22" t="s">
+      <c r="D84" s="26"/>
+      <c r="E84" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F83" s="25"/>
-    </row>
-    <row r="84" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="D84" s="26" t="s">
+      <c r="F84" s="25"/>
+    </row>
+    <row r="85" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A85" s="19"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="D85" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="E84" s="22" t="s">
+      <c r="E85" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F84" s="25"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="76" t="s">
-        <v>260</v>
-      </c>
-      <c r="B85" s="17" t="s">
+      <c r="F85" s="25"/>
+    </row>
+    <row r="86" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="89"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="86"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="88"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="77" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="C87" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D87" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="25"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="69"/>
-      <c r="B86" s="65" t="s">
+      <c r="E87" s="22"/>
+      <c r="F87" s="25"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="78"/>
+      <c r="B88" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C88" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D86" s="26" t="s">
+      <c r="D88" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E88" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F86" s="25"/>
-    </row>
-    <row r="87" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="69"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="25" t="s">
+      <c r="F88" s="25"/>
+    </row>
+    <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="78"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D89" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E89" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F87" s="25"/>
-    </row>
-    <row r="88" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="69"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="25" t="s">
+      <c r="F89" s="25"/>
+    </row>
+    <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="78"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="26" t="s">
+      <c r="D90" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="E88" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F88" s="25"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="69"/>
-      <c r="B89" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="C89" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="25"/>
-    </row>
-    <row r="90" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="D90" s="26" t="s">
-        <v>150</v>
       </c>
       <c r="E90" s="22" t="s">
         <v>75</v>
       </c>
       <c r="F90" s="25"/>
     </row>
-    <row r="91" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="69"/>
-      <c r="B91" s="65"/>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="78"/>
+      <c r="B91" s="66" t="s">
+        <v>165</v>
+      </c>
       <c r="C91" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" s="22"/>
+      <c r="F91" s="25"/>
+    </row>
+    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="78"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F92" s="25"/>
+    </row>
+    <row r="93" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="78"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D93" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E93" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F91" s="25"/>
-    </row>
-    <row r="92" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="69"/>
-      <c r="B92" s="65" t="s">
+      <c r="F93" s="25"/>
+    </row>
+    <row r="94" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="78"/>
+      <c r="B94" s="66" t="s">
         <v>166</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="C94" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D92" s="36" t="s">
+      <c r="D94" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="E94" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="F92" s="25"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="69"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="25" t="s">
+      <c r="F94" s="25"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="78"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="D93" s="36" t="s">
+      <c r="D95" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E95" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="F93" s="25"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="69"/>
-      <c r="B94" s="65" t="s">
+      <c r="F95" s="25"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="78"/>
+      <c r="B96" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C96" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="26" t="s">
+      <c r="D96" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="E94" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="F94" s="25"/>
-    </row>
-    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="69"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="25" t="s">
+      <c r="E96" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="F96" s="25"/>
+    </row>
+    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="78"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="26" t="s">
+      <c r="D97" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="E95" s="22" t="s">
+      <c r="E97" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F95" s="25"/>
-    </row>
-    <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="69"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="25" t="s">
+      <c r="F97" s="25"/>
+    </row>
+    <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="78"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D98" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E96" s="22" t="s">
+      <c r="E98" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="F96" s="25"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="69"/>
-      <c r="B97" s="65" t="s">
+      <c r="F98" s="25"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="78"/>
+      <c r="B99" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C99" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="D97" s="26">
+      <c r="D99" s="26">
         <v>30</v>
       </c>
-      <c r="E97" s="22" t="s">
+      <c r="E99" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F97" s="25"/>
-    </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="69"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="25" t="s">
+      <c r="F99" s="25"/>
+    </row>
+    <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="78"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="D98" s="26" t="s">
+      <c r="D100" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E98" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="F98" s="25"/>
-    </row>
-    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="69"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="37" t="s">
+      <c r="E100" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="F100" s="25"/>
+    </row>
+    <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="78"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="D99" s="38">
+      <c r="D101" s="38">
         <v>6984000</v>
       </c>
-      <c r="E99" s="39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F99" s="37"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="15"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="69"/>
-      <c r="B100" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D100" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="E100" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="F100" s="37"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="15"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="69"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="D101" s="38" t="s">
-        <v>163</v>
-      </c>
       <c r="E101" s="39" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="16"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="69"/>
-      <c r="B102" s="65"/>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="78"/>
+      <c r="B102" s="66" t="s">
+        <v>169</v>
+      </c>
       <c r="C102" s="25" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D102" s="38" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="16"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="69"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="37" t="s">
-        <v>172</v>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="78"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="D103" s="38" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="E103" s="39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="16"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="69"/>
-      <c r="B104" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="C104" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="D104" s="40" t="s">
-        <v>177</v>
+    <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="78"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D104" s="38" t="s">
+        <v>173</v>
       </c>
       <c r="E104" s="39" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="16"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="69"/>
-      <c r="B105" s="65"/>
+    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="78"/>
+      <c r="B105" s="66"/>
       <c r="C105" s="37" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="D105" s="38" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E105" s="39" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="16"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="69"/>
-      <c r="B106" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>60</v>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="78"/>
+      <c r="B106" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="E106" s="39" t="s">
+        <v>198</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="16"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="69"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D107" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>57</v>
+    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="78"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="D107" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="E107" s="39" t="s">
+        <v>200</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="16"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A108" s="69"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D108" s="29" t="s">
-        <v>55</v>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="78"/>
+      <c r="B108" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="16"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="69"/>
-      <c r="B109" s="65"/>
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A109" s="78"/>
+      <c r="B109" s="66"/>
       <c r="C109" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D109" s="30" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="D109" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="E109" s="22" t="s">
         <v>57</v>
@@ -3391,987 +3394,1022 @@
       <c r="G109" s="16"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="69"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>59</v>
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A110" s="78"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="16"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="69"/>
-      <c r="B111" s="65"/>
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A111" s="78"/>
+      <c r="B111" s="66"/>
       <c r="C111" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E111" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D111" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111" s="22" t="s">
         <v>57</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="16"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A112" s="69"/>
-      <c r="B112" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="C112" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D112" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="E112" s="28" t="s">
-        <v>282</v>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="78"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>60</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="16"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="69"/>
-      <c r="B113" s="67"/>
-      <c r="C113" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="D113" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="E113" s="39" t="s">
-        <v>280</v>
+    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A113" s="78"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E113" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="16"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A114" s="69"/>
-      <c r="B114" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>179</v>
+    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A114" s="78"/>
+      <c r="B114" s="67" t="s">
+        <v>245</v>
+      </c>
+      <c r="C114" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>278</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="16"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A115" s="69"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>101</v>
+    <row r="115" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="78"/>
+      <c r="B115" s="67"/>
+      <c r="C115" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D115" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E115" s="39" t="s">
+        <v>276</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="16"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="69"/>
-      <c r="B116" s="65" t="s">
-        <v>132</v>
+    <row r="116" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="78"/>
+      <c r="B116" s="66" t="s">
+        <v>130</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>266</v>
+        <v>179</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="16"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A117" s="69"/>
-      <c r="B117" s="65"/>
+    <row r="117" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A117" s="78"/>
+      <c r="B117" s="66"/>
       <c r="C117" s="25" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="E117" s="32" t="s">
-        <v>277</v>
+        <v>182</v>
+      </c>
+      <c r="E117" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="16"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="70"/>
-      <c r="B118" s="65"/>
+    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="78"/>
+      <c r="B118" s="66" t="s">
+        <v>132</v>
+      </c>
       <c r="C118" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="E118" s="32" t="s">
-        <v>278</v>
+        <v>105</v>
+      </c>
+      <c r="E118" s="22" t="s">
+        <v>262</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="16"/>
       <c r="H118" s="15"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="19"/>
-      <c r="B119" s="63" t="s">
+    <row r="119" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A119" s="78"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D119" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="F119" s="37"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="15"/>
+    </row>
+    <row r="120" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A120" s="79"/>
+      <c r="B120" s="66"/>
+      <c r="C120" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D120" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="F120" s="37"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="15"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="19"/>
+      <c r="B121" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C121" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="D119" s="26" t="s">
+      <c r="D121" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="E119" s="22" t="s">
+      <c r="E121" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="F119" s="25"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="19"/>
-      <c r="B120" s="63"/>
-      <c r="C120" s="25" t="s">
+      <c r="F121" s="25"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="19"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="D120" s="26"/>
-      <c r="E120" s="22" t="s">
+      <c r="D122" s="26"/>
+      <c r="E122" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="F120" s="25"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="19"/>
-      <c r="B121" s="63" t="s">
+      <c r="F122" s="25"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="19"/>
+      <c r="B123" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="C121" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="D121" s="26" t="s">
+      <c r="C123" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D123" s="26" t="s">
         <v>203</v>
-      </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="25"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="19"/>
-      <c r="B122" s="63"/>
-      <c r="C122" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="D122" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E122" s="22"/>
-      <c r="F122" s="25"/>
-    </row>
-    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="19"/>
-      <c r="B123" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="C123" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="D123" s="26" t="s">
-        <v>229</v>
       </c>
       <c r="E123" s="22"/>
       <c r="F123" s="25"/>
     </row>
-    <row r="124" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A124" s="83"/>
-      <c r="B124" s="82"/>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="19"/>
+      <c r="B124" s="64"/>
       <c r="C124" s="25" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D124" s="26" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="E124" s="22"/>
       <c r="F124" s="25"/>
     </row>
-    <row r="125" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="48"/>
-      <c r="D125" s="53"/>
-      <c r="E125" s="49"/>
-      <c r="G125" s="54"/>
-    </row>
-    <row r="126" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="78"/>
-      <c r="D126" s="79"/>
-      <c r="E126" s="80"/>
-      <c r="G126" s="81"/>
-    </row>
-    <row r="127" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="78"/>
-      <c r="D127" s="79"/>
-      <c r="E127" s="80"/>
-      <c r="G127" s="81"/>
-    </row>
-    <row r="128" spans="1:8" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="78"/>
-      <c r="D128" s="79"/>
-      <c r="E128" s="80"/>
-      <c r="G128" s="81"/>
-    </row>
-    <row r="129" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="78"/>
-      <c r="D129" s="79"/>
-      <c r="E129" s="80"/>
-      <c r="G129" s="81"/>
-    </row>
-    <row r="130" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="77" t="s">
-        <v>261</v>
-      </c>
-      <c r="B130" s="78"/>
-      <c r="D130" s="79"/>
-      <c r="E130" s="80"/>
-      <c r="G130" s="81"/>
-    </row>
-    <row r="131" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="77" t="s">
-        <v>262</v>
-      </c>
-      <c r="B131" s="78"/>
-      <c r="D131" s="79"/>
-      <c r="E131" s="80"/>
-      <c r="G131" s="81"/>
-    </row>
-    <row r="132" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="78"/>
-      <c r="D132" s="79"/>
-      <c r="E132" s="80"/>
-      <c r="G132" s="81"/>
-    </row>
-    <row r="133" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="78"/>
-      <c r="D133" s="79"/>
-      <c r="E133" s="80"/>
-      <c r="G133" s="81"/>
-    </row>
-    <row r="134" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="78"/>
-      <c r="D134" s="79"/>
-      <c r="E134" s="80"/>
-      <c r="G134" s="81"/>
-    </row>
-    <row r="135" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="78"/>
-      <c r="D135" s="79"/>
-      <c r="E135" s="80"/>
-      <c r="G135" s="81"/>
-    </row>
-    <row r="136" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="78"/>
-      <c r="D136" s="79"/>
-      <c r="E136" s="80"/>
-      <c r="G136" s="81"/>
-    </row>
-    <row r="137" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="78"/>
-      <c r="D137" s="79"/>
-      <c r="E137" s="80"/>
-      <c r="G137" s="81"/>
-    </row>
-    <row r="138" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="78"/>
-      <c r="D138" s="79"/>
-      <c r="E138" s="80"/>
-      <c r="G138" s="81"/>
-    </row>
-    <row r="139" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="78"/>
-      <c r="D139" s="79"/>
-      <c r="E139" s="80"/>
-      <c r="G139" s="81"/>
-    </row>
-    <row r="140" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="78"/>
-      <c r="D140" s="79"/>
-      <c r="E140" s="80"/>
-      <c r="G140" s="81"/>
-    </row>
-    <row r="141" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="78"/>
-      <c r="D141" s="79"/>
-      <c r="E141" s="80"/>
-      <c r="G141" s="81"/>
-    </row>
-    <row r="142" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="78"/>
-      <c r="D142" s="79"/>
-      <c r="E142" s="80"/>
-      <c r="G142" s="81"/>
-    </row>
-    <row r="143" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="78"/>
-      <c r="D143" s="79"/>
-      <c r="E143" s="80"/>
-      <c r="G143" s="81"/>
-    </row>
-    <row r="144" spans="1:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="78"/>
-      <c r="D144" s="79"/>
-      <c r="E144" s="80"/>
-      <c r="G144" s="81"/>
-    </row>
-    <row r="145" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="78"/>
-      <c r="D145" s="79"/>
-      <c r="E145" s="80"/>
-      <c r="G145" s="81"/>
-    </row>
-    <row r="146" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="78"/>
-      <c r="D146" s="79"/>
-      <c r="E146" s="80"/>
-      <c r="G146" s="81"/>
-    </row>
-    <row r="147" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="78"/>
-      <c r="D147" s="79"/>
-      <c r="E147" s="80"/>
-      <c r="G147" s="81"/>
-    </row>
-    <row r="148" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="78"/>
-      <c r="D148" s="79"/>
-      <c r="E148" s="80"/>
-      <c r="G148" s="81"/>
-    </row>
-    <row r="149" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="78"/>
-      <c r="D149" s="79"/>
-      <c r="E149" s="80"/>
-      <c r="G149" s="81"/>
-    </row>
-    <row r="150" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="78"/>
-      <c r="D150" s="79"/>
-      <c r="E150" s="80"/>
-      <c r="G150" s="81"/>
-    </row>
-    <row r="151" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="78"/>
-      <c r="D151" s="79"/>
-      <c r="E151" s="80"/>
-      <c r="G151" s="81"/>
-    </row>
-    <row r="152" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="78"/>
-      <c r="D152" s="79"/>
-      <c r="E152" s="80"/>
-      <c r="G152" s="81"/>
-    </row>
-    <row r="153" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="78"/>
-      <c r="D153" s="79"/>
-      <c r="E153" s="80"/>
-      <c r="G153" s="81"/>
-    </row>
-    <row r="154" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="78"/>
-      <c r="D154" s="79"/>
-      <c r="E154" s="80"/>
-      <c r="G154" s="81"/>
-    </row>
-    <row r="155" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="78"/>
-      <c r="D155" s="79"/>
-      <c r="E155" s="80"/>
-      <c r="G155" s="81"/>
-    </row>
-    <row r="156" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="78"/>
-      <c r="D156" s="79"/>
-      <c r="E156" s="80"/>
-      <c r="G156" s="81"/>
-    </row>
-    <row r="157" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="78"/>
-      <c r="D157" s="79"/>
-      <c r="E157" s="80"/>
-      <c r="G157" s="81"/>
-    </row>
-    <row r="158" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="78"/>
-      <c r="D158" s="79"/>
-      <c r="E158" s="80"/>
-      <c r="G158" s="81"/>
-    </row>
-    <row r="159" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="78"/>
-      <c r="D159" s="79"/>
-      <c r="E159" s="80"/>
-      <c r="G159" s="81"/>
-    </row>
-    <row r="160" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="78"/>
-      <c r="D160" s="79"/>
-      <c r="E160" s="80"/>
-      <c r="G160" s="81"/>
-    </row>
-    <row r="161" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="78"/>
-      <c r="D161" s="79"/>
-      <c r="E161" s="80"/>
-      <c r="G161" s="81"/>
-    </row>
-    <row r="162" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="78"/>
-      <c r="D162" s="79"/>
-      <c r="E162" s="80"/>
-      <c r="G162" s="81"/>
-    </row>
-    <row r="163" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="78"/>
-      <c r="D163" s="79"/>
-      <c r="E163" s="80"/>
-      <c r="G163" s="81"/>
-    </row>
-    <row r="164" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="78"/>
-      <c r="D164" s="79"/>
-      <c r="E164" s="80"/>
-      <c r="G164" s="81"/>
-    </row>
-    <row r="165" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="78"/>
-      <c r="D165" s="79"/>
-      <c r="E165" s="80"/>
-      <c r="G165" s="81"/>
-    </row>
-    <row r="166" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="78"/>
-      <c r="D166" s="79"/>
-      <c r="E166" s="80"/>
-      <c r="G166" s="81"/>
-    </row>
-    <row r="167" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="78"/>
-      <c r="D167" s="79"/>
-      <c r="E167" s="80"/>
-      <c r="G167" s="81"/>
-    </row>
-    <row r="168" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="78"/>
-      <c r="D168" s="79"/>
-      <c r="E168" s="80"/>
-      <c r="G168" s="81"/>
-    </row>
-    <row r="169" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="78"/>
-      <c r="D169" s="79"/>
-      <c r="E169" s="80"/>
-      <c r="G169" s="81"/>
-    </row>
-    <row r="170" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="78"/>
-      <c r="D170" s="79"/>
-      <c r="E170" s="80"/>
-      <c r="G170" s="81"/>
-    </row>
-    <row r="171" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="78"/>
-      <c r="D171" s="79"/>
-      <c r="E171" s="80"/>
-      <c r="G171" s="81"/>
-    </row>
-    <row r="172" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="78"/>
-      <c r="D172" s="79"/>
-      <c r="E172" s="80"/>
-      <c r="G172" s="81"/>
-    </row>
-    <row r="173" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="78"/>
-      <c r="D173" s="79"/>
-      <c r="E173" s="80"/>
-      <c r="G173" s="81"/>
-    </row>
-    <row r="174" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="78"/>
-      <c r="D174" s="79"/>
-      <c r="E174" s="80"/>
-      <c r="G174" s="81"/>
-    </row>
-    <row r="175" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="78"/>
-      <c r="D175" s="79"/>
-      <c r="E175" s="80"/>
-      <c r="G175" s="81"/>
-    </row>
-    <row r="176" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="78"/>
-      <c r="D176" s="79"/>
-      <c r="E176" s="80"/>
-      <c r="G176" s="81"/>
-    </row>
-    <row r="177" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="78"/>
-      <c r="D177" s="79"/>
-      <c r="E177" s="80"/>
-      <c r="G177" s="81"/>
-    </row>
-    <row r="178" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="78"/>
-      <c r="D178" s="79"/>
-      <c r="E178" s="80"/>
-      <c r="G178" s="81"/>
-    </row>
-    <row r="179" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="78"/>
-      <c r="D179" s="79"/>
-      <c r="E179" s="80"/>
-      <c r="G179" s="81"/>
-    </row>
-    <row r="180" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="78"/>
-      <c r="D180" s="79"/>
-      <c r="E180" s="80"/>
-      <c r="G180" s="81"/>
-    </row>
-    <row r="181" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="78"/>
-      <c r="D181" s="79"/>
-      <c r="E181" s="80"/>
-      <c r="G181" s="81"/>
-    </row>
-    <row r="182" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="78"/>
-      <c r="D182" s="79"/>
-      <c r="E182" s="80"/>
-      <c r="G182" s="81"/>
-    </row>
-    <row r="183" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="78"/>
-      <c r="D183" s="79"/>
-      <c r="E183" s="80"/>
-      <c r="G183" s="81"/>
-    </row>
-    <row r="184" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="78"/>
-      <c r="D184" s="79"/>
-      <c r="E184" s="80"/>
-      <c r="G184" s="81"/>
-    </row>
-    <row r="185" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="78"/>
-      <c r="D185" s="79"/>
-      <c r="E185" s="80"/>
-      <c r="G185" s="81"/>
-    </row>
-    <row r="186" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="78"/>
-      <c r="D186" s="79"/>
-      <c r="E186" s="80"/>
-      <c r="G186" s="81"/>
-    </row>
-    <row r="187" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="78"/>
-      <c r="D187" s="79"/>
-      <c r="E187" s="80"/>
-      <c r="G187" s="81"/>
-    </row>
-    <row r="188" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="78"/>
-      <c r="D188" s="79"/>
-      <c r="E188" s="80"/>
-      <c r="G188" s="81"/>
-    </row>
-    <row r="189" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="78"/>
-      <c r="D189" s="79"/>
-      <c r="E189" s="80"/>
-      <c r="G189" s="81"/>
-    </row>
-    <row r="190" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="78"/>
-      <c r="D190" s="79"/>
-      <c r="E190" s="80"/>
-      <c r="G190" s="81"/>
-    </row>
-    <row r="191" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="78"/>
-      <c r="D191" s="79"/>
-      <c r="E191" s="80"/>
-      <c r="G191" s="81"/>
-    </row>
-    <row r="192" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="78"/>
-      <c r="D192" s="79"/>
-      <c r="E192" s="80"/>
-      <c r="G192" s="81"/>
-    </row>
-    <row r="193" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="78"/>
-      <c r="D193" s="79"/>
-      <c r="E193" s="80"/>
-      <c r="G193" s="81"/>
-    </row>
-    <row r="194" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="78"/>
-      <c r="D194" s="79"/>
-      <c r="E194" s="80"/>
-      <c r="G194" s="81"/>
-    </row>
-    <row r="195" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="78"/>
-      <c r="D195" s="79"/>
-      <c r="E195" s="80"/>
-      <c r="G195" s="81"/>
-    </row>
-    <row r="196" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="78"/>
-      <c r="D196" s="79"/>
-      <c r="E196" s="80"/>
-      <c r="G196" s="81"/>
-    </row>
-    <row r="197" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="78"/>
-      <c r="D197" s="79"/>
-      <c r="E197" s="80"/>
-      <c r="G197" s="81"/>
-    </row>
-    <row r="198" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="78"/>
-      <c r="D198" s="79"/>
-      <c r="E198" s="80"/>
-      <c r="G198" s="81"/>
-    </row>
-    <row r="199" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="78"/>
-      <c r="D199" s="79"/>
-      <c r="E199" s="80"/>
-      <c r="G199" s="81"/>
-    </row>
-    <row r="200" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="78"/>
-      <c r="D200" s="79"/>
-      <c r="E200" s="80"/>
-      <c r="G200" s="81"/>
-    </row>
-    <row r="201" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="78"/>
-      <c r="D201" s="79"/>
-      <c r="E201" s="80"/>
-      <c r="G201" s="81"/>
-    </row>
-    <row r="202" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="78"/>
-      <c r="D202" s="79"/>
-      <c r="E202" s="80"/>
-      <c r="G202" s="81"/>
-    </row>
-    <row r="203" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="78"/>
-      <c r="D203" s="79"/>
-      <c r="E203" s="80"/>
-      <c r="G203" s="81"/>
-    </row>
-    <row r="204" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="78"/>
-      <c r="D204" s="79"/>
-      <c r="E204" s="80"/>
-      <c r="G204" s="81"/>
-    </row>
-    <row r="205" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="78"/>
-      <c r="D205" s="79"/>
-      <c r="E205" s="80"/>
-      <c r="G205" s="81"/>
-    </row>
-    <row r="206" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="78"/>
-      <c r="D206" s="79"/>
-      <c r="E206" s="80"/>
-      <c r="G206" s="81"/>
-    </row>
-    <row r="207" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="78"/>
-      <c r="D207" s="79"/>
-      <c r="E207" s="80"/>
-      <c r="G207" s="81"/>
-    </row>
-    <row r="208" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="78"/>
-      <c r="D208" s="79"/>
-      <c r="E208" s="80"/>
-      <c r="G208" s="81"/>
-    </row>
-    <row r="209" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="78"/>
-      <c r="D209" s="79"/>
-      <c r="E209" s="80"/>
-      <c r="G209" s="81"/>
-    </row>
-    <row r="210" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="78"/>
-      <c r="D210" s="79"/>
-      <c r="E210" s="80"/>
-      <c r="G210" s="81"/>
-    </row>
-    <row r="211" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="78"/>
-      <c r="D211" s="79"/>
-      <c r="E211" s="80"/>
-      <c r="G211" s="81"/>
-    </row>
-    <row r="212" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="78"/>
-      <c r="D212" s="79"/>
-      <c r="E212" s="80"/>
-      <c r="G212" s="81"/>
-    </row>
-    <row r="213" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="78"/>
-      <c r="D213" s="79"/>
-      <c r="E213" s="80"/>
-      <c r="G213" s="81"/>
-    </row>
-    <row r="214" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="78"/>
-      <c r="D214" s="79"/>
-      <c r="E214" s="80"/>
-      <c r="G214" s="81"/>
-    </row>
-    <row r="215" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="78"/>
-      <c r="D215" s="79"/>
-      <c r="E215" s="80"/>
-      <c r="G215" s="81"/>
-    </row>
-    <row r="216" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="78"/>
-      <c r="D216" s="79"/>
-      <c r="E216" s="80"/>
-      <c r="G216" s="81"/>
-    </row>
-    <row r="217" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="78"/>
-      <c r="D217" s="79"/>
-      <c r="E217" s="80"/>
-      <c r="G217" s="81"/>
-    </row>
-    <row r="218" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="78"/>
-      <c r="D218" s="79"/>
-      <c r="E218" s="80"/>
-      <c r="G218" s="81"/>
-    </row>
-    <row r="219" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="78"/>
-      <c r="D219" s="79"/>
-      <c r="E219" s="80"/>
-      <c r="G219" s="81"/>
-    </row>
-    <row r="220" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="78"/>
-      <c r="D220" s="79"/>
-      <c r="E220" s="80"/>
-      <c r="G220" s="81"/>
-    </row>
-    <row r="221" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="78"/>
-      <c r="D221" s="79"/>
-      <c r="E221" s="80"/>
-      <c r="G221" s="81"/>
-    </row>
-    <row r="222" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="78"/>
-      <c r="D222" s="79"/>
-      <c r="E222" s="80"/>
-      <c r="G222" s="81"/>
-    </row>
-    <row r="223" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="78"/>
-      <c r="D223" s="79"/>
-      <c r="E223" s="80"/>
-      <c r="G223" s="81"/>
-    </row>
-    <row r="224" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="78"/>
-      <c r="D224" s="79"/>
-      <c r="E224" s="80"/>
-      <c r="G224" s="81"/>
-    </row>
-    <row r="225" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="78"/>
-      <c r="D225" s="79"/>
-      <c r="E225" s="80"/>
-      <c r="G225" s="81"/>
-    </row>
-    <row r="226" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="78"/>
-      <c r="D226" s="79"/>
-      <c r="E226" s="80"/>
-      <c r="G226" s="81"/>
-    </row>
-    <row r="227" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="78"/>
-      <c r="D227" s="79"/>
-      <c r="E227" s="80"/>
-      <c r="G227" s="81"/>
-    </row>
-    <row r="228" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="78"/>
-      <c r="D228" s="79"/>
-      <c r="E228" s="80"/>
-      <c r="G228" s="81"/>
-    </row>
-    <row r="229" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="78"/>
-      <c r="D229" s="79"/>
-      <c r="E229" s="80"/>
-      <c r="G229" s="81"/>
-    </row>
-    <row r="230" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="78"/>
-      <c r="D230" s="79"/>
-      <c r="E230" s="80"/>
-      <c r="G230" s="81"/>
-    </row>
-    <row r="231" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="78"/>
-      <c r="D231" s="79"/>
-      <c r="E231" s="80"/>
-      <c r="G231" s="81"/>
-    </row>
-    <row r="232" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="78"/>
-      <c r="D232" s="79"/>
-      <c r="E232" s="80"/>
-      <c r="G232" s="81"/>
-    </row>
-    <row r="233" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="78"/>
-      <c r="D233" s="79"/>
-      <c r="E233" s="80"/>
-      <c r="G233" s="81"/>
-    </row>
-    <row r="234" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="78"/>
-      <c r="D234" s="79"/>
-      <c r="E234" s="80"/>
-      <c r="G234" s="81"/>
-    </row>
-    <row r="235" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="78"/>
-      <c r="D235" s="79"/>
-      <c r="E235" s="80"/>
-      <c r="G235" s="81"/>
-    </row>
-    <row r="236" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="78"/>
-      <c r="D236" s="79"/>
-      <c r="E236" s="80"/>
-      <c r="G236" s="81"/>
-    </row>
-    <row r="237" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="78"/>
-      <c r="D237" s="79"/>
-      <c r="E237" s="80"/>
-      <c r="G237" s="81"/>
-    </row>
-    <row r="238" spans="2:7" s="77" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="78"/>
-      <c r="D238" s="79"/>
-      <c r="E238" s="80"/>
-      <c r="G238" s="81"/>
+    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="19"/>
+      <c r="B125" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D125" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E125" s="22"/>
+      <c r="F125" s="25"/>
+    </row>
+    <row r="126" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="61"/>
+      <c r="B126" s="66"/>
+      <c r="C126" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D126" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E126" s="22"/>
+      <c r="F126" s="25"/>
+    </row>
+    <row r="127" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="48"/>
+      <c r="D127" s="53"/>
+      <c r="E127" s="49"/>
+      <c r="G127" s="54"/>
+    </row>
+    <row r="128" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="57"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="59"/>
+      <c r="G128" s="60"/>
+    </row>
+    <row r="129" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="57"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="59"/>
+      <c r="G129" s="60"/>
+    </row>
+    <row r="130" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="57"/>
+      <c r="D130" s="58"/>
+      <c r="E130" s="59"/>
+      <c r="G130" s="60"/>
+    </row>
+    <row r="131" spans="1:7" s="56" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A131" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="B131" s="57"/>
+      <c r="D131" s="58"/>
+      <c r="E131" s="59"/>
+      <c r="G131" s="60"/>
+    </row>
+    <row r="132" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="57"/>
+      <c r="D132" s="58"/>
+      <c r="E132" s="59"/>
+      <c r="G132" s="60"/>
+    </row>
+    <row r="133" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="57"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="59"/>
+      <c r="G133" s="60"/>
+    </row>
+    <row r="134" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="57"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="59"/>
+      <c r="G134" s="60"/>
+    </row>
+    <row r="135" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="57"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="59"/>
+      <c r="G135" s="60"/>
+    </row>
+    <row r="136" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="57"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="59"/>
+      <c r="G136" s="60"/>
+    </row>
+    <row r="137" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="57"/>
+      <c r="D137" s="58"/>
+      <c r="E137" s="59"/>
+      <c r="G137" s="60"/>
+    </row>
+    <row r="138" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="57"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="59"/>
+      <c r="G138" s="60"/>
+    </row>
+    <row r="139" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="57"/>
+      <c r="D139" s="58"/>
+      <c r="E139" s="59"/>
+      <c r="G139" s="60"/>
+    </row>
+    <row r="140" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="57"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="59"/>
+      <c r="G140" s="60"/>
+    </row>
+    <row r="141" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="57"/>
+      <c r="D141" s="58"/>
+      <c r="E141" s="59"/>
+      <c r="G141" s="60"/>
+    </row>
+    <row r="142" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="57"/>
+      <c r="D142" s="58"/>
+      <c r="E142" s="59"/>
+      <c r="G142" s="60"/>
+    </row>
+    <row r="143" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="57"/>
+      <c r="D143" s="58"/>
+      <c r="E143" s="59"/>
+      <c r="G143" s="60"/>
+    </row>
+    <row r="144" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="57"/>
+      <c r="D144" s="58"/>
+      <c r="E144" s="59"/>
+      <c r="G144" s="60"/>
+    </row>
+    <row r="145" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="57"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="59"/>
+      <c r="G145" s="60"/>
+    </row>
+    <row r="146" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="57"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="59"/>
+      <c r="G146" s="60"/>
+    </row>
+    <row r="147" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="57"/>
+      <c r="D147" s="58"/>
+      <c r="E147" s="59"/>
+      <c r="G147" s="60"/>
+    </row>
+    <row r="148" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="57"/>
+      <c r="D148" s="58"/>
+      <c r="E148" s="59"/>
+      <c r="G148" s="60"/>
+    </row>
+    <row r="149" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="57"/>
+      <c r="D149" s="58"/>
+      <c r="E149" s="59"/>
+      <c r="G149" s="60"/>
+    </row>
+    <row r="150" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="57"/>
+      <c r="D150" s="58"/>
+      <c r="E150" s="59"/>
+      <c r="G150" s="60"/>
+    </row>
+    <row r="151" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="57"/>
+      <c r="D151" s="58"/>
+      <c r="E151" s="59"/>
+      <c r="G151" s="60"/>
+    </row>
+    <row r="152" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="57"/>
+      <c r="D152" s="58"/>
+      <c r="E152" s="59"/>
+      <c r="G152" s="60"/>
+    </row>
+    <row r="153" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="57"/>
+      <c r="D153" s="58"/>
+      <c r="E153" s="59"/>
+      <c r="G153" s="60"/>
+    </row>
+    <row r="154" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="57"/>
+      <c r="D154" s="58"/>
+      <c r="E154" s="59"/>
+      <c r="G154" s="60"/>
+    </row>
+    <row r="155" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="57"/>
+      <c r="D155" s="58"/>
+      <c r="E155" s="59"/>
+      <c r="G155" s="60"/>
+    </row>
+    <row r="156" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="57"/>
+      <c r="D156" s="58"/>
+      <c r="E156" s="59"/>
+      <c r="G156" s="60"/>
+    </row>
+    <row r="157" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="57"/>
+      <c r="D157" s="58"/>
+      <c r="E157" s="59"/>
+      <c r="G157" s="60"/>
+    </row>
+    <row r="158" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="57"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="59"/>
+      <c r="G158" s="60"/>
+    </row>
+    <row r="159" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="57"/>
+      <c r="D159" s="58"/>
+      <c r="E159" s="59"/>
+      <c r="G159" s="60"/>
+    </row>
+    <row r="160" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="57"/>
+      <c r="D160" s="58"/>
+      <c r="E160" s="59"/>
+      <c r="G160" s="60"/>
+    </row>
+    <row r="161" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="57"/>
+      <c r="D161" s="58"/>
+      <c r="E161" s="59"/>
+      <c r="G161" s="60"/>
+    </row>
+    <row r="162" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="57"/>
+      <c r="D162" s="58"/>
+      <c r="E162" s="59"/>
+      <c r="G162" s="60"/>
+    </row>
+    <row r="163" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="57"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="59"/>
+      <c r="G163" s="60"/>
+    </row>
+    <row r="164" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="57"/>
+      <c r="D164" s="58"/>
+      <c r="E164" s="59"/>
+      <c r="G164" s="60"/>
+    </row>
+    <row r="165" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="57"/>
+      <c r="D165" s="58"/>
+      <c r="E165" s="59"/>
+      <c r="G165" s="60"/>
+    </row>
+    <row r="166" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="57"/>
+      <c r="D166" s="58"/>
+      <c r="E166" s="59"/>
+      <c r="G166" s="60"/>
+    </row>
+    <row r="167" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="57"/>
+      <c r="D167" s="58"/>
+      <c r="E167" s="59"/>
+      <c r="G167" s="60"/>
+    </row>
+    <row r="168" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="57"/>
+      <c r="D168" s="58"/>
+      <c r="E168" s="59"/>
+      <c r="G168" s="60"/>
+    </row>
+    <row r="169" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="57"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="59"/>
+      <c r="G169" s="60"/>
+    </row>
+    <row r="170" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="57"/>
+      <c r="D170" s="58"/>
+      <c r="E170" s="59"/>
+      <c r="G170" s="60"/>
+    </row>
+    <row r="171" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="57"/>
+      <c r="D171" s="58"/>
+      <c r="E171" s="59"/>
+      <c r="G171" s="60"/>
+    </row>
+    <row r="172" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="57"/>
+      <c r="D172" s="58"/>
+      <c r="E172" s="59"/>
+      <c r="G172" s="60"/>
+    </row>
+    <row r="173" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="57"/>
+      <c r="D173" s="58"/>
+      <c r="E173" s="59"/>
+      <c r="G173" s="60"/>
+    </row>
+    <row r="174" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="57"/>
+      <c r="D174" s="58"/>
+      <c r="E174" s="59"/>
+      <c r="G174" s="60"/>
+    </row>
+    <row r="175" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="57"/>
+      <c r="D175" s="58"/>
+      <c r="E175" s="59"/>
+      <c r="G175" s="60"/>
+    </row>
+    <row r="176" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="57"/>
+      <c r="D176" s="58"/>
+      <c r="E176" s="59"/>
+      <c r="G176" s="60"/>
+    </row>
+    <row r="177" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="57"/>
+      <c r="D177" s="58"/>
+      <c r="E177" s="59"/>
+      <c r="G177" s="60"/>
+    </row>
+    <row r="178" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="57"/>
+      <c r="D178" s="58"/>
+      <c r="E178" s="59"/>
+      <c r="G178" s="60"/>
+    </row>
+    <row r="179" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="57"/>
+      <c r="D179" s="58"/>
+      <c r="E179" s="59"/>
+      <c r="G179" s="60"/>
+    </row>
+    <row r="180" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="57"/>
+      <c r="D180" s="58"/>
+      <c r="E180" s="59"/>
+      <c r="G180" s="60"/>
+    </row>
+    <row r="181" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="57"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="59"/>
+      <c r="G181" s="60"/>
+    </row>
+    <row r="182" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="57"/>
+      <c r="D182" s="58"/>
+      <c r="E182" s="59"/>
+      <c r="G182" s="60"/>
+    </row>
+    <row r="183" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="57"/>
+      <c r="D183" s="58"/>
+      <c r="E183" s="59"/>
+      <c r="G183" s="60"/>
+    </row>
+    <row r="184" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="57"/>
+      <c r="D184" s="58"/>
+      <c r="E184" s="59"/>
+      <c r="G184" s="60"/>
+    </row>
+    <row r="185" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="57"/>
+      <c r="D185" s="58"/>
+      <c r="E185" s="59"/>
+      <c r="G185" s="60"/>
+    </row>
+    <row r="186" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="57"/>
+      <c r="D186" s="58"/>
+      <c r="E186" s="59"/>
+      <c r="G186" s="60"/>
+    </row>
+    <row r="187" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="57"/>
+      <c r="D187" s="58"/>
+      <c r="E187" s="59"/>
+      <c r="G187" s="60"/>
+    </row>
+    <row r="188" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="57"/>
+      <c r="D188" s="58"/>
+      <c r="E188" s="59"/>
+      <c r="G188" s="60"/>
+    </row>
+    <row r="189" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="57"/>
+      <c r="D189" s="58"/>
+      <c r="E189" s="59"/>
+      <c r="G189" s="60"/>
+    </row>
+    <row r="190" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="57"/>
+      <c r="D190" s="58"/>
+      <c r="E190" s="59"/>
+      <c r="G190" s="60"/>
+    </row>
+    <row r="191" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="57"/>
+      <c r="D191" s="58"/>
+      <c r="E191" s="59"/>
+      <c r="G191" s="60"/>
+    </row>
+    <row r="192" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="57"/>
+      <c r="D192" s="58"/>
+      <c r="E192" s="59"/>
+      <c r="G192" s="60"/>
+    </row>
+    <row r="193" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="57"/>
+      <c r="D193" s="58"/>
+      <c r="E193" s="59"/>
+      <c r="G193" s="60"/>
+    </row>
+    <row r="194" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="57"/>
+      <c r="D194" s="58"/>
+      <c r="E194" s="59"/>
+      <c r="G194" s="60"/>
+    </row>
+    <row r="195" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="57"/>
+      <c r="D195" s="58"/>
+      <c r="E195" s="59"/>
+      <c r="G195" s="60"/>
+    </row>
+    <row r="196" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="57"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="59"/>
+      <c r="G196" s="60"/>
+    </row>
+    <row r="197" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="57"/>
+      <c r="D197" s="58"/>
+      <c r="E197" s="59"/>
+      <c r="G197" s="60"/>
+    </row>
+    <row r="198" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="57"/>
+      <c r="D198" s="58"/>
+      <c r="E198" s="59"/>
+      <c r="G198" s="60"/>
+    </row>
+    <row r="199" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="57"/>
+      <c r="D199" s="58"/>
+      <c r="E199" s="59"/>
+      <c r="G199" s="60"/>
+    </row>
+    <row r="200" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="57"/>
+      <c r="D200" s="58"/>
+      <c r="E200" s="59"/>
+      <c r="G200" s="60"/>
+    </row>
+    <row r="201" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="57"/>
+      <c r="D201" s="58"/>
+      <c r="E201" s="59"/>
+      <c r="G201" s="60"/>
+    </row>
+    <row r="202" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="57"/>
+      <c r="D202" s="58"/>
+      <c r="E202" s="59"/>
+      <c r="G202" s="60"/>
+    </row>
+    <row r="203" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="57"/>
+      <c r="D203" s="58"/>
+      <c r="E203" s="59"/>
+      <c r="G203" s="60"/>
+    </row>
+    <row r="204" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="57"/>
+      <c r="D204" s="58"/>
+      <c r="E204" s="59"/>
+      <c r="G204" s="60"/>
+    </row>
+    <row r="205" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="57"/>
+      <c r="D205" s="58"/>
+      <c r="E205" s="59"/>
+      <c r="G205" s="60"/>
+    </row>
+    <row r="206" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="57"/>
+      <c r="D206" s="58"/>
+      <c r="E206" s="59"/>
+      <c r="G206" s="60"/>
+    </row>
+    <row r="207" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="57"/>
+      <c r="D207" s="58"/>
+      <c r="E207" s="59"/>
+      <c r="G207" s="60"/>
+    </row>
+    <row r="208" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="57"/>
+      <c r="D208" s="58"/>
+      <c r="E208" s="59"/>
+      <c r="G208" s="60"/>
+    </row>
+    <row r="209" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="57"/>
+      <c r="D209" s="58"/>
+      <c r="E209" s="59"/>
+      <c r="G209" s="60"/>
+    </row>
+    <row r="210" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="57"/>
+      <c r="D210" s="58"/>
+      <c r="E210" s="59"/>
+      <c r="G210" s="60"/>
+    </row>
+    <row r="211" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="57"/>
+      <c r="D211" s="58"/>
+      <c r="E211" s="59"/>
+      <c r="G211" s="60"/>
+    </row>
+    <row r="212" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="57"/>
+      <c r="D212" s="58"/>
+      <c r="E212" s="59"/>
+      <c r="G212" s="60"/>
+    </row>
+    <row r="213" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="57"/>
+      <c r="D213" s="58"/>
+      <c r="E213" s="59"/>
+      <c r="G213" s="60"/>
+    </row>
+    <row r="214" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="57"/>
+      <c r="D214" s="58"/>
+      <c r="E214" s="59"/>
+      <c r="G214" s="60"/>
+    </row>
+    <row r="215" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="57"/>
+      <c r="D215" s="58"/>
+      <c r="E215" s="59"/>
+      <c r="G215" s="60"/>
+    </row>
+    <row r="216" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="57"/>
+      <c r="D216" s="58"/>
+      <c r="E216" s="59"/>
+      <c r="G216" s="60"/>
+    </row>
+    <row r="217" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="57"/>
+      <c r="D217" s="58"/>
+      <c r="E217" s="59"/>
+      <c r="G217" s="60"/>
+    </row>
+    <row r="218" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="57"/>
+      <c r="D218" s="58"/>
+      <c r="E218" s="59"/>
+      <c r="G218" s="60"/>
+    </row>
+    <row r="219" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="57"/>
+      <c r="D219" s="58"/>
+      <c r="E219" s="59"/>
+      <c r="G219" s="60"/>
+    </row>
+    <row r="220" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="57"/>
+      <c r="D220" s="58"/>
+      <c r="E220" s="59"/>
+      <c r="G220" s="60"/>
+    </row>
+    <row r="221" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="57"/>
+      <c r="D221" s="58"/>
+      <c r="E221" s="59"/>
+      <c r="G221" s="60"/>
+    </row>
+    <row r="222" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="57"/>
+      <c r="D222" s="58"/>
+      <c r="E222" s="59"/>
+      <c r="G222" s="60"/>
+    </row>
+    <row r="223" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="57"/>
+      <c r="D223" s="58"/>
+      <c r="E223" s="59"/>
+      <c r="G223" s="60"/>
+    </row>
+    <row r="224" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="57"/>
+      <c r="D224" s="58"/>
+      <c r="E224" s="59"/>
+      <c r="G224" s="60"/>
+    </row>
+    <row r="225" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="57"/>
+      <c r="D225" s="58"/>
+      <c r="E225" s="59"/>
+      <c r="G225" s="60"/>
+    </row>
+    <row r="226" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="57"/>
+      <c r="D226" s="58"/>
+      <c r="E226" s="59"/>
+      <c r="G226" s="60"/>
+    </row>
+    <row r="227" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="57"/>
+      <c r="D227" s="58"/>
+      <c r="E227" s="59"/>
+      <c r="G227" s="60"/>
+    </row>
+    <row r="228" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="57"/>
+      <c r="D228" s="58"/>
+      <c r="E228" s="59"/>
+      <c r="G228" s="60"/>
+    </row>
+    <row r="229" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="57"/>
+      <c r="D229" s="58"/>
+      <c r="E229" s="59"/>
+      <c r="G229" s="60"/>
+    </row>
+    <row r="230" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="57"/>
+      <c r="D230" s="58"/>
+      <c r="E230" s="59"/>
+      <c r="G230" s="60"/>
+    </row>
+    <row r="231" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="57"/>
+      <c r="D231" s="58"/>
+      <c r="E231" s="59"/>
+      <c r="G231" s="60"/>
+    </row>
+    <row r="232" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="57"/>
+      <c r="D232" s="58"/>
+      <c r="E232" s="59"/>
+      <c r="G232" s="60"/>
+    </row>
+    <row r="233" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="57"/>
+      <c r="D233" s="58"/>
+      <c r="E233" s="59"/>
+      <c r="G233" s="60"/>
+    </row>
+    <row r="234" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="57"/>
+      <c r="D234" s="58"/>
+      <c r="E234" s="59"/>
+      <c r="G234" s="60"/>
+    </row>
+    <row r="235" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="57"/>
+      <c r="D235" s="58"/>
+      <c r="E235" s="59"/>
+      <c r="G235" s="60"/>
+    </row>
+    <row r="236" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="57"/>
+      <c r="D236" s="58"/>
+      <c r="E236" s="59"/>
+      <c r="G236" s="60"/>
+    </row>
+    <row r="237" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="57"/>
+      <c r="D237" s="58"/>
+      <c r="E237" s="59"/>
+      <c r="G237" s="60"/>
+    </row>
+    <row r="238" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="57"/>
+      <c r="D238" s="58"/>
+      <c r="E238" s="59"/>
+      <c r="G238" s="60"/>
+    </row>
+    <row r="239" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="57"/>
+      <c r="D239" s="58"/>
+      <c r="E239" s="59"/>
+      <c r="G239" s="60"/>
+    </row>
+    <row r="240" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="57"/>
+      <c r="D240" s="58"/>
+      <c r="E240" s="59"/>
+      <c r="G240" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="A24:A54"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B76:F76"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="A58:A75"/>
-    <mergeCell ref="A85:A118"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B73:F73"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B118:B120"/>
     <mergeCell ref="B121:B122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="B68:F68"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B72:F72"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A25:A55"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="A87:A120"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B113"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D106" r:id="rId1"/>
-    <hyperlink ref="D110" r:id="rId2"/>
-    <hyperlink ref="D109" r:id="rId3"/>
-    <hyperlink ref="D30" r:id="rId4"/>
-    <hyperlink ref="D34" r:id="rId5"/>
-    <hyperlink ref="D33" r:id="rId6"/>
+    <hyperlink ref="D108" r:id="rId1"/>
+    <hyperlink ref="D112" r:id="rId2"/>
+    <hyperlink ref="D111" r:id="rId3"/>
+    <hyperlink ref="D31" r:id="rId4"/>
+    <hyperlink ref="D35" r:id="rId5"/>
+    <hyperlink ref="D34" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId7"/>
@@ -4386,56 +4424,56 @@
       <selection activeCell="A34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4"/>
-    <col min="5" max="5" width="16.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="60.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="16.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="18.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="44" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4450,13 +4488,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4464,7 +4502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4472,7 +4510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4480,7 +4518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4488,10 +4526,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4499,42 +4537,42 @@
         <v>0.39513888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>0.39652777777777781</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>0.66597222222222219</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>0.81180555555555556</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>0.81319444444444444</v>
       </c>
@@ -4553,16 +4591,16 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -4573,7 +4611,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4584,7 +4622,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -4593,7 +4631,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -4606,14 +4644,14 @@
       <c r="D4" s="7"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
@@ -4621,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
@@ -4629,7 +4667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -4638,13 +4676,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -4652,7 +4690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -4663,7 +4701,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -4671,17 +4709,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -4689,7 +4727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -4697,7 +4735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -4705,7 +4743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -4713,12 +4751,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -4726,27 +4764,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>

--- a/final-project/virtual-cards/smoke-test-virtual-cards.xlsx
+++ b/final-project/virtual-cards/smoke-test-virtual-cards.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corina\Desktop\cursuri\siit-testing\final-project\virtual-cards\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="302">
   <si>
     <t xml:space="preserve">Test </t>
   </si>
@@ -1134,17 +1129,71 @@
   <si>
     <t>User experience</t>
   </si>
+  <si>
+    <t>Mandatory fields are working as required
+Mandatory fields are displayed in a distinctive way than the non-mandatory fields</t>
+  </si>
+  <si>
+    <t>The application is minimized whenever there is an incoming phone call.</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S5 - on wich the app runs
+LG G2 Mini - caller</t>
+  </si>
+  <si>
+    <t>The application is minimized or suspended on the event of a call and then whenever the call stops the application is resumed</t>
+  </si>
+  <si>
+    <t>The installation of the application can be done smoothly in a reasonable amount of time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The application can be uninstalled in a reasonable amount of time </t>
+  </si>
+  <si>
+    <t>Navigation between relevant modules in the application are as per the requirement.
+The application provides a method for going back or undoing an action
+The text is easy to read
+Application does not consume battery excessively</t>
+  </si>
+  <si>
+    <t>The user should be able to create new account without encountering any errors</t>
+  </si>
+  <si>
+    <t>User should not be able to register with invalid credentials</t>
+  </si>
+  <si>
+    <t>The user should be able to log in without encountering any errors</t>
+  </si>
+  <si>
+    <t>An error message should appear ("Invalid password")
+The user is not logged in</t>
+  </si>
+  <si>
+    <t>The "Log out" option should be available</t>
+  </si>
+  <si>
+    <t>An error message should appear ("Invalid credentials")
+The user is not logged in</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1227,6 +1276,15 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1365,17 +1423,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1384,21 +1442,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1409,7 +1467,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1427,7 +1485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1439,20 +1497,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1461,7 +1519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1485,45 +1543,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1536,87 +1582,99 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1679,7 +1737,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1714,7 +1772,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1929,53 +1987,53 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C128" sqref="C128"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="43.5546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="50"/>
-      <c r="B1" s="51" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="48"/>
+      <c r="B1" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="87" t="s">
         <v>251</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="88" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="87" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="68" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="69"/>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
       <c r="B3" s="43" t="s">
         <v>219</v>
       </c>
@@ -1985,52 +2043,58 @@
       <c r="D3" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>212</v>
+      <c r="E3" s="31" t="s">
+        <v>293</v>
       </c>
       <c r="F3" s="44"/>
     </row>
-    <row r="4" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="80" t="s">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
+      <c r="B4" s="65" t="s">
         <v>217</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="34" t="s">
-        <v>212</v>
+      <c r="D4" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>290</v>
       </c>
       <c r="F4" s="44"/>
     </row>
-    <row r="5" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="69"/>
-      <c r="B5" s="80"/>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="34" t="s">
-        <v>212</v>
+      <c r="D5" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>292</v>
       </c>
       <c r="F5" s="44"/>
     </row>
-    <row r="6" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="80"/>
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="34" t="s">
-        <v>212</v>
+      <c r="D6" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>295</v>
       </c>
       <c r="F6" s="44"/>
     </row>
-    <row r="7" spans="1:6" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="80" t="s">
+    <row r="7" spans="1:6" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="65" t="s">
         <v>209</v>
       </c>
       <c r="C7" s="25" t="s">
@@ -2039,40 +2103,40 @@
       <c r="D7" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>212</v>
+      <c r="E7" s="31" t="s">
+        <v>296</v>
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="80"/>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="25" t="s">
         <v>211</v>
       </c>
       <c r="D8" s="26"/>
-      <c r="E8" s="34" t="s">
-        <v>213</v>
+      <c r="E8" s="31" t="s">
+        <v>289</v>
       </c>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="80"/>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="70"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="25" t="s">
         <v>235</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="E9" s="46" t="s">
-        <v>213</v>
+      <c r="E9" s="26" t="s">
+        <v>297</v>
       </c>
       <c r="F9" s="25"/>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="80" t="s">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="65" t="s">
         <v>133</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -2081,39 +2145,41 @@
       <c r="D10" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>212</v>
+      <c r="E10" s="31" t="s">
+        <v>298</v>
       </c>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="80"/>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="25" t="s">
         <v>285</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="34"/>
+      <c r="E11" s="31" t="s">
+        <v>299</v>
+      </c>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="80"/>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="25" t="s">
         <v>237</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="34" t="s">
-        <v>213</v>
+      <c r="E12" s="31" t="s">
+        <v>301</v>
       </c>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
       <c r="B13" s="43" t="s">
         <v>240</v>
       </c>
@@ -2121,16 +2187,16 @@
         <v>241</v>
       </c>
       <c r="D13" s="26"/>
-      <c r="E13" s="34" t="s">
-        <v>212</v>
+      <c r="E13" s="31" t="s">
+        <v>300</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
-      <c r="B14" s="80" t="s">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="65" t="s">
         <v>206</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -2139,39 +2205,39 @@
       <c r="D14" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="31" t="s">
         <v>212</v>
       </c>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="69"/>
-      <c r="B15" s="80"/>
+    <row r="15" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A15" s="70"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="25" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="59" t="s">
         <v>280</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="31" t="s">
         <v>212</v>
       </c>
       <c r="F15" s="25"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="69"/>
-      <c r="B16" s="81"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="25" t="s">
         <v>211</v>
       </c>
       <c r="D16" s="26"/>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="31" t="s">
         <v>213</v>
       </c>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
       <c r="B17" s="23" t="s">
         <v>207</v>
       </c>
@@ -2181,14 +2247,14 @@
       <c r="D17" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="E17" s="34" t="s">
+      <c r="E17" s="31" t="s">
         <v>212</v>
       </c>
       <c r="F17" s="25"/>
     </row>
-    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="69"/>
-      <c r="B18" s="80" t="s">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="65" t="s">
         <v>248</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -2197,41 +2263,41 @@
       <c r="D18" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="31" t="s">
         <v>212</v>
       </c>
       <c r="F18" s="25"/>
     </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="80"/>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="25" t="s">
         <v>247</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="31" t="s">
         <v>212</v>
       </c>
       <c r="F19" s="25"/>
     </row>
-    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="69"/>
-      <c r="B20" s="80"/>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="25" t="s">
         <v>230</v>
       </c>
       <c r="D20" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="31" t="s">
         <v>212</v>
       </c>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
       <c r="B21" s="45" t="s">
         <v>218</v>
       </c>
@@ -2239,28 +2305,28 @@
         <v>287</v>
       </c>
       <c r="D21" s="38"/>
-      <c r="E21" s="47" t="s">
-        <v>212</v>
+      <c r="E21" s="89" t="s">
+        <v>294</v>
       </c>
       <c r="F21" s="37"/>
     </row>
-    <row r="22" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="68" t="s">
+    <row r="22" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="69"/>
-      <c r="B26" s="64" t="s">
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
+      <c r="B26" s="66" t="s">
         <v>243</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -2276,9 +2342,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
-      <c r="B27" s="64"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="25" t="s">
         <v>76</v>
       </c>
@@ -2290,9 +2356,9 @@
       </c>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="69"/>
-      <c r="B28" s="64"/>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="70"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="25" t="s">
         <v>3</v>
       </c>
@@ -2304,9 +2370,9 @@
       </c>
       <c r="F28" s="25"/>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="69"/>
-      <c r="B29" s="64"/>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="70"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="25" t="s">
         <v>2</v>
       </c>
@@ -2318,17 +2384,17 @@
       </c>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="69"/>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="70"/>
       <c r="B30" s="71"/>
       <c r="C30" s="72"/>
       <c r="D30" s="72"/>
       <c r="E30" s="72"/>
       <c r="F30" s="73"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="69"/>
-      <c r="B31" s="64" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="70"/>
+      <c r="B31" s="66" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -2342,9 +2408,9 @@
       </c>
       <c r="F31" s="25"/>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="69"/>
-      <c r="B32" s="64"/>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="70"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="28" t="s">
         <v>50</v>
       </c>
@@ -2356,9 +2422,9 @@
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="69"/>
-      <c r="B33" s="64"/>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="70"/>
+      <c r="B33" s="66"/>
       <c r="C33" s="28" t="s">
         <v>51</v>
       </c>
@@ -2370,9 +2436,9 @@
       </c>
       <c r="F33" s="25"/>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="69"/>
-      <c r="B34" s="64"/>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="70"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="28" t="s">
         <v>52</v>
       </c>
@@ -2384,9 +2450,9 @@
       </c>
       <c r="F34" s="25"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
-      <c r="B35" s="64"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="70"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="25" t="s">
         <v>58</v>
       </c>
@@ -2398,9 +2464,9 @@
       </c>
       <c r="F35" s="25"/>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="69"/>
-      <c r="B36" s="64"/>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="70"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="28" t="s">
         <v>49</v>
       </c>
@@ -2412,17 +2478,17 @@
       </c>
       <c r="F36" s="25"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="70"/>
       <c r="B37" s="71"/>
       <c r="C37" s="72"/>
       <c r="D37" s="72"/>
       <c r="E37" s="72"/>
       <c r="F37" s="73"/>
     </row>
-    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
-      <c r="B38" s="64" t="s">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="70"/>
+      <c r="B38" s="66" t="s">
         <v>128</v>
       </c>
       <c r="C38" s="25" t="s">
@@ -2436,9 +2502,9 @@
       </c>
       <c r="F38" s="25"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
-      <c r="B39" s="64"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="70"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="25" t="s">
         <v>61</v>
       </c>
@@ -2450,9 +2516,9 @@
       </c>
       <c r="F39" s="25"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
-      <c r="B40" s="64"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="70"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="25" t="s">
         <v>63</v>
       </c>
@@ -2464,9 +2530,9 @@
       </c>
       <c r="F40" s="25"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
-      <c r="B41" s="64"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="70"/>
+      <c r="B41" s="66"/>
       <c r="C41" s="25" t="s">
         <v>64</v>
       </c>
@@ -2478,9 +2544,9 @@
       </c>
       <c r="F41" s="25"/>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="69"/>
-      <c r="B42" s="64"/>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="70"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="25" t="s">
         <v>70</v>
       </c>
@@ -2492,9 +2558,9 @@
       </c>
       <c r="F42" s="25"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
-      <c r="B43" s="64"/>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="70"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="25" t="s">
         <v>67</v>
       </c>
@@ -2506,17 +2572,17 @@
       </c>
       <c r="F43" s="25"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="70"/>
       <c r="B44" s="71"/>
       <c r="C44" s="72"/>
       <c r="D44" s="72"/>
       <c r="E44" s="72"/>
       <c r="F44" s="73"/>
     </row>
-    <row r="45" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="69"/>
-      <c r="B45" s="64" t="s">
+    <row r="45" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="70"/>
+      <c r="B45" s="66" t="s">
         <v>129</v>
       </c>
       <c r="C45" s="25" t="s">
@@ -2530,9 +2596,9 @@
       </c>
       <c r="F45" s="25"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="69"/>
-      <c r="B46" s="64"/>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="70"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="25" t="s">
         <v>104</v>
       </c>
@@ -2544,17 +2610,17 @@
       </c>
       <c r="F46" s="25"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="69"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="70"/>
       <c r="B47" s="71"/>
       <c r="C47" s="72"/>
       <c r="D47" s="72"/>
       <c r="E47" s="72"/>
       <c r="F47" s="73"/>
     </row>
-    <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
-      <c r="B48" s="64" t="s">
+    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="70"/>
+      <c r="B48" s="66" t="s">
         <v>130</v>
       </c>
       <c r="C48" s="25" t="s">
@@ -2568,9 +2634,9 @@
       </c>
       <c r="F48" s="25"/>
     </row>
-    <row r="49" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
-      <c r="B49" s="64"/>
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="70"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="25" t="s">
         <v>99</v>
       </c>
@@ -2582,17 +2648,17 @@
       </c>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="69"/>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="70"/>
       <c r="B50" s="71"/>
       <c r="C50" s="72"/>
       <c r="D50" s="72"/>
       <c r="E50" s="72"/>
       <c r="F50" s="73"/>
     </row>
-    <row r="51" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
-      <c r="B51" s="64" t="s">
+    <row r="51" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="70"/>
+      <c r="B51" s="66" t="s">
         <v>131</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -2606,9 +2672,9 @@
       </c>
       <c r="F51" s="25"/>
     </row>
-    <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="69"/>
-      <c r="B52" s="64"/>
+    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="70"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="25" t="s">
         <v>103</v>
       </c>
@@ -2620,17 +2686,17 @@
       </c>
       <c r="F52" s="25"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="69"/>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="70"/>
       <c r="B53" s="71"/>
       <c r="C53" s="72"/>
       <c r="D53" s="72"/>
       <c r="E53" s="72"/>
       <c r="F53" s="73"/>
     </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="69"/>
-      <c r="B54" s="64" t="s">
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="70"/>
+      <c r="B54" s="66" t="s">
         <v>132</v>
       </c>
       <c r="C54" s="25" t="s">
@@ -2644,9 +2710,9 @@
       </c>
       <c r="F54" s="25"/>
     </row>
-    <row r="55" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A55" s="69"/>
-      <c r="B55" s="64"/>
+    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="70"/>
+      <c r="B55" s="66"/>
       <c r="C55" s="25" t="s">
         <v>47</v>
       </c>
@@ -2658,7 +2724,7 @@
       </c>
       <c r="F55" s="25"/>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
       <c r="B56" s="74"/>
       <c r="C56" s="74"/>
@@ -2666,31 +2732,31 @@
       <c r="E56" s="74"/>
       <c r="F56" s="74"/>
     </row>
-    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
-      <c r="B57" s="48"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="20"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="47"/>
       <c r="F57" s="20"/>
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="70" t="s">
+    <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="B58" s="70"/>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="76" t="s">
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="69" t="s">
         <v>255</v>
       </c>
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="66" t="s">
         <v>134</v>
       </c>
       <c r="C59" s="25" t="s">
@@ -2706,9 +2772,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="69"/>
-      <c r="B60" s="64"/>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="70"/>
+      <c r="B60" s="66"/>
       <c r="C60" s="25" t="s">
         <v>85</v>
       </c>
@@ -2720,9 +2786,9 @@
       </c>
       <c r="F60" s="25"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="69"/>
-      <c r="B61" s="64"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="70"/>
+      <c r="B61" s="66"/>
       <c r="C61" s="25" t="s">
         <v>88</v>
       </c>
@@ -2734,9 +2800,9 @@
       </c>
       <c r="F61" s="25"/>
     </row>
-    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="69"/>
-      <c r="B62" s="64"/>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="70"/>
+      <c r="B62" s="66"/>
       <c r="C62" s="25" t="s">
         <v>89</v>
       </c>
@@ -2748,9 +2814,9 @@
       </c>
       <c r="F62" s="25"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="69"/>
-      <c r="B63" s="64"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="70"/>
+      <c r="B63" s="66"/>
       <c r="C63" s="25" t="s">
         <v>92</v>
       </c>
@@ -2762,17 +2828,17 @@
       </c>
       <c r="F63" s="25"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="69"/>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="70"/>
       <c r="B64" s="71"/>
       <c r="C64" s="72"/>
       <c r="D64" s="72"/>
       <c r="E64" s="72"/>
       <c r="F64" s="73"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="69"/>
-      <c r="B65" s="64" t="s">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="70"/>
+      <c r="B65" s="66" t="s">
         <v>135</v>
       </c>
       <c r="C65" s="25" t="s">
@@ -2788,9 +2854,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="69"/>
-      <c r="B66" s="64"/>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="70"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="25" t="s">
         <v>107</v>
       </c>
@@ -2800,16 +2866,16 @@
       </c>
       <c r="F66" s="25"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="69"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="70"/>
       <c r="B67" s="71"/>
       <c r="C67" s="72"/>
       <c r="D67" s="72"/>
       <c r="E67" s="72"/>
       <c r="F67" s="73"/>
     </row>
-    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="69"/>
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="70"/>
       <c r="B68" s="34" t="s">
         <v>136</v>
       </c>
@@ -2824,16 +2890,16 @@
       </c>
       <c r="F68" s="25"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="69"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="70"/>
       <c r="B69" s="71"/>
       <c r="C69" s="72"/>
       <c r="D69" s="72"/>
       <c r="E69" s="72"/>
       <c r="F69" s="73"/>
     </row>
-    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="69"/>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="70"/>
       <c r="B70" s="35" t="s">
         <v>137</v>
       </c>
@@ -2844,16 +2910,16 @@
       <c r="E70" s="22"/>
       <c r="F70" s="25"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="69"/>
-      <c r="B71" s="82"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="84"/>
-    </row>
-    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="69"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="70"/>
+      <c r="B71" s="75"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="77"/>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="70"/>
       <c r="B72" s="34" t="s">
         <v>138</v>
       </c>
@@ -2868,16 +2934,16 @@
       </c>
       <c r="F72" s="25"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="69"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="70"/>
       <c r="B73" s="71"/>
       <c r="C73" s="72"/>
       <c r="D73" s="72"/>
       <c r="E73" s="72"/>
       <c r="F73" s="73"/>
     </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A74" s="69"/>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="70"/>
       <c r="B74" s="34" t="s">
         <v>139</v>
       </c>
@@ -2892,16 +2958,16 @@
       </c>
       <c r="F74" s="25"/>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="69"/>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="70"/>
       <c r="B75" s="71"/>
       <c r="C75" s="72"/>
       <c r="D75" s="72"/>
       <c r="E75" s="72"/>
       <c r="F75" s="73"/>
     </row>
-    <row r="76" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A76" s="69"/>
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="70"/>
       <c r="B76" s="34" t="s">
         <v>267</v>
       </c>
@@ -2916,7 +2982,7 @@
       </c>
       <c r="F76" s="25"/>
     </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
       <c r="B77" s="74"/>
       <c r="C77" s="74"/>
@@ -2924,29 +2990,29 @@
       <c r="E77" s="74"/>
       <c r="F77" s="74"/>
     </row>
-    <row r="78" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
-      <c r="B78" s="48"/>
+      <c r="B78" s="46"/>
       <c r="C78" s="20"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="47"/>
       <c r="F78" s="20"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
-      <c r="B79" s="75" t="s">
+      <c r="B79" s="68" t="s">
         <v>246</v>
       </c>
-      <c r="C79" s="75"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="75"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="68"/>
       <c r="F79" s="19"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
-      <c r="B80" s="65" t="s">
+      <c r="B80" s="85" t="s">
         <v>140</v>
       </c>
       <c r="C80" s="24" t="s">
@@ -2960,9 +3026,9 @@
       </c>
       <c r="F80" s="25"/>
     </row>
-    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
-      <c r="B81" s="65"/>
+      <c r="B81" s="85"/>
       <c r="C81" s="24" t="s">
         <v>114</v>
       </c>
@@ -2974,11 +3040,11 @@
       </c>
       <c r="F81" s="25"/>
     </row>
-    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="55" t="s">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="B82" s="65"/>
+      <c r="B82" s="85"/>
       <c r="C82" s="24" t="s">
         <v>220</v>
       </c>
@@ -2990,9 +3056,9 @@
       </c>
       <c r="F82" s="25"/>
     </row>
-    <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
-      <c r="B83" s="65"/>
+      <c r="B83" s="85"/>
       <c r="C83" s="24" t="s">
         <v>117</v>
       </c>
@@ -3004,9 +3070,9 @@
       </c>
       <c r="F83" s="25"/>
     </row>
-    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
-      <c r="B84" s="65"/>
+      <c r="B84" s="85"/>
       <c r="C84" s="24" t="s">
         <v>125</v>
       </c>
@@ -3016,9 +3082,9 @@
       </c>
       <c r="F84" s="25"/>
     </row>
-    <row r="85" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
-      <c r="B85" s="65"/>
+      <c r="B85" s="85"/>
       <c r="C85" s="24" t="s">
         <v>270</v>
       </c>
@@ -3030,16 +3096,16 @@
       </c>
       <c r="F85" s="25"/>
     </row>
-    <row r="86" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="89"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="86"/>
-      <c r="E86" s="87"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="88"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="77" t="s">
+    <row r="86" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="64"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="63"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="81" t="s">
         <v>257</v>
       </c>
       <c r="B87" s="17" t="s">
@@ -3054,9 +3120,9 @@
       <c r="E87" s="22"/>
       <c r="F87" s="25"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="78"/>
-      <c r="B88" s="66" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="82"/>
+      <c r="B88" s="67" t="s">
         <v>164</v>
       </c>
       <c r="C88" s="25" t="s">
@@ -3070,9 +3136,9 @@
       </c>
       <c r="F88" s="25"/>
     </row>
-    <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="78"/>
-      <c r="B89" s="66"/>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="82"/>
+      <c r="B89" s="67"/>
       <c r="C89" s="25" t="s">
         <v>144</v>
       </c>
@@ -3084,9 +3150,9 @@
       </c>
       <c r="F89" s="25"/>
     </row>
-    <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="78"/>
-      <c r="B90" s="66"/>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="82"/>
+      <c r="B90" s="67"/>
       <c r="C90" s="25" t="s">
         <v>3</v>
       </c>
@@ -3098,9 +3164,9 @@
       </c>
       <c r="F90" s="25"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="78"/>
-      <c r="B91" s="66" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="82"/>
+      <c r="B91" s="67" t="s">
         <v>165</v>
       </c>
       <c r="C91" s="25" t="s">
@@ -3112,9 +3178,9 @@
       <c r="E91" s="22"/>
       <c r="F91" s="25"/>
     </row>
-    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="78"/>
-      <c r="B92" s="66"/>
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="82"/>
+      <c r="B92" s="67"/>
       <c r="C92" s="25" t="s">
         <v>144</v>
       </c>
@@ -3126,9 +3192,9 @@
       </c>
       <c r="F92" s="25"/>
     </row>
-    <row r="93" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="78"/>
-      <c r="B93" s="66"/>
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="82"/>
+      <c r="B93" s="67"/>
       <c r="C93" s="25" t="s">
         <v>3</v>
       </c>
@@ -3140,9 +3206,9 @@
       </c>
       <c r="F93" s="25"/>
     </row>
-    <row r="94" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="78"/>
-      <c r="B94" s="66" t="s">
+    <row r="94" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="82"/>
+      <c r="B94" s="67" t="s">
         <v>166</v>
       </c>
       <c r="C94" s="25" t="s">
@@ -3156,9 +3222,9 @@
       </c>
       <c r="F94" s="25"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="78"/>
-      <c r="B95" s="66"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="82"/>
+      <c r="B95" s="67"/>
       <c r="C95" s="25" t="s">
         <v>151</v>
       </c>
@@ -3170,9 +3236,9 @@
       </c>
       <c r="F95" s="25"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="78"/>
-      <c r="B96" s="66" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="82"/>
+      <c r="B96" s="67" t="s">
         <v>167</v>
       </c>
       <c r="C96" s="25" t="s">
@@ -3186,9 +3252,9 @@
       </c>
       <c r="F96" s="25"/>
     </row>
-    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="78"/>
-      <c r="B97" s="66"/>
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="82"/>
+      <c r="B97" s="67"/>
       <c r="C97" s="25" t="s">
         <v>191</v>
       </c>
@@ -3200,9 +3266,9 @@
       </c>
       <c r="F97" s="25"/>
     </row>
-    <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="78"/>
-      <c r="B98" s="66"/>
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="82"/>
+      <c r="B98" s="67"/>
       <c r="C98" s="25" t="s">
         <v>3</v>
       </c>
@@ -3214,9 +3280,9 @@
       </c>
       <c r="F98" s="25"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="78"/>
-      <c r="B99" s="66" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="82"/>
+      <c r="B99" s="67" t="s">
         <v>168</v>
       </c>
       <c r="C99" s="25" t="s">
@@ -3230,9 +3296,9 @@
       </c>
       <c r="F99" s="25"/>
     </row>
-    <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="78"/>
-      <c r="B100" s="66"/>
+    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="82"/>
+      <c r="B100" s="67"/>
       <c r="C100" s="25" t="s">
         <v>159</v>
       </c>
@@ -3244,9 +3310,9 @@
       </c>
       <c r="F100" s="25"/>
     </row>
-    <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="78"/>
-      <c r="B101" s="66"/>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="82"/>
+      <c r="B101" s="67"/>
       <c r="C101" s="37" t="s">
         <v>161</v>
       </c>
@@ -3260,9 +3326,9 @@
       <c r="G101" s="16"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="78"/>
-      <c r="B102" s="66" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="82"/>
+      <c r="B102" s="67" t="s">
         <v>169</v>
       </c>
       <c r="C102" s="25" t="s">
@@ -3278,9 +3344,9 @@
       <c r="G102" s="16"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="78"/>
-      <c r="B103" s="66"/>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="82"/>
+      <c r="B103" s="67"/>
       <c r="C103" s="25" t="s">
         <v>170</v>
       </c>
@@ -3294,9 +3360,9 @@
       <c r="G103" s="16"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="78"/>
-      <c r="B104" s="66"/>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="82"/>
+      <c r="B104" s="67"/>
       <c r="C104" s="25" t="s">
         <v>171</v>
       </c>
@@ -3310,9 +3376,9 @@
       <c r="G104" s="16"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="78"/>
-      <c r="B105" s="66"/>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="82"/>
+      <c r="B105" s="67"/>
       <c r="C105" s="37" t="s">
         <v>172</v>
       </c>
@@ -3326,9 +3392,9 @@
       <c r="G105" s="16"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="78"/>
-      <c r="B106" s="66" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="82"/>
+      <c r="B106" s="67" t="s">
         <v>175</v>
       </c>
       <c r="C106" s="37" t="s">
@@ -3344,9 +3410,9 @@
       <c r="G106" s="16"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="78"/>
-      <c r="B107" s="66"/>
+    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="82"/>
+      <c r="B107" s="67"/>
       <c r="C107" s="37" t="s">
         <v>199</v>
       </c>
@@ -3360,9 +3426,9 @@
       <c r="G107" s="16"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="78"/>
-      <c r="B108" s="66" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="82"/>
+      <c r="B108" s="67" t="s">
         <v>30</v>
       </c>
       <c r="C108" s="25" t="s">
@@ -3378,9 +3444,9 @@
       <c r="G108" s="16"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A109" s="78"/>
-      <c r="B109" s="66"/>
+    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="82"/>
+      <c r="B109" s="67"/>
       <c r="C109" s="28" t="s">
         <v>50</v>
       </c>
@@ -3394,9 +3460,9 @@
       <c r="G109" s="16"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A110" s="78"/>
-      <c r="B110" s="66"/>
+    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="82"/>
+      <c r="B110" s="67"/>
       <c r="C110" s="28" t="s">
         <v>51</v>
       </c>
@@ -3410,9 +3476,9 @@
       <c r="G110" s="16"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A111" s="78"/>
-      <c r="B111" s="66"/>
+    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="82"/>
+      <c r="B111" s="67"/>
       <c r="C111" s="28" t="s">
         <v>52</v>
       </c>
@@ -3426,9 +3492,9 @@
       <c r="G111" s="16"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="78"/>
-      <c r="B112" s="66"/>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="82"/>
+      <c r="B112" s="67"/>
       <c r="C112" s="25" t="s">
         <v>58</v>
       </c>
@@ -3442,9 +3508,9 @@
       <c r="G112" s="16"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A113" s="78"/>
-      <c r="B113" s="66"/>
+    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="82"/>
+      <c r="B113" s="67"/>
       <c r="C113" s="28" t="s">
         <v>49</v>
       </c>
@@ -3458,15 +3524,15 @@
       <c r="G113" s="16"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A114" s="78"/>
-      <c r="B114" s="67" t="s">
+    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A114" s="82"/>
+      <c r="B114" s="84" t="s">
         <v>245</v>
       </c>
       <c r="C114" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="D114" s="62" t="s">
+      <c r="D114" s="58" t="s">
         <v>277</v>
       </c>
       <c r="E114" s="28" t="s">
@@ -3476,9 +3542,9 @@
       <c r="G114" s="16"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="78"/>
-      <c r="B115" s="67"/>
+    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="82"/>
+      <c r="B115" s="84"/>
       <c r="C115" s="37" t="s">
         <v>223</v>
       </c>
@@ -3492,9 +3558,9 @@
       <c r="G115" s="16"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="78"/>
-      <c r="B116" s="66" t="s">
+    <row r="116" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A116" s="82"/>
+      <c r="B116" s="67" t="s">
         <v>130</v>
       </c>
       <c r="C116" s="25" t="s">
@@ -3510,9 +3576,9 @@
       <c r="G116" s="16"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A117" s="78"/>
-      <c r="B117" s="66"/>
+    <row r="117" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A117" s="82"/>
+      <c r="B117" s="67"/>
       <c r="C117" s="25" t="s">
         <v>99</v>
       </c>
@@ -3526,9 +3592,9 @@
       <c r="G117" s="16"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A118" s="78"/>
-      <c r="B118" s="66" t="s">
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="82"/>
+      <c r="B118" s="67" t="s">
         <v>132</v>
       </c>
       <c r="C118" s="25" t="s">
@@ -3544,9 +3610,9 @@
       <c r="G118" s="16"/>
       <c r="H118" s="15"/>
     </row>
-    <row r="119" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A119" s="78"/>
-      <c r="B119" s="66"/>
+    <row r="119" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A119" s="82"/>
+      <c r="B119" s="67"/>
       <c r="C119" s="25" t="s">
         <v>47</v>
       </c>
@@ -3560,9 +3626,9 @@
       <c r="G119" s="16"/>
       <c r="H119" s="15"/>
     </row>
-    <row r="120" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A120" s="79"/>
-      <c r="B120" s="66"/>
+    <row r="120" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A120" s="83"/>
+      <c r="B120" s="67"/>
       <c r="C120" s="25" t="s">
         <v>47</v>
       </c>
@@ -3576,9 +3642,9 @@
       <c r="G120" s="16"/>
       <c r="H120" s="15"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
-      <c r="B121" s="64" t="s">
+      <c r="B121" s="66" t="s">
         <v>184</v>
       </c>
       <c r="C121" s="25" t="s">
@@ -3592,9 +3658,9 @@
       </c>
       <c r="F121" s="25"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
-      <c r="B122" s="64"/>
+      <c r="B122" s="66"/>
       <c r="C122" s="25" t="s">
         <v>185</v>
       </c>
@@ -3604,9 +3670,9 @@
       </c>
       <c r="F122" s="25"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
-      <c r="B123" s="64" t="s">
+      <c r="B123" s="66" t="s">
         <v>201</v>
       </c>
       <c r="C123" s="25" t="s">
@@ -3618,9 +3684,9 @@
       <c r="E123" s="22"/>
       <c r="F123" s="25"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
-      <c r="B124" s="64"/>
+      <c r="B124" s="66"/>
       <c r="C124" s="25" t="s">
         <v>202</v>
       </c>
@@ -3630,9 +3696,9 @@
       <c r="E124" s="22"/>
       <c r="F124" s="25"/>
     </row>
-    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
-      <c r="B125" s="64" t="s">
+      <c r="B125" s="66" t="s">
         <v>204</v>
       </c>
       <c r="C125" s="25" t="s">
@@ -3644,9 +3710,9 @@
       <c r="E125" s="22"/>
       <c r="F125" s="25"/>
     </row>
-    <row r="126" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="61"/>
-      <c r="B126" s="66"/>
+    <row r="126" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="57"/>
+      <c r="B126" s="67"/>
       <c r="C126" s="25" t="s">
         <v>205</v>
       </c>
@@ -3656,731 +3722,703 @@
       <c r="E126" s="22"/>
       <c r="F126" s="25"/>
     </row>
-    <row r="127" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="48"/>
-      <c r="D127" s="53"/>
-      <c r="E127" s="49"/>
-      <c r="G127" s="54"/>
-    </row>
-    <row r="128" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="57"/>
-      <c r="D128" s="58"/>
-      <c r="E128" s="59"/>
-      <c r="G128" s="60"/>
-    </row>
-    <row r="129" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="57"/>
-      <c r="D129" s="58"/>
-      <c r="E129" s="59"/>
-      <c r="G129" s="60"/>
-    </row>
-    <row r="130" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="57"/>
-      <c r="D130" s="58"/>
-      <c r="E130" s="59"/>
-      <c r="G130" s="60"/>
-    </row>
-    <row r="131" spans="1:7" s="56" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="56" t="s">
+    <row r="127" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="46"/>
+      <c r="D127" s="49"/>
+      <c r="E127" s="47"/>
+      <c r="G127" s="50"/>
+    </row>
+    <row r="128" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="53"/>
+      <c r="D128" s="54"/>
+      <c r="E128" s="55"/>
+      <c r="G128" s="56"/>
+    </row>
+    <row r="129" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="53"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="55"/>
+      <c r="G129" s="56"/>
+    </row>
+    <row r="130" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B130" s="53"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="55"/>
+      <c r="G130" s="56"/>
+    </row>
+    <row r="131" spans="1:7" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="B131" s="57"/>
-      <c r="D131" s="58"/>
-      <c r="E131" s="59"/>
-      <c r="G131" s="60"/>
-    </row>
-    <row r="132" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="56" t="s">
+      <c r="B131" s="53"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="55"/>
+      <c r="G131" s="56"/>
+    </row>
+    <row r="132" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="B132" s="57"/>
-      <c r="D132" s="58"/>
-      <c r="E132" s="59"/>
-      <c r="G132" s="60"/>
-    </row>
-    <row r="133" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="56" t="s">
+      <c r="B132" s="53"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="55"/>
+      <c r="G132" s="56"/>
+    </row>
+    <row r="133" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="B133" s="57"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="59"/>
-      <c r="G133" s="60"/>
-    </row>
-    <row r="134" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="57"/>
-      <c r="D134" s="58"/>
-      <c r="E134" s="59"/>
-      <c r="G134" s="60"/>
-    </row>
-    <row r="135" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="57"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="59"/>
-      <c r="G135" s="60"/>
-    </row>
-    <row r="136" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="57"/>
-      <c r="D136" s="58"/>
-      <c r="E136" s="59"/>
-      <c r="G136" s="60"/>
-    </row>
-    <row r="137" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="57"/>
-      <c r="D137" s="58"/>
-      <c r="E137" s="59"/>
-      <c r="G137" s="60"/>
-    </row>
-    <row r="138" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="57"/>
-      <c r="D138" s="58"/>
-      <c r="E138" s="59"/>
-      <c r="G138" s="60"/>
-    </row>
-    <row r="139" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="57"/>
-      <c r="D139" s="58"/>
-      <c r="E139" s="59"/>
-      <c r="G139" s="60"/>
-    </row>
-    <row r="140" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="57"/>
-      <c r="D140" s="58"/>
-      <c r="E140" s="59"/>
-      <c r="G140" s="60"/>
-    </row>
-    <row r="141" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="57"/>
-      <c r="D141" s="58"/>
-      <c r="E141" s="59"/>
-      <c r="G141" s="60"/>
-    </row>
-    <row r="142" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="57"/>
-      <c r="D142" s="58"/>
-      <c r="E142" s="59"/>
-      <c r="G142" s="60"/>
-    </row>
-    <row r="143" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="57"/>
-      <c r="D143" s="58"/>
-      <c r="E143" s="59"/>
-      <c r="G143" s="60"/>
-    </row>
-    <row r="144" spans="1:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="57"/>
-      <c r="D144" s="58"/>
-      <c r="E144" s="59"/>
-      <c r="G144" s="60"/>
-    </row>
-    <row r="145" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="57"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="59"/>
-      <c r="G145" s="60"/>
-    </row>
-    <row r="146" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="57"/>
-      <c r="D146" s="58"/>
-      <c r="E146" s="59"/>
-      <c r="G146" s="60"/>
-    </row>
-    <row r="147" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="57"/>
-      <c r="D147" s="58"/>
-      <c r="E147" s="59"/>
-      <c r="G147" s="60"/>
-    </row>
-    <row r="148" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B148" s="57"/>
-      <c r="D148" s="58"/>
-      <c r="E148" s="59"/>
-      <c r="G148" s="60"/>
-    </row>
-    <row r="149" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B149" s="57"/>
-      <c r="D149" s="58"/>
-      <c r="E149" s="59"/>
-      <c r="G149" s="60"/>
-    </row>
-    <row r="150" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="57"/>
-      <c r="D150" s="58"/>
-      <c r="E150" s="59"/>
-      <c r="G150" s="60"/>
-    </row>
-    <row r="151" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="57"/>
-      <c r="D151" s="58"/>
-      <c r="E151" s="59"/>
-      <c r="G151" s="60"/>
-    </row>
-    <row r="152" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B152" s="57"/>
-      <c r="D152" s="58"/>
-      <c r="E152" s="59"/>
-      <c r="G152" s="60"/>
-    </row>
-    <row r="153" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="57"/>
-      <c r="D153" s="58"/>
-      <c r="E153" s="59"/>
-      <c r="G153" s="60"/>
-    </row>
-    <row r="154" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B154" s="57"/>
-      <c r="D154" s="58"/>
-      <c r="E154" s="59"/>
-      <c r="G154" s="60"/>
-    </row>
-    <row r="155" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="57"/>
-      <c r="D155" s="58"/>
-      <c r="E155" s="59"/>
-      <c r="G155" s="60"/>
-    </row>
-    <row r="156" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="57"/>
-      <c r="D156" s="58"/>
-      <c r="E156" s="59"/>
-      <c r="G156" s="60"/>
-    </row>
-    <row r="157" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="57"/>
-      <c r="D157" s="58"/>
-      <c r="E157" s="59"/>
-      <c r="G157" s="60"/>
-    </row>
-    <row r="158" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B158" s="57"/>
-      <c r="D158" s="58"/>
-      <c r="E158" s="59"/>
-      <c r="G158" s="60"/>
-    </row>
-    <row r="159" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B159" s="57"/>
-      <c r="D159" s="58"/>
-      <c r="E159" s="59"/>
-      <c r="G159" s="60"/>
-    </row>
-    <row r="160" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="57"/>
-      <c r="D160" s="58"/>
-      <c r="E160" s="59"/>
-      <c r="G160" s="60"/>
-    </row>
-    <row r="161" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="57"/>
-      <c r="D161" s="58"/>
-      <c r="E161" s="59"/>
-      <c r="G161" s="60"/>
-    </row>
-    <row r="162" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="57"/>
-      <c r="D162" s="58"/>
-      <c r="E162" s="59"/>
-      <c r="G162" s="60"/>
-    </row>
-    <row r="163" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="57"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="59"/>
-      <c r="G163" s="60"/>
-    </row>
-    <row r="164" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="57"/>
-      <c r="D164" s="58"/>
-      <c r="E164" s="59"/>
-      <c r="G164" s="60"/>
-    </row>
-    <row r="165" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B165" s="57"/>
-      <c r="D165" s="58"/>
-      <c r="E165" s="59"/>
-      <c r="G165" s="60"/>
-    </row>
-    <row r="166" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B166" s="57"/>
-      <c r="D166" s="58"/>
-      <c r="E166" s="59"/>
-      <c r="G166" s="60"/>
-    </row>
-    <row r="167" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B167" s="57"/>
-      <c r="D167" s="58"/>
-      <c r="E167" s="59"/>
-      <c r="G167" s="60"/>
-    </row>
-    <row r="168" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="57"/>
-      <c r="D168" s="58"/>
-      <c r="E168" s="59"/>
-      <c r="G168" s="60"/>
-    </row>
-    <row r="169" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="57"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="59"/>
-      <c r="G169" s="60"/>
-    </row>
-    <row r="170" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B170" s="57"/>
-      <c r="D170" s="58"/>
-      <c r="E170" s="59"/>
-      <c r="G170" s="60"/>
-    </row>
-    <row r="171" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="57"/>
-      <c r="D171" s="58"/>
-      <c r="E171" s="59"/>
-      <c r="G171" s="60"/>
-    </row>
-    <row r="172" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B172" s="57"/>
-      <c r="D172" s="58"/>
-      <c r="E172" s="59"/>
-      <c r="G172" s="60"/>
-    </row>
-    <row r="173" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B173" s="57"/>
-      <c r="D173" s="58"/>
-      <c r="E173" s="59"/>
-      <c r="G173" s="60"/>
-    </row>
-    <row r="174" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B174" s="57"/>
-      <c r="D174" s="58"/>
-      <c r="E174" s="59"/>
-      <c r="G174" s="60"/>
-    </row>
-    <row r="175" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B175" s="57"/>
-      <c r="D175" s="58"/>
-      <c r="E175" s="59"/>
-      <c r="G175" s="60"/>
-    </row>
-    <row r="176" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="57"/>
-      <c r="D176" s="58"/>
-      <c r="E176" s="59"/>
-      <c r="G176" s="60"/>
-    </row>
-    <row r="177" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B177" s="57"/>
-      <c r="D177" s="58"/>
-      <c r="E177" s="59"/>
-      <c r="G177" s="60"/>
-    </row>
-    <row r="178" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="57"/>
-      <c r="D178" s="58"/>
-      <c r="E178" s="59"/>
-      <c r="G178" s="60"/>
-    </row>
-    <row r="179" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B179" s="57"/>
-      <c r="D179" s="58"/>
-      <c r="E179" s="59"/>
-      <c r="G179" s="60"/>
-    </row>
-    <row r="180" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B180" s="57"/>
-      <c r="D180" s="58"/>
-      <c r="E180" s="59"/>
-      <c r="G180" s="60"/>
-    </row>
-    <row r="181" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B181" s="57"/>
-      <c r="D181" s="58"/>
-      <c r="E181" s="59"/>
-      <c r="G181" s="60"/>
-    </row>
-    <row r="182" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="57"/>
-      <c r="D182" s="58"/>
-      <c r="E182" s="59"/>
-      <c r="G182" s="60"/>
-    </row>
-    <row r="183" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B183" s="57"/>
-      <c r="D183" s="58"/>
-      <c r="E183" s="59"/>
-      <c r="G183" s="60"/>
-    </row>
-    <row r="184" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="57"/>
-      <c r="D184" s="58"/>
-      <c r="E184" s="59"/>
-      <c r="G184" s="60"/>
-    </row>
-    <row r="185" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="57"/>
-      <c r="D185" s="58"/>
-      <c r="E185" s="59"/>
-      <c r="G185" s="60"/>
-    </row>
-    <row r="186" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="57"/>
-      <c r="D186" s="58"/>
-      <c r="E186" s="59"/>
-      <c r="G186" s="60"/>
-    </row>
-    <row r="187" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B187" s="57"/>
-      <c r="D187" s="58"/>
-      <c r="E187" s="59"/>
-      <c r="G187" s="60"/>
-    </row>
-    <row r="188" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="57"/>
-      <c r="D188" s="58"/>
-      <c r="E188" s="59"/>
-      <c r="G188" s="60"/>
-    </row>
-    <row r="189" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B189" s="57"/>
-      <c r="D189" s="58"/>
-      <c r="E189" s="59"/>
-      <c r="G189" s="60"/>
-    </row>
-    <row r="190" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B190" s="57"/>
-      <c r="D190" s="58"/>
-      <c r="E190" s="59"/>
-      <c r="G190" s="60"/>
-    </row>
-    <row r="191" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B191" s="57"/>
-      <c r="D191" s="58"/>
-      <c r="E191" s="59"/>
-      <c r="G191" s="60"/>
-    </row>
-    <row r="192" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="57"/>
-      <c r="D192" s="58"/>
-      <c r="E192" s="59"/>
-      <c r="G192" s="60"/>
-    </row>
-    <row r="193" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B193" s="57"/>
-      <c r="D193" s="58"/>
-      <c r="E193" s="59"/>
-      <c r="G193" s="60"/>
-    </row>
-    <row r="194" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B194" s="57"/>
-      <c r="D194" s="58"/>
-      <c r="E194" s="59"/>
-      <c r="G194" s="60"/>
-    </row>
-    <row r="195" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="57"/>
-      <c r="D195" s="58"/>
-      <c r="E195" s="59"/>
-      <c r="G195" s="60"/>
-    </row>
-    <row r="196" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B196" s="57"/>
-      <c r="D196" s="58"/>
-      <c r="E196" s="59"/>
-      <c r="G196" s="60"/>
-    </row>
-    <row r="197" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="57"/>
-      <c r="D197" s="58"/>
-      <c r="E197" s="59"/>
-      <c r="G197" s="60"/>
-    </row>
-    <row r="198" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B198" s="57"/>
-      <c r="D198" s="58"/>
-      <c r="E198" s="59"/>
-      <c r="G198" s="60"/>
-    </row>
-    <row r="199" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B199" s="57"/>
-      <c r="D199" s="58"/>
-      <c r="E199" s="59"/>
-      <c r="G199" s="60"/>
-    </row>
-    <row r="200" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B200" s="57"/>
-      <c r="D200" s="58"/>
-      <c r="E200" s="59"/>
-      <c r="G200" s="60"/>
-    </row>
-    <row r="201" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B201" s="57"/>
-      <c r="D201" s="58"/>
-      <c r="E201" s="59"/>
-      <c r="G201" s="60"/>
-    </row>
-    <row r="202" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="57"/>
-      <c r="D202" s="58"/>
-      <c r="E202" s="59"/>
-      <c r="G202" s="60"/>
-    </row>
-    <row r="203" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B203" s="57"/>
-      <c r="D203" s="58"/>
-      <c r="E203" s="59"/>
-      <c r="G203" s="60"/>
-    </row>
-    <row r="204" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B204" s="57"/>
-      <c r="D204" s="58"/>
-      <c r="E204" s="59"/>
-      <c r="G204" s="60"/>
-    </row>
-    <row r="205" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B205" s="57"/>
-      <c r="D205" s="58"/>
-      <c r="E205" s="59"/>
-      <c r="G205" s="60"/>
-    </row>
-    <row r="206" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B206" s="57"/>
-      <c r="D206" s="58"/>
-      <c r="E206" s="59"/>
-      <c r="G206" s="60"/>
-    </row>
-    <row r="207" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B207" s="57"/>
-      <c r="D207" s="58"/>
-      <c r="E207" s="59"/>
-      <c r="G207" s="60"/>
-    </row>
-    <row r="208" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B208" s="57"/>
-      <c r="D208" s="58"/>
-      <c r="E208" s="59"/>
-      <c r="G208" s="60"/>
-    </row>
-    <row r="209" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="57"/>
-      <c r="D209" s="58"/>
-      <c r="E209" s="59"/>
-      <c r="G209" s="60"/>
-    </row>
-    <row r="210" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B210" s="57"/>
-      <c r="D210" s="58"/>
-      <c r="E210" s="59"/>
-      <c r="G210" s="60"/>
-    </row>
-    <row r="211" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="57"/>
-      <c r="D211" s="58"/>
-      <c r="E211" s="59"/>
-      <c r="G211" s="60"/>
-    </row>
-    <row r="212" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B212" s="57"/>
-      <c r="D212" s="58"/>
-      <c r="E212" s="59"/>
-      <c r="G212" s="60"/>
-    </row>
-    <row r="213" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="57"/>
-      <c r="D213" s="58"/>
-      <c r="E213" s="59"/>
-      <c r="G213" s="60"/>
-    </row>
-    <row r="214" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="57"/>
-      <c r="D214" s="58"/>
-      <c r="E214" s="59"/>
-      <c r="G214" s="60"/>
-    </row>
-    <row r="215" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="57"/>
-      <c r="D215" s="58"/>
-      <c r="E215" s="59"/>
-      <c r="G215" s="60"/>
-    </row>
-    <row r="216" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="57"/>
-      <c r="D216" s="58"/>
-      <c r="E216" s="59"/>
-      <c r="G216" s="60"/>
-    </row>
-    <row r="217" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="57"/>
-      <c r="D217" s="58"/>
-      <c r="E217" s="59"/>
-      <c r="G217" s="60"/>
-    </row>
-    <row r="218" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="57"/>
-      <c r="D218" s="58"/>
-      <c r="E218" s="59"/>
-      <c r="G218" s="60"/>
-    </row>
-    <row r="219" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="57"/>
-      <c r="D219" s="58"/>
-      <c r="E219" s="59"/>
-      <c r="G219" s="60"/>
-    </row>
-    <row r="220" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="57"/>
-      <c r="D220" s="58"/>
-      <c r="E220" s="59"/>
-      <c r="G220" s="60"/>
-    </row>
-    <row r="221" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="57"/>
-      <c r="D221" s="58"/>
-      <c r="E221" s="59"/>
-      <c r="G221" s="60"/>
-    </row>
-    <row r="222" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="57"/>
-      <c r="D222" s="58"/>
-      <c r="E222" s="59"/>
-      <c r="G222" s="60"/>
-    </row>
-    <row r="223" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="57"/>
-      <c r="D223" s="58"/>
-      <c r="E223" s="59"/>
-      <c r="G223" s="60"/>
-    </row>
-    <row r="224" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="57"/>
-      <c r="D224" s="58"/>
-      <c r="E224" s="59"/>
-      <c r="G224" s="60"/>
-    </row>
-    <row r="225" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="57"/>
-      <c r="D225" s="58"/>
-      <c r="E225" s="59"/>
-      <c r="G225" s="60"/>
-    </row>
-    <row r="226" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="57"/>
-      <c r="D226" s="58"/>
-      <c r="E226" s="59"/>
-      <c r="G226" s="60"/>
-    </row>
-    <row r="227" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="57"/>
-      <c r="D227" s="58"/>
-      <c r="E227" s="59"/>
-      <c r="G227" s="60"/>
-    </row>
-    <row r="228" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="57"/>
-      <c r="D228" s="58"/>
-      <c r="E228" s="59"/>
-      <c r="G228" s="60"/>
-    </row>
-    <row r="229" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="57"/>
-      <c r="D229" s="58"/>
-      <c r="E229" s="59"/>
-      <c r="G229" s="60"/>
-    </row>
-    <row r="230" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="57"/>
-      <c r="D230" s="58"/>
-      <c r="E230" s="59"/>
-      <c r="G230" s="60"/>
-    </row>
-    <row r="231" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="57"/>
-      <c r="D231" s="58"/>
-      <c r="E231" s="59"/>
-      <c r="G231" s="60"/>
-    </row>
-    <row r="232" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="57"/>
-      <c r="D232" s="58"/>
-      <c r="E232" s="59"/>
-      <c r="G232" s="60"/>
-    </row>
-    <row r="233" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="57"/>
-      <c r="D233" s="58"/>
-      <c r="E233" s="59"/>
-      <c r="G233" s="60"/>
-    </row>
-    <row r="234" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="57"/>
-      <c r="D234" s="58"/>
-      <c r="E234" s="59"/>
-      <c r="G234" s="60"/>
-    </row>
-    <row r="235" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="57"/>
-      <c r="D235" s="58"/>
-      <c r="E235" s="59"/>
-      <c r="G235" s="60"/>
-    </row>
-    <row r="236" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="57"/>
-      <c r="D236" s="58"/>
-      <c r="E236" s="59"/>
-      <c r="G236" s="60"/>
-    </row>
-    <row r="237" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="57"/>
-      <c r="D237" s="58"/>
-      <c r="E237" s="59"/>
-      <c r="G237" s="60"/>
-    </row>
-    <row r="238" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="57"/>
-      <c r="D238" s="58"/>
-      <c r="E238" s="59"/>
-      <c r="G238" s="60"/>
-    </row>
-    <row r="239" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="57"/>
-      <c r="D239" s="58"/>
-      <c r="E239" s="59"/>
-      <c r="G239" s="60"/>
-    </row>
-    <row r="240" spans="2:7" s="56" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="57"/>
-      <c r="D240" s="58"/>
-      <c r="E240" s="59"/>
-      <c r="G240" s="60"/>
+      <c r="B133" s="53"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="55"/>
+      <c r="G133" s="56"/>
+    </row>
+    <row r="134" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="53"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="55"/>
+      <c r="G134" s="56"/>
+    </row>
+    <row r="135" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="53"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="55"/>
+      <c r="G135" s="56"/>
+    </row>
+    <row r="136" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B136" s="53"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="55"/>
+      <c r="G136" s="56"/>
+    </row>
+    <row r="137" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B137" s="53"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="55"/>
+      <c r="G137" s="56"/>
+    </row>
+    <row r="138" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="53"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="55"/>
+      <c r="G138" s="56"/>
+    </row>
+    <row r="139" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B139" s="53"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="55"/>
+      <c r="G139" s="56"/>
+    </row>
+    <row r="140" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B140" s="53"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="55"/>
+      <c r="G140" s="56"/>
+    </row>
+    <row r="141" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="53"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="55"/>
+      <c r="G141" s="56"/>
+    </row>
+    <row r="142" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="53"/>
+      <c r="D142" s="54"/>
+      <c r="E142" s="55"/>
+      <c r="G142" s="56"/>
+    </row>
+    <row r="143" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="53"/>
+      <c r="D143" s="54"/>
+      <c r="E143" s="55"/>
+      <c r="G143" s="56"/>
+    </row>
+    <row r="144" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="53"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="55"/>
+      <c r="G144" s="56"/>
+    </row>
+    <row r="145" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="53"/>
+      <c r="D145" s="54"/>
+      <c r="E145" s="55"/>
+      <c r="G145" s="56"/>
+    </row>
+    <row r="146" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="53"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="55"/>
+      <c r="G146" s="56"/>
+    </row>
+    <row r="147" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="53"/>
+      <c r="D147" s="54"/>
+      <c r="E147" s="55"/>
+      <c r="G147" s="56"/>
+    </row>
+    <row r="148" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="53"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="55"/>
+      <c r="G148" s="56"/>
+    </row>
+    <row r="149" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B149" s="53"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="55"/>
+      <c r="G149" s="56"/>
+    </row>
+    <row r="150" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="53"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="55"/>
+      <c r="G150" s="56"/>
+    </row>
+    <row r="151" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B151" s="53"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="55"/>
+      <c r="G151" s="56"/>
+    </row>
+    <row r="152" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="53"/>
+      <c r="D152" s="54"/>
+      <c r="E152" s="55"/>
+      <c r="G152" s="56"/>
+    </row>
+    <row r="153" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B153" s="53"/>
+      <c r="D153" s="54"/>
+      <c r="E153" s="55"/>
+      <c r="G153" s="56"/>
+    </row>
+    <row r="154" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B154" s="53"/>
+      <c r="D154" s="54"/>
+      <c r="E154" s="55"/>
+      <c r="G154" s="56"/>
+    </row>
+    <row r="155" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="53"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="55"/>
+      <c r="G155" s="56"/>
+    </row>
+    <row r="156" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B156" s="53"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="55"/>
+      <c r="G156" s="56"/>
+    </row>
+    <row r="157" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B157" s="53"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="55"/>
+      <c r="G157" s="56"/>
+    </row>
+    <row r="158" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="53"/>
+      <c r="D158" s="54"/>
+      <c r="E158" s="55"/>
+      <c r="G158" s="56"/>
+    </row>
+    <row r="159" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="53"/>
+      <c r="D159" s="54"/>
+      <c r="E159" s="55"/>
+      <c r="G159" s="56"/>
+    </row>
+    <row r="160" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="53"/>
+      <c r="D160" s="54"/>
+      <c r="E160" s="55"/>
+      <c r="G160" s="56"/>
+    </row>
+    <row r="161" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="53"/>
+      <c r="D161" s="54"/>
+      <c r="E161" s="55"/>
+      <c r="G161" s="56"/>
+    </row>
+    <row r="162" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B162" s="53"/>
+      <c r="D162" s="54"/>
+      <c r="E162" s="55"/>
+      <c r="G162" s="56"/>
+    </row>
+    <row r="163" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="53"/>
+      <c r="D163" s="54"/>
+      <c r="E163" s="55"/>
+      <c r="G163" s="56"/>
+    </row>
+    <row r="164" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B164" s="53"/>
+      <c r="D164" s="54"/>
+      <c r="E164" s="55"/>
+      <c r="G164" s="56"/>
+    </row>
+    <row r="165" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="53"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="55"/>
+      <c r="G165" s="56"/>
+    </row>
+    <row r="166" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="53"/>
+      <c r="D166" s="54"/>
+      <c r="E166" s="55"/>
+      <c r="G166" s="56"/>
+    </row>
+    <row r="167" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B167" s="53"/>
+      <c r="D167" s="54"/>
+      <c r="E167" s="55"/>
+      <c r="G167" s="56"/>
+    </row>
+    <row r="168" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="53"/>
+      <c r="D168" s="54"/>
+      <c r="E168" s="55"/>
+      <c r="G168" s="56"/>
+    </row>
+    <row r="169" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="53"/>
+      <c r="D169" s="54"/>
+      <c r="E169" s="55"/>
+      <c r="G169" s="56"/>
+    </row>
+    <row r="170" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="53"/>
+      <c r="D170" s="54"/>
+      <c r="E170" s="55"/>
+      <c r="G170" s="56"/>
+    </row>
+    <row r="171" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="53"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="55"/>
+      <c r="G171" s="56"/>
+    </row>
+    <row r="172" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="53"/>
+      <c r="D172" s="54"/>
+      <c r="E172" s="55"/>
+      <c r="G172" s="56"/>
+    </row>
+    <row r="173" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B173" s="53"/>
+      <c r="D173" s="54"/>
+      <c r="E173" s="55"/>
+      <c r="G173" s="56"/>
+    </row>
+    <row r="174" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="53"/>
+      <c r="D174" s="54"/>
+      <c r="E174" s="55"/>
+      <c r="G174" s="56"/>
+    </row>
+    <row r="175" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="53"/>
+      <c r="D175" s="54"/>
+      <c r="E175" s="55"/>
+      <c r="G175" s="56"/>
+    </row>
+    <row r="176" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B176" s="53"/>
+      <c r="D176" s="54"/>
+      <c r="E176" s="55"/>
+      <c r="G176" s="56"/>
+    </row>
+    <row r="177" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="53"/>
+      <c r="D177" s="54"/>
+      <c r="E177" s="55"/>
+      <c r="G177" s="56"/>
+    </row>
+    <row r="178" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="53"/>
+      <c r="D178" s="54"/>
+      <c r="E178" s="55"/>
+      <c r="G178" s="56"/>
+    </row>
+    <row r="179" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="53"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="55"/>
+      <c r="G179" s="56"/>
+    </row>
+    <row r="180" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="53"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="55"/>
+      <c r="G180" s="56"/>
+    </row>
+    <row r="181" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="53"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="55"/>
+      <c r="G181" s="56"/>
+    </row>
+    <row r="182" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="53"/>
+      <c r="D182" s="54"/>
+      <c r="E182" s="55"/>
+      <c r="G182" s="56"/>
+    </row>
+    <row r="183" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B183" s="53"/>
+      <c r="D183" s="54"/>
+      <c r="E183" s="55"/>
+      <c r="G183" s="56"/>
+    </row>
+    <row r="184" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="53"/>
+      <c r="D184" s="54"/>
+      <c r="E184" s="55"/>
+      <c r="G184" s="56"/>
+    </row>
+    <row r="185" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B185" s="53"/>
+      <c r="D185" s="54"/>
+      <c r="E185" s="55"/>
+      <c r="G185" s="56"/>
+    </row>
+    <row r="186" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B186" s="53"/>
+      <c r="D186" s="54"/>
+      <c r="E186" s="55"/>
+      <c r="G186" s="56"/>
+    </row>
+    <row r="187" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B187" s="53"/>
+      <c r="D187" s="54"/>
+      <c r="E187" s="55"/>
+      <c r="G187" s="56"/>
+    </row>
+    <row r="188" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B188" s="53"/>
+      <c r="D188" s="54"/>
+      <c r="E188" s="55"/>
+      <c r="G188" s="56"/>
+    </row>
+    <row r="189" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="53"/>
+      <c r="D189" s="54"/>
+      <c r="E189" s="55"/>
+      <c r="G189" s="56"/>
+    </row>
+    <row r="190" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="53"/>
+      <c r="D190" s="54"/>
+      <c r="E190" s="55"/>
+      <c r="G190" s="56"/>
+    </row>
+    <row r="191" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="53"/>
+      <c r="D191" s="54"/>
+      <c r="E191" s="55"/>
+      <c r="G191" s="56"/>
+    </row>
+    <row r="192" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="53"/>
+      <c r="D192" s="54"/>
+      <c r="E192" s="55"/>
+      <c r="G192" s="56"/>
+    </row>
+    <row r="193" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="53"/>
+      <c r="D193" s="54"/>
+      <c r="E193" s="55"/>
+      <c r="G193" s="56"/>
+    </row>
+    <row r="194" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B194" s="53"/>
+      <c r="D194" s="54"/>
+      <c r="E194" s="55"/>
+      <c r="G194" s="56"/>
+    </row>
+    <row r="195" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="53"/>
+      <c r="D195" s="54"/>
+      <c r="E195" s="55"/>
+      <c r="G195" s="56"/>
+    </row>
+    <row r="196" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B196" s="53"/>
+      <c r="D196" s="54"/>
+      <c r="E196" s="55"/>
+      <c r="G196" s="56"/>
+    </row>
+    <row r="197" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B197" s="53"/>
+      <c r="D197" s="54"/>
+      <c r="E197" s="55"/>
+      <c r="G197" s="56"/>
+    </row>
+    <row r="198" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="53"/>
+      <c r="D198" s="54"/>
+      <c r="E198" s="55"/>
+      <c r="G198" s="56"/>
+    </row>
+    <row r="199" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="53"/>
+      <c r="D199" s="54"/>
+      <c r="E199" s="55"/>
+      <c r="G199" s="56"/>
+    </row>
+    <row r="200" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="53"/>
+      <c r="D200" s="54"/>
+      <c r="E200" s="55"/>
+      <c r="G200" s="56"/>
+    </row>
+    <row r="201" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="53"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="55"/>
+      <c r="G201" s="56"/>
+    </row>
+    <row r="202" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B202" s="53"/>
+      <c r="D202" s="54"/>
+      <c r="E202" s="55"/>
+      <c r="G202" s="56"/>
+    </row>
+    <row r="203" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="53"/>
+      <c r="D203" s="54"/>
+      <c r="E203" s="55"/>
+      <c r="G203" s="56"/>
+    </row>
+    <row r="204" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B204" s="53"/>
+      <c r="D204" s="54"/>
+      <c r="E204" s="55"/>
+      <c r="G204" s="56"/>
+    </row>
+    <row r="205" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B205" s="53"/>
+      <c r="D205" s="54"/>
+      <c r="E205" s="55"/>
+      <c r="G205" s="56"/>
+    </row>
+    <row r="206" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="53"/>
+      <c r="D206" s="54"/>
+      <c r="E206" s="55"/>
+      <c r="G206" s="56"/>
+    </row>
+    <row r="207" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B207" s="53"/>
+      <c r="D207" s="54"/>
+      <c r="E207" s="55"/>
+      <c r="G207" s="56"/>
+    </row>
+    <row r="208" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B208" s="53"/>
+      <c r="D208" s="54"/>
+      <c r="E208" s="55"/>
+      <c r="G208" s="56"/>
+    </row>
+    <row r="209" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B209" s="53"/>
+      <c r="D209" s="54"/>
+      <c r="E209" s="55"/>
+      <c r="G209" s="56"/>
+    </row>
+    <row r="210" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B210" s="53"/>
+      <c r="D210" s="54"/>
+      <c r="E210" s="55"/>
+      <c r="G210" s="56"/>
+    </row>
+    <row r="211" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="53"/>
+      <c r="D211" s="54"/>
+      <c r="E211" s="55"/>
+      <c r="G211" s="56"/>
+    </row>
+    <row r="212" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B212" s="53"/>
+      <c r="D212" s="54"/>
+      <c r="E212" s="55"/>
+      <c r="G212" s="56"/>
+    </row>
+    <row r="213" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="53"/>
+      <c r="D213" s="54"/>
+      <c r="E213" s="55"/>
+      <c r="G213" s="56"/>
+    </row>
+    <row r="214" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="53"/>
+      <c r="D214" s="54"/>
+      <c r="E214" s="55"/>
+      <c r="G214" s="56"/>
+    </row>
+    <row r="215" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="53"/>
+      <c r="D215" s="54"/>
+      <c r="E215" s="55"/>
+      <c r="G215" s="56"/>
+    </row>
+    <row r="216" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="53"/>
+      <c r="D216" s="54"/>
+      <c r="E216" s="55"/>
+      <c r="G216" s="56"/>
+    </row>
+    <row r="217" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="53"/>
+      <c r="D217" s="54"/>
+      <c r="E217" s="55"/>
+      <c r="G217" s="56"/>
+    </row>
+    <row r="218" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="53"/>
+      <c r="D218" s="54"/>
+      <c r="E218" s="55"/>
+      <c r="G218" s="56"/>
+    </row>
+    <row r="219" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="53"/>
+      <c r="D219" s="54"/>
+      <c r="E219" s="55"/>
+      <c r="G219" s="56"/>
+    </row>
+    <row r="220" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="53"/>
+      <c r="D220" s="54"/>
+      <c r="E220" s="55"/>
+      <c r="G220" s="56"/>
+    </row>
+    <row r="221" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="53"/>
+      <c r="D221" s="54"/>
+      <c r="E221" s="55"/>
+      <c r="G221" s="56"/>
+    </row>
+    <row r="222" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="53"/>
+      <c r="D222" s="54"/>
+      <c r="E222" s="55"/>
+      <c r="G222" s="56"/>
+    </row>
+    <row r="223" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="53"/>
+      <c r="D223" s="54"/>
+      <c r="E223" s="55"/>
+      <c r="G223" s="56"/>
+    </row>
+    <row r="224" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="53"/>
+      <c r="D224" s="54"/>
+      <c r="E224" s="55"/>
+      <c r="G224" s="56"/>
+    </row>
+    <row r="225" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="53"/>
+      <c r="D225" s="54"/>
+      <c r="E225" s="55"/>
+      <c r="G225" s="56"/>
+    </row>
+    <row r="226" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="53"/>
+      <c r="D226" s="54"/>
+      <c r="E226" s="55"/>
+      <c r="G226" s="56"/>
+    </row>
+    <row r="227" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="53"/>
+      <c r="D227" s="54"/>
+      <c r="E227" s="55"/>
+      <c r="G227" s="56"/>
+    </row>
+    <row r="228" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="53"/>
+      <c r="D228" s="54"/>
+      <c r="E228" s="55"/>
+      <c r="G228" s="56"/>
+    </row>
+    <row r="229" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="53"/>
+      <c r="D229" s="54"/>
+      <c r="E229" s="55"/>
+      <c r="G229" s="56"/>
+    </row>
+    <row r="230" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="53"/>
+      <c r="D230" s="54"/>
+      <c r="E230" s="55"/>
+      <c r="G230" s="56"/>
+    </row>
+    <row r="231" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="53"/>
+      <c r="D231" s="54"/>
+      <c r="E231" s="55"/>
+      <c r="G231" s="56"/>
+    </row>
+    <row r="232" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="53"/>
+      <c r="D232" s="54"/>
+      <c r="E232" s="55"/>
+      <c r="G232" s="56"/>
+    </row>
+    <row r="233" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="53"/>
+      <c r="D233" s="54"/>
+      <c r="E233" s="55"/>
+      <c r="G233" s="56"/>
+    </row>
+    <row r="234" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="53"/>
+      <c r="D234" s="54"/>
+      <c r="E234" s="55"/>
+      <c r="G234" s="56"/>
+    </row>
+    <row r="235" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="53"/>
+      <c r="D235" s="54"/>
+      <c r="E235" s="55"/>
+      <c r="G235" s="56"/>
+    </row>
+    <row r="236" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="53"/>
+      <c r="D236" s="54"/>
+      <c r="E236" s="55"/>
+      <c r="G236" s="56"/>
+    </row>
+    <row r="237" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="53"/>
+      <c r="D237" s="54"/>
+      <c r="E237" s="55"/>
+      <c r="G237" s="56"/>
+    </row>
+    <row r="238" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="53"/>
+      <c r="D238" s="54"/>
+      <c r="E238" s="55"/>
+      <c r="G238" s="56"/>
+    </row>
+    <row r="239" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="53"/>
+      <c r="D239" s="54"/>
+      <c r="E239" s="55"/>
+      <c r="G239" s="56"/>
+    </row>
+    <row r="240" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="53"/>
+      <c r="D240" s="54"/>
+      <c r="E240" s="55"/>
+      <c r="G240" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="A25:A55"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B113"/>
     <mergeCell ref="A59:A76"/>
     <mergeCell ref="A87:A120"/>
     <mergeCell ref="B26:B29"/>
@@ -4397,11 +4435,39 @@
     <mergeCell ref="B94:B95"/>
     <mergeCell ref="B96:B98"/>
     <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B79:E79"/>
     <mergeCell ref="B59:B63"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A25:A55"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="A58:F58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D108" r:id="rId1"/>
@@ -4424,56 +4490,56 @@
       <selection activeCell="A34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4"/>
-    <col min="5" max="5" width="16.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="16.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="44" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4488,13 +4554,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4502,7 +4568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4510,7 +4576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4518,7 +4584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4526,10 +4592,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4537,42 +4603,42 @@
         <v>0.39513888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>0.39652777777777781</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>0.66597222222222219</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>0.81180555555555556</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>0.81319444444444444</v>
       </c>
@@ -4591,16 +4657,16 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -4611,7 +4677,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4622,7 +4688,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -4631,7 +4697,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -4644,14 +4710,14 @@
       <c r="D4" s="7"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
@@ -4659,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
@@ -4667,7 +4733,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -4676,13 +4742,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -4690,7 +4756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -4701,7 +4767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -4709,17 +4775,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -4727,7 +4793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -4735,7 +4801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -4743,7 +4809,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -4751,12 +4817,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -4764,27 +4830,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>

--- a/final-project/virtual-cards/smoke-test-virtual-cards.xlsx
+++ b/final-project/virtual-cards/smoke-test-virtual-cards.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corina\Desktop\cursuri\siit-testing\final-project\virtual-cards\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="311">
   <si>
     <t xml:space="preserve">Test </t>
   </si>
@@ -817,16 +822,7 @@
     <t>Check the mandatory fields by leaving them empty</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Add existing plastic card by scanning the barcode</t>
-  </si>
-  <si>
-    <t>Add virtual card by filling in the form</t>
   </si>
   <si>
     <t>Check if the user can remove the cards</t>
@@ -879,12 +875,6 @@
 x</t>
   </si>
   <si>
-    <t>Check if the user can easily find a  previous saved cart</t>
-  </si>
-  <si>
-    <t>Check if the user can find a  card using the alphabet</t>
-  </si>
-  <si>
     <t>a
 1
 c
@@ -935,9 +925,6 @@
   </si>
   <si>
     <t>ADD CARD</t>
-  </si>
-  <si>
-    <t>Check if the user can find an existing  card by entering it's name (or parts of it) in the search field</t>
   </si>
   <si>
     <t xml:space="preserve">Search card </t>
@@ -1144,9 +1131,6 @@
     <t>The application is minimized or suspended on the event of a call and then whenever the call stops the application is resumed</t>
   </si>
   <si>
-    <t>The installation of the application can be done smoothly in a reasonable amount of time</t>
-  </si>
-  <si>
     <t xml:space="preserve">The application can be uninstalled in a reasonable amount of time </t>
   </si>
   <si>
@@ -1162,25 +1146,79 @@
     <t>User should not be able to register with invalid credentials</t>
   </si>
   <si>
-    <t>The user should be able to log in without encountering any errors</t>
-  </si>
-  <si>
     <t>An error message should appear ("Invalid password")
 The user is not logged in</t>
   </si>
   <si>
-    <t>The "Log out" option should be available</t>
-  </si>
-  <si>
     <t>An error message should appear ("Invalid credentials")
 The user is not logged in</t>
+  </si>
+  <si>
+    <t>The installation of the application should be done smoothly in a reasonable amount of time</t>
+  </si>
+  <si>
+    <t>Add virtual card by filling in the form with valid data</t>
+  </si>
+  <si>
+    <t>A registered user is allowed to login with username and password without encountering any errors</t>
+  </si>
+  <si>
+    <t>The "Log out" option should be available
+Any saved cards are removed from the list</t>
+  </si>
+  <si>
+    <t>The photo camera launches and the barcode can be scanned and the user is able to add cards
+The new card is added to the list of cards</t>
+  </si>
+  <si>
+    <t>The new card is added to the list
+The fields should be editable and should accept the input</t>
+  </si>
+  <si>
+    <t>Error message regarding the mandatory fields
+Mandatory fields are working as required
+Mandatory fields are displayed in a distinctive way than the non-mandatory fields</t>
+  </si>
+  <si>
+    <t>User  should have the possibility to delete a previously saved card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet connection </t>
+  </si>
+  <si>
+    <t>Cards are displayed in alphabetical order
+The anchor links work properly</t>
+  </si>
+  <si>
+    <t>The user should be able to find a card by filtering by name</t>
+  </si>
+  <si>
+    <t>Check the behaviour of mandatory fields by leaving them empty</t>
+  </si>
+  <si>
+    <t>Check if the user can find a  card using the alphabet anchors</t>
+  </si>
+  <si>
+    <t>Check the Search feature in the main list of all available cards by  entering card's name (or parts of it) in the search field</t>
+  </si>
+  <si>
+    <t>Check the Search feature in the list of previously added cards</t>
+  </si>
+  <si>
+    <t>The user should easily find a saved cart</t>
+  </si>
+  <si>
+    <t>Install</t>
+  </si>
+  <si>
+    <t>uninstall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1287,6 +1325,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1314,7 +1359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1420,12 +1465,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1601,34 +1655,67 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,41 +1727,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1737,7 +1797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1772,7 +1832,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1984,350 +2044,352 @@
   <dimension ref="A1:H240"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="C137" sqref="B137:C137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="43.5703125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="48"/>
-      <c r="B1" s="86" t="s">
-        <v>250</v>
-      </c>
-      <c r="C1" s="87" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" s="87" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" s="88" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="87" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
+      <c r="B1" s="65" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="71"/>
       <c r="B3" s="43" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>208</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E3" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="F3" s="44"/>
-    </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="65" t="s">
-        <v>217</v>
+      <c r="F3" s="90" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="71"/>
+      <c r="B4" s="83" t="s">
+        <v>214</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F4" s="44"/>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="65"/>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="71"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F5" s="44"/>
     </row>
-    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="65"/>
+    <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="71"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="25" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F6" s="44"/>
     </row>
-    <row r="7" spans="1:6" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="65" t="s">
+    <row r="7" spans="1:6" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="71"/>
+      <c r="B7" s="83" t="s">
         <v>209</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>210</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="65"/>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="71"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="25" t="s">
-        <v>211</v>
+        <v>304</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="31" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="70"/>
-      <c r="B9" s="65"/>
+    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="71"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="25" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="F9" s="25"/>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="65" t="s">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="71"/>
+      <c r="B10" s="83" t="s">
         <v>133</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="65"/>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="71"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="25" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="65"/>
+    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="71"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="25" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="71"/>
       <c r="B13" s="43" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="31" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="65" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="71"/>
+      <c r="B14" s="83" t="s">
         <v>206</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="F14" s="25"/>
     </row>
-    <row r="15" spans="1:6" ht="195" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="65"/>
+    <row r="15" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="71"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="25" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="F15" s="25"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="70"/>
-      <c r="B16" s="78"/>
+    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="71"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="25" t="s">
         <v>211</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="31" t="s">
-        <v>213</v>
+        <v>299</v>
       </c>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="71"/>
       <c r="B17" s="23" t="s">
         <v>207</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D17" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="71"/>
+      <c r="B18" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="71"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="71"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="71"/>
+      <c r="B21" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="65" t="s">
+      <c r="D21" s="38"/>
+      <c r="E21" s="68" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="B25" s="91" t="s">
         <v>248</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="F21" s="37"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="79" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="68" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="66" t="s">
-        <v>243</v>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+    </row>
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="71"/>
+      <c r="B26" s="75" t="s">
+        <v>238</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>1</v>
@@ -2342,9 +2404,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="70"/>
-      <c r="B27" s="66"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="71"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="25" t="s">
         <v>76</v>
       </c>
@@ -2352,13 +2414,13 @@
         <v>77</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="66"/>
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="71"/>
+      <c r="B28" s="75"/>
       <c r="C28" s="25" t="s">
         <v>3</v>
       </c>
@@ -2370,9 +2432,9 @@
       </c>
       <c r="F28" s="25"/>
     </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="66"/>
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="71"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="25" t="s">
         <v>2</v>
       </c>
@@ -2384,17 +2446,17 @@
       </c>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="73"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="70"/>
-      <c r="B31" s="66" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="71"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="79"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="71"/>
+      <c r="B31" s="75" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -2408,9 +2470,9 @@
       </c>
       <c r="F31" s="25"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="70"/>
-      <c r="B32" s="66"/>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A32" s="71"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="28" t="s">
         <v>50</v>
       </c>
@@ -2422,9 +2484,9 @@
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="70"/>
-      <c r="B33" s="66"/>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A33" s="71"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="28" t="s">
         <v>51</v>
       </c>
@@ -2436,9 +2498,9 @@
       </c>
       <c r="F33" s="25"/>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="70"/>
-      <c r="B34" s="66"/>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A34" s="71"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="28" t="s">
         <v>52</v>
       </c>
@@ -2450,9 +2512,9 @@
       </c>
       <c r="F34" s="25"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
-      <c r="B35" s="66"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="71"/>
+      <c r="B35" s="75"/>
       <c r="C35" s="25" t="s">
         <v>58</v>
       </c>
@@ -2464,9 +2526,9 @@
       </c>
       <c r="F35" s="25"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="70"/>
-      <c r="B36" s="66"/>
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A36" s="71"/>
+      <c r="B36" s="75"/>
       <c r="C36" s="28" t="s">
         <v>49</v>
       </c>
@@ -2478,17 +2540,17 @@
       </c>
       <c r="F36" s="25"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="73"/>
-    </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="66" t="s">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="71"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="79"/>
+    </row>
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="71"/>
+      <c r="B38" s="75" t="s">
         <v>128</v>
       </c>
       <c r="C38" s="25" t="s">
@@ -2502,9 +2564,9 @@
       </c>
       <c r="F38" s="25"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
-      <c r="B39" s="66"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="71"/>
+      <c r="B39" s="75"/>
       <c r="C39" s="25" t="s">
         <v>61</v>
       </c>
@@ -2516,9 +2578,9 @@
       </c>
       <c r="F39" s="25"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="66"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="71"/>
+      <c r="B40" s="75"/>
       <c r="C40" s="25" t="s">
         <v>63</v>
       </c>
@@ -2530,9 +2592,9 @@
       </c>
       <c r="F40" s="25"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="70"/>
-      <c r="B41" s="66"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="71"/>
+      <c r="B41" s="75"/>
       <c r="C41" s="25" t="s">
         <v>64</v>
       </c>
@@ -2544,9 +2606,9 @@
       </c>
       <c r="F41" s="25"/>
     </row>
-    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="70"/>
-      <c r="B42" s="66"/>
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="71"/>
+      <c r="B42" s="75"/>
       <c r="C42" s="25" t="s">
         <v>70</v>
       </c>
@@ -2558,9 +2620,9 @@
       </c>
       <c r="F42" s="25"/>
     </row>
-    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="70"/>
-      <c r="B43" s="66"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="71"/>
+      <c r="B43" s="75"/>
       <c r="C43" s="25" t="s">
         <v>67</v>
       </c>
@@ -2572,17 +2634,17 @@
       </c>
       <c r="F43" s="25"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="70"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="73"/>
-    </row>
-    <row r="45" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
-      <c r="B45" s="66" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="71"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="79"/>
+    </row>
+    <row r="45" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="71"/>
+      <c r="B45" s="75" t="s">
         <v>129</v>
       </c>
       <c r="C45" s="25" t="s">
@@ -2596,9 +2658,9 @@
       </c>
       <c r="F45" s="25"/>
     </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
-      <c r="B46" s="66"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="71"/>
+      <c r="B46" s="75"/>
       <c r="C46" s="25" t="s">
         <v>104</v>
       </c>
@@ -2610,17 +2672,17 @@
       </c>
       <c r="F46" s="25"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="73"/>
-    </row>
-    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
-      <c r="B48" s="66" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="71"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="79"/>
+    </row>
+    <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="71"/>
+      <c r="B48" s="75" t="s">
         <v>130</v>
       </c>
       <c r="C48" s="25" t="s">
@@ -2630,13 +2692,13 @@
         <v>82</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F48" s="25"/>
     </row>
-    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="70"/>
-      <c r="B49" s="66"/>
+    <row r="49" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="71"/>
+      <c r="B49" s="75"/>
       <c r="C49" s="25" t="s">
         <v>99</v>
       </c>
@@ -2648,17 +2710,17 @@
       </c>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="73"/>
-    </row>
-    <row r="51" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
-      <c r="B51" s="66" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="71"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="79"/>
+    </row>
+    <row r="51" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="71"/>
+      <c r="B51" s="75" t="s">
         <v>131</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -2668,13 +2730,13 @@
         <v>82</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F51" s="25"/>
     </row>
-    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="70"/>
-      <c r="B52" s="66"/>
+    <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="71"/>
+      <c r="B52" s="75"/>
       <c r="C52" s="25" t="s">
         <v>103</v>
       </c>
@@ -2682,21 +2744,21 @@
         <v>82</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F52" s="25"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="70"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="73"/>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="70"/>
-      <c r="B54" s="66" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="71"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="79"/>
+    </row>
+    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="71"/>
+      <c r="B54" s="75" t="s">
         <v>132</v>
       </c>
       <c r="C54" s="25" t="s">
@@ -2706,13 +2768,13 @@
         <v>100</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F54" s="25"/>
     </row>
-    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="70"/>
-      <c r="B55" s="66"/>
+    <row r="55" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A55" s="71"/>
+      <c r="B55" s="75"/>
       <c r="C55" s="25" t="s">
         <v>47</v>
       </c>
@@ -2724,15 +2786,15 @@
       </c>
       <c r="F55" s="25"/>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="42"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="74"/>
-    </row>
-    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+    </row>
+    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="46"/>
       <c r="C57" s="20"/>
@@ -2741,22 +2803,22 @@
       <c r="F57" s="20"/>
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="80" t="s">
-        <v>255</v>
-      </c>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
+    <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="B59" s="66" t="s">
+    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="70" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" s="75" t="s">
         <v>134</v>
       </c>
       <c r="C59" s="25" t="s">
@@ -2766,15 +2828,15 @@
         <v>84</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="70"/>
-      <c r="B60" s="66"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="71"/>
+      <c r="B60" s="75"/>
       <c r="C60" s="25" t="s">
         <v>85</v>
       </c>
@@ -2786,9 +2848,9 @@
       </c>
       <c r="F60" s="25"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="70"/>
-      <c r="B61" s="66"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="71"/>
+      <c r="B61" s="75"/>
       <c r="C61" s="25" t="s">
         <v>88</v>
       </c>
@@ -2800,9 +2862,9 @@
       </c>
       <c r="F61" s="25"/>
     </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="70"/>
-      <c r="B62" s="66"/>
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="71"/>
+      <c r="B62" s="75"/>
       <c r="C62" s="25" t="s">
         <v>89</v>
       </c>
@@ -2814,9 +2876,9 @@
       </c>
       <c r="F62" s="25"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="70"/>
-      <c r="B63" s="66"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="71"/>
+      <c r="B63" s="75"/>
       <c r="C63" s="25" t="s">
         <v>92</v>
       </c>
@@ -2828,17 +2890,17 @@
       </c>
       <c r="F63" s="25"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="70"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="73"/>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="70"/>
-      <c r="B65" s="66" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="71"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="79"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="71"/>
+      <c r="B65" s="75" t="s">
         <v>135</v>
       </c>
       <c r="C65" s="25" t="s">
@@ -2848,15 +2910,15 @@
         <v>105</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="70"/>
-      <c r="B66" s="66"/>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="71"/>
+      <c r="B66" s="75"/>
       <c r="C66" s="25" t="s">
         <v>107</v>
       </c>
@@ -2866,16 +2928,16 @@
       </c>
       <c r="F66" s="25"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="70"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="73"/>
-    </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="70"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="71"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="79"/>
+    </row>
+    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="71"/>
       <c r="B68" s="34" t="s">
         <v>136</v>
       </c>
@@ -2890,16 +2952,16 @@
       </c>
       <c r="F68" s="25"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="70"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="F69" s="73"/>
-    </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="70"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="71"/>
+      <c r="B69" s="77"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="79"/>
+    </row>
+    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="71"/>
       <c r="B70" s="35" t="s">
         <v>137</v>
       </c>
@@ -2910,21 +2972,21 @@
       <c r="E70" s="22"/>
       <c r="F70" s="25"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="70"/>
-      <c r="B71" s="75"/>
-      <c r="C71" s="76"/>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="77"/>
-    </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="70"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="71"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="87"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="88"/>
+    </row>
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="71"/>
       <c r="B72" s="34" t="s">
         <v>138</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D72" s="26" t="s">
         <v>111</v>
@@ -2934,16 +2996,16 @@
       </c>
       <c r="F72" s="25"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="70"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="F73" s="73"/>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="70"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="71"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="79"/>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A74" s="71"/>
       <c r="B74" s="34" t="s">
         <v>139</v>
       </c>
@@ -2958,39 +3020,39 @@
       </c>
       <c r="F74" s="25"/>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="70"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="73"/>
-    </row>
-    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="70"/>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="71"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="79"/>
+    </row>
+    <row r="76" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="71"/>
       <c r="B76" s="34" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D76" s="26" t="s">
         <v>121</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F76" s="25"/>
     </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="42"/>
-      <c r="B77" s="74"/>
-      <c r="C77" s="74"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-    </row>
-    <row r="78" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="80"/>
+      <c r="C77" s="80"/>
+      <c r="D77" s="80"/>
+      <c r="E77" s="80"/>
+      <c r="F77" s="80"/>
+    </row>
+    <row r="78" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="46"/>
       <c r="C78" s="20"/>
@@ -2999,20 +3061,20 @@
       <c r="F78" s="20"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21"/>
-      <c r="B79" s="68" t="s">
-        <v>246</v>
-      </c>
-      <c r="C79" s="68"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="68"/>
+      <c r="B79" s="91" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" s="91"/>
+      <c r="D79" s="91"/>
+      <c r="E79" s="91"/>
       <c r="F79" s="19"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A80" s="21"/>
-      <c r="B80" s="85" t="s">
+      <c r="B80" s="82" t="s">
         <v>140</v>
       </c>
       <c r="C80" s="24" t="s">
@@ -3026,9 +3088,9 @@
       </c>
       <c r="F80" s="25"/>
     </row>
-    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="19"/>
-      <c r="B81" s="85"/>
+      <c r="B81" s="82"/>
       <c r="C81" s="24" t="s">
         <v>114</v>
       </c>
@@ -3040,25 +3102,25 @@
       </c>
       <c r="F81" s="25"/>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="B82" s="85"/>
+        <v>241</v>
+      </c>
+      <c r="B82" s="82"/>
       <c r="C82" s="24" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D82" s="26" t="s">
         <v>115</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F82" s="25"/>
     </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="19"/>
-      <c r="B83" s="85"/>
+      <c r="B83" s="82"/>
       <c r="C83" s="24" t="s">
         <v>117</v>
       </c>
@@ -3070,9 +3132,9 @@
       </c>
       <c r="F83" s="25"/>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="19"/>
-      <c r="B84" s="85"/>
+      <c r="B84" s="82"/>
       <c r="C84" s="24" t="s">
         <v>125</v>
       </c>
@@ -3082,11 +3144,11 @@
       </c>
       <c r="F84" s="25"/>
     </row>
-    <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="19"/>
-      <c r="B85" s="85"/>
+      <c r="B85" s="82"/>
       <c r="C85" s="24" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D85" s="26" t="s">
         <v>126</v>
@@ -3096,7 +3158,7 @@
       </c>
       <c r="F85" s="25"/>
     </row>
-    <row r="86" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="64"/>
       <c r="C86" s="60"/>
       <c r="D86" s="61"/>
@@ -3104,9 +3166,9 @@
       <c r="F86" s="60"/>
       <c r="G86" s="63"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="81" t="s">
-        <v>257</v>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="72" t="s">
+        <v>251</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>141</v>
@@ -3120,9 +3182,9 @@
       <c r="E87" s="22"/>
       <c r="F87" s="25"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="82"/>
-      <c r="B88" s="67" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="73"/>
+      <c r="B88" s="69" t="s">
         <v>164</v>
       </c>
       <c r="C88" s="25" t="s">
@@ -3136,9 +3198,9 @@
       </c>
       <c r="F88" s="25"/>
     </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="82"/>
-      <c r="B89" s="67"/>
+    <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="73"/>
+      <c r="B89" s="69"/>
       <c r="C89" s="25" t="s">
         <v>144</v>
       </c>
@@ -3150,9 +3212,9 @@
       </c>
       <c r="F89" s="25"/>
     </row>
-    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="82"/>
-      <c r="B90" s="67"/>
+    <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="73"/>
+      <c r="B90" s="69"/>
       <c r="C90" s="25" t="s">
         <v>3</v>
       </c>
@@ -3164,9 +3226,9 @@
       </c>
       <c r="F90" s="25"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="82"/>
-      <c r="B91" s="67" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="73"/>
+      <c r="B91" s="69" t="s">
         <v>165</v>
       </c>
       <c r="C91" s="25" t="s">
@@ -3178,9 +3240,9 @@
       <c r="E91" s="22"/>
       <c r="F91" s="25"/>
     </row>
-    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="82"/>
-      <c r="B92" s="67"/>
+    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="73"/>
+      <c r="B92" s="69"/>
       <c r="C92" s="25" t="s">
         <v>144</v>
       </c>
@@ -3192,9 +3254,9 @@
       </c>
       <c r="F92" s="25"/>
     </row>
-    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="82"/>
-      <c r="B93" s="67"/>
+    <row r="93" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="73"/>
+      <c r="B93" s="69"/>
       <c r="C93" s="25" t="s">
         <v>3</v>
       </c>
@@ -3206,9 +3268,9 @@
       </c>
       <c r="F93" s="25"/>
     </row>
-    <row r="94" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="82"/>
-      <c r="B94" s="67" t="s">
+    <row r="94" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="73"/>
+      <c r="B94" s="69" t="s">
         <v>166</v>
       </c>
       <c r="C94" s="25" t="s">
@@ -3222,9 +3284,9 @@
       </c>
       <c r="F94" s="25"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="82"/>
-      <c r="B95" s="67"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="73"/>
+      <c r="B95" s="69"/>
       <c r="C95" s="25" t="s">
         <v>151</v>
       </c>
@@ -3236,9 +3298,9 @@
       </c>
       <c r="F95" s="25"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="82"/>
-      <c r="B96" s="67" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="73"/>
+      <c r="B96" s="69" t="s">
         <v>167</v>
       </c>
       <c r="C96" s="25" t="s">
@@ -3248,13 +3310,13 @@
         <v>156</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F96" s="25"/>
     </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="82"/>
-      <c r="B97" s="67"/>
+    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="73"/>
+      <c r="B97" s="69"/>
       <c r="C97" s="25" t="s">
         <v>191</v>
       </c>
@@ -3266,9 +3328,9 @@
       </c>
       <c r="F97" s="25"/>
     </row>
-    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="82"/>
-      <c r="B98" s="67"/>
+    <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="73"/>
+      <c r="B98" s="69"/>
       <c r="C98" s="25" t="s">
         <v>3</v>
       </c>
@@ -3280,9 +3342,9 @@
       </c>
       <c r="F98" s="25"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="82"/>
-      <c r="B99" s="67" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="73"/>
+      <c r="B99" s="69" t="s">
         <v>168</v>
       </c>
       <c r="C99" s="25" t="s">
@@ -3296,9 +3358,9 @@
       </c>
       <c r="F99" s="25"/>
     </row>
-    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="82"/>
-      <c r="B100" s="67"/>
+    <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A100" s="73"/>
+      <c r="B100" s="69"/>
       <c r="C100" s="25" t="s">
         <v>159</v>
       </c>
@@ -3306,13 +3368,13 @@
         <v>160</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F100" s="25"/>
     </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="82"/>
-      <c r="B101" s="67"/>
+    <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="73"/>
+      <c r="B101" s="69"/>
       <c r="C101" s="37" t="s">
         <v>161</v>
       </c>
@@ -3320,15 +3382,15 @@
         <v>6984000</v>
       </c>
       <c r="E101" s="39" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="16"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="82"/>
-      <c r="B102" s="67" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="73"/>
+      <c r="B102" s="69" t="s">
         <v>169</v>
       </c>
       <c r="C102" s="25" t="s">
@@ -3344,9 +3406,9 @@
       <c r="G102" s="16"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="82"/>
-      <c r="B103" s="67"/>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="73"/>
+      <c r="B103" s="69"/>
       <c r="C103" s="25" t="s">
         <v>170</v>
       </c>
@@ -3360,9 +3422,9 @@
       <c r="G103" s="16"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="82"/>
-      <c r="B104" s="67"/>
+    <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="73"/>
+      <c r="B104" s="69"/>
       <c r="C104" s="25" t="s">
         <v>171</v>
       </c>
@@ -3376,9 +3438,9 @@
       <c r="G104" s="16"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="82"/>
-      <c r="B105" s="67"/>
+    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="73"/>
+      <c r="B105" s="69"/>
       <c r="C105" s="37" t="s">
         <v>172</v>
       </c>
@@ -3392,9 +3454,9 @@
       <c r="G105" s="16"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="82"/>
-      <c r="B106" s="67" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="73"/>
+      <c r="B106" s="69" t="s">
         <v>175</v>
       </c>
       <c r="C106" s="37" t="s">
@@ -3410,9 +3472,9 @@
       <c r="G106" s="16"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="82"/>
-      <c r="B107" s="67"/>
+    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="73"/>
+      <c r="B107" s="69"/>
       <c r="C107" s="37" t="s">
         <v>199</v>
       </c>
@@ -3426,9 +3488,9 @@
       <c r="G107" s="16"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="82"/>
-      <c r="B108" s="67" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="73"/>
+      <c r="B108" s="69" t="s">
         <v>30</v>
       </c>
       <c r="C108" s="25" t="s">
@@ -3444,9 +3506,9 @@
       <c r="G108" s="16"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="82"/>
-      <c r="B109" s="67"/>
+    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A109" s="73"/>
+      <c r="B109" s="69"/>
       <c r="C109" s="28" t="s">
         <v>50</v>
       </c>
@@ -3460,9 +3522,9 @@
       <c r="G109" s="16"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="82"/>
-      <c r="B110" s="67"/>
+    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A110" s="73"/>
+      <c r="B110" s="69"/>
       <c r="C110" s="28" t="s">
         <v>51</v>
       </c>
@@ -3476,9 +3538,9 @@
       <c r="G110" s="16"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A111" s="82"/>
-      <c r="B111" s="67"/>
+    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A111" s="73"/>
+      <c r="B111" s="69"/>
       <c r="C111" s="28" t="s">
         <v>52</v>
       </c>
@@ -3492,9 +3554,9 @@
       <c r="G111" s="16"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="82"/>
-      <c r="B112" s="67"/>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="73"/>
+      <c r="B112" s="69"/>
       <c r="C112" s="25" t="s">
         <v>58</v>
       </c>
@@ -3508,9 +3570,9 @@
       <c r="G112" s="16"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A113" s="82"/>
-      <c r="B113" s="67"/>
+    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A113" s="73"/>
+      <c r="B113" s="69"/>
       <c r="C113" s="28" t="s">
         <v>49</v>
       </c>
@@ -3524,43 +3586,43 @@
       <c r="G113" s="16"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A114" s="82"/>
-      <c r="B114" s="84" t="s">
-        <v>245</v>
+    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.35">
+      <c r="A114" s="73"/>
+      <c r="B114" s="76" t="s">
+        <v>240</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D114" s="58" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="E114" s="28" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="16"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="82"/>
-      <c r="B115" s="84"/>
+    <row r="115" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="73"/>
+      <c r="B115" s="76"/>
       <c r="C115" s="37" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D115" s="41" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E115" s="39" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="16"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A116" s="82"/>
-      <c r="B116" s="67" t="s">
+    <row r="116" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="73"/>
+      <c r="B116" s="69" t="s">
         <v>130</v>
       </c>
       <c r="C116" s="25" t="s">
@@ -3576,9 +3638,9 @@
       <c r="G116" s="16"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A117" s="82"/>
-      <c r="B117" s="67"/>
+    <row r="117" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A117" s="73"/>
+      <c r="B117" s="69"/>
       <c r="C117" s="25" t="s">
         <v>99</v>
       </c>
@@ -3592,9 +3654,9 @@
       <c r="G117" s="16"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="82"/>
-      <c r="B118" s="67" t="s">
+    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="73"/>
+      <c r="B118" s="69" t="s">
         <v>132</v>
       </c>
       <c r="C118" s="25" t="s">
@@ -3604,15 +3666,15 @@
         <v>105</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="16"/>
       <c r="H118" s="15"/>
     </row>
-    <row r="119" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A119" s="82"/>
-      <c r="B119" s="67"/>
+    <row r="119" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A119" s="73"/>
+      <c r="B119" s="69"/>
       <c r="C119" s="25" t="s">
         <v>47</v>
       </c>
@@ -3620,15 +3682,15 @@
         <v>181</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="16"/>
       <c r="H119" s="15"/>
     </row>
-    <row r="120" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A120" s="83"/>
-      <c r="B120" s="67"/>
+    <row r="120" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A120" s="74"/>
+      <c r="B120" s="69"/>
       <c r="C120" s="25" t="s">
         <v>47</v>
       </c>
@@ -3636,15 +3698,15 @@
         <v>183</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="16"/>
       <c r="H120" s="15"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="19"/>
-      <c r="B121" s="66" t="s">
+      <c r="B121" s="75" t="s">
         <v>184</v>
       </c>
       <c r="C121" s="25" t="s">
@@ -3658,9 +3720,9 @@
       </c>
       <c r="F121" s="25"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="19"/>
-      <c r="B122" s="66"/>
+      <c r="B122" s="75"/>
       <c r="C122" s="25" t="s">
         <v>185</v>
       </c>
@@ -3670,13 +3732,13 @@
       </c>
       <c r="F122" s="25"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="19"/>
-      <c r="B123" s="66" t="s">
+      <c r="B123" s="75" t="s">
         <v>201</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D123" s="26" t="s">
         <v>203</v>
@@ -3684,9 +3746,9 @@
       <c r="E123" s="22"/>
       <c r="F123" s="25"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="19"/>
-      <c r="B124" s="66"/>
+      <c r="B124" s="75"/>
       <c r="C124" s="25" t="s">
         <v>202</v>
       </c>
@@ -3696,720 +3758,726 @@
       <c r="E124" s="22"/>
       <c r="F124" s="25"/>
     </row>
-    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="19"/>
-      <c r="B125" s="66" t="s">
+      <c r="B125" s="75" t="s">
         <v>204</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E125" s="22"/>
       <c r="F125" s="25"/>
     </row>
-    <row r="126" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A126" s="57"/>
-      <c r="B126" s="67"/>
+      <c r="B126" s="69"/>
       <c r="C126" s="25" t="s">
         <v>205</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E126" s="22"/>
       <c r="F126" s="25"/>
     </row>
-    <row r="127" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127" s="46"/>
       <c r="D127" s="49"/>
       <c r="E127" s="47"/>
       <c r="G127" s="50"/>
     </row>
-    <row r="128" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B128" s="53"/>
       <c r="D128" s="54"/>
       <c r="E128" s="55"/>
       <c r="G128" s="56"/>
     </row>
-    <row r="129" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B129" s="53"/>
       <c r="D129" s="54"/>
       <c r="E129" s="55"/>
       <c r="G129" s="56"/>
     </row>
-    <row r="130" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="52" t="s">
+        <v>309</v>
+      </c>
       <c r="B130" s="53"/>
       <c r="D130" s="54"/>
       <c r="E130" s="55"/>
       <c r="G130" s="56"/>
     </row>
-    <row r="131" spans="1:7" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="52" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B131" s="53"/>
       <c r="D131" s="54"/>
       <c r="E131" s="55"/>
       <c r="G131" s="56"/>
     </row>
-    <row r="132" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="52" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B132" s="53"/>
       <c r="D132" s="54"/>
       <c r="E132" s="55"/>
       <c r="G132" s="56"/>
     </row>
-    <row r="133" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="52" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B133" s="53"/>
       <c r="D133" s="54"/>
       <c r="E133" s="55"/>
       <c r="G133" s="56"/>
     </row>
-    <row r="134" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="52" t="s">
+        <v>310</v>
+      </c>
       <c r="B134" s="53"/>
       <c r="D134" s="54"/>
       <c r="E134" s="55"/>
       <c r="G134" s="56"/>
     </row>
-    <row r="135" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B135" s="53"/>
       <c r="D135" s="54"/>
       <c r="E135" s="55"/>
       <c r="G135" s="56"/>
     </row>
-    <row r="136" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B136" s="53"/>
       <c r="D136" s="54"/>
       <c r="E136" s="55"/>
       <c r="G136" s="56"/>
     </row>
-    <row r="137" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B137" s="53"/>
       <c r="D137" s="54"/>
       <c r="E137" s="55"/>
       <c r="G137" s="56"/>
     </row>
-    <row r="138" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B138" s="53"/>
       <c r="D138" s="54"/>
       <c r="E138" s="55"/>
       <c r="G138" s="56"/>
     </row>
-    <row r="139" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B139" s="53"/>
       <c r="D139" s="54"/>
       <c r="E139" s="55"/>
       <c r="G139" s="56"/>
     </row>
-    <row r="140" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B140" s="53"/>
       <c r="D140" s="54"/>
       <c r="E140" s="55"/>
       <c r="G140" s="56"/>
     </row>
-    <row r="141" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B141" s="53"/>
       <c r="D141" s="54"/>
       <c r="E141" s="55"/>
       <c r="G141" s="56"/>
     </row>
-    <row r="142" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B142" s="53"/>
       <c r="D142" s="54"/>
       <c r="E142" s="55"/>
       <c r="G142" s="56"/>
     </row>
-    <row r="143" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B143" s="53"/>
       <c r="D143" s="54"/>
       <c r="E143" s="55"/>
       <c r="G143" s="56"/>
     </row>
-    <row r="144" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B144" s="53"/>
       <c r="D144" s="54"/>
       <c r="E144" s="55"/>
       <c r="G144" s="56"/>
     </row>
-    <row r="145" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B145" s="53"/>
       <c r="D145" s="54"/>
       <c r="E145" s="55"/>
       <c r="G145" s="56"/>
     </row>
-    <row r="146" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B146" s="53"/>
       <c r="D146" s="54"/>
       <c r="E146" s="55"/>
       <c r="G146" s="56"/>
     </row>
-    <row r="147" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B147" s="53"/>
       <c r="D147" s="54"/>
       <c r="E147" s="55"/>
       <c r="G147" s="56"/>
     </row>
-    <row r="148" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B148" s="53"/>
       <c r="D148" s="54"/>
       <c r="E148" s="55"/>
       <c r="G148" s="56"/>
     </row>
-    <row r="149" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B149" s="53"/>
       <c r="D149" s="54"/>
       <c r="E149" s="55"/>
       <c r="G149" s="56"/>
     </row>
-    <row r="150" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B150" s="53"/>
       <c r="D150" s="54"/>
       <c r="E150" s="55"/>
       <c r="G150" s="56"/>
     </row>
-    <row r="151" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B151" s="53"/>
       <c r="D151" s="54"/>
       <c r="E151" s="55"/>
       <c r="G151" s="56"/>
     </row>
-    <row r="152" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B152" s="53"/>
       <c r="D152" s="54"/>
       <c r="E152" s="55"/>
       <c r="G152" s="56"/>
     </row>
-    <row r="153" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B153" s="53"/>
       <c r="D153" s="54"/>
       <c r="E153" s="55"/>
       <c r="G153" s="56"/>
     </row>
-    <row r="154" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B154" s="53"/>
       <c r="D154" s="54"/>
       <c r="E154" s="55"/>
       <c r="G154" s="56"/>
     </row>
-    <row r="155" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B155" s="53"/>
       <c r="D155" s="54"/>
       <c r="E155" s="55"/>
       <c r="G155" s="56"/>
     </row>
-    <row r="156" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B156" s="53"/>
       <c r="D156" s="54"/>
       <c r="E156" s="55"/>
       <c r="G156" s="56"/>
     </row>
-    <row r="157" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B157" s="53"/>
       <c r="D157" s="54"/>
       <c r="E157" s="55"/>
       <c r="G157" s="56"/>
     </row>
-    <row r="158" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B158" s="53"/>
       <c r="D158" s="54"/>
       <c r="E158" s="55"/>
       <c r="G158" s="56"/>
     </row>
-    <row r="159" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B159" s="53"/>
       <c r="D159" s="54"/>
       <c r="E159" s="55"/>
       <c r="G159" s="56"/>
     </row>
-    <row r="160" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B160" s="53"/>
       <c r="D160" s="54"/>
       <c r="E160" s="55"/>
       <c r="G160" s="56"/>
     </row>
-    <row r="161" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B161" s="53"/>
       <c r="D161" s="54"/>
       <c r="E161" s="55"/>
       <c r="G161" s="56"/>
     </row>
-    <row r="162" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B162" s="53"/>
       <c r="D162" s="54"/>
       <c r="E162" s="55"/>
       <c r="G162" s="56"/>
     </row>
-    <row r="163" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B163" s="53"/>
       <c r="D163" s="54"/>
       <c r="E163" s="55"/>
       <c r="G163" s="56"/>
     </row>
-    <row r="164" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B164" s="53"/>
       <c r="D164" s="54"/>
       <c r="E164" s="55"/>
       <c r="G164" s="56"/>
     </row>
-    <row r="165" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B165" s="53"/>
       <c r="D165" s="54"/>
       <c r="E165" s="55"/>
       <c r="G165" s="56"/>
     </row>
-    <row r="166" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B166" s="53"/>
       <c r="D166" s="54"/>
       <c r="E166" s="55"/>
       <c r="G166" s="56"/>
     </row>
-    <row r="167" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B167" s="53"/>
       <c r="D167" s="54"/>
       <c r="E167" s="55"/>
       <c r="G167" s="56"/>
     </row>
-    <row r="168" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B168" s="53"/>
       <c r="D168" s="54"/>
       <c r="E168" s="55"/>
       <c r="G168" s="56"/>
     </row>
-    <row r="169" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B169" s="53"/>
       <c r="D169" s="54"/>
       <c r="E169" s="55"/>
       <c r="G169" s="56"/>
     </row>
-    <row r="170" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B170" s="53"/>
       <c r="D170" s="54"/>
       <c r="E170" s="55"/>
       <c r="G170" s="56"/>
     </row>
-    <row r="171" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B171" s="53"/>
       <c r="D171" s="54"/>
       <c r="E171" s="55"/>
       <c r="G171" s="56"/>
     </row>
-    <row r="172" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B172" s="53"/>
       <c r="D172" s="54"/>
       <c r="E172" s="55"/>
       <c r="G172" s="56"/>
     </row>
-    <row r="173" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B173" s="53"/>
       <c r="D173" s="54"/>
       <c r="E173" s="55"/>
       <c r="G173" s="56"/>
     </row>
-    <row r="174" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B174" s="53"/>
       <c r="D174" s="54"/>
       <c r="E174" s="55"/>
       <c r="G174" s="56"/>
     </row>
-    <row r="175" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B175" s="53"/>
       <c r="D175" s="54"/>
       <c r="E175" s="55"/>
       <c r="G175" s="56"/>
     </row>
-    <row r="176" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B176" s="53"/>
       <c r="D176" s="54"/>
       <c r="E176" s="55"/>
       <c r="G176" s="56"/>
     </row>
-    <row r="177" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B177" s="53"/>
       <c r="D177" s="54"/>
       <c r="E177" s="55"/>
       <c r="G177" s="56"/>
     </row>
-    <row r="178" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B178" s="53"/>
       <c r="D178" s="54"/>
       <c r="E178" s="55"/>
       <c r="G178" s="56"/>
     </row>
-    <row r="179" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B179" s="53"/>
       <c r="D179" s="54"/>
       <c r="E179" s="55"/>
       <c r="G179" s="56"/>
     </row>
-    <row r="180" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B180" s="53"/>
       <c r="D180" s="54"/>
       <c r="E180" s="55"/>
       <c r="G180" s="56"/>
     </row>
-    <row r="181" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B181" s="53"/>
       <c r="D181" s="54"/>
       <c r="E181" s="55"/>
       <c r="G181" s="56"/>
     </row>
-    <row r="182" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B182" s="53"/>
       <c r="D182" s="54"/>
       <c r="E182" s="55"/>
       <c r="G182" s="56"/>
     </row>
-    <row r="183" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B183" s="53"/>
       <c r="D183" s="54"/>
       <c r="E183" s="55"/>
       <c r="G183" s="56"/>
     </row>
-    <row r="184" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B184" s="53"/>
       <c r="D184" s="54"/>
       <c r="E184" s="55"/>
       <c r="G184" s="56"/>
     </row>
-    <row r="185" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B185" s="53"/>
       <c r="D185" s="54"/>
       <c r="E185" s="55"/>
       <c r="G185" s="56"/>
     </row>
-    <row r="186" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B186" s="53"/>
       <c r="D186" s="54"/>
       <c r="E186" s="55"/>
       <c r="G186" s="56"/>
     </row>
-    <row r="187" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B187" s="53"/>
       <c r="D187" s="54"/>
       <c r="E187" s="55"/>
       <c r="G187" s="56"/>
     </row>
-    <row r="188" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B188" s="53"/>
       <c r="D188" s="54"/>
       <c r="E188" s="55"/>
       <c r="G188" s="56"/>
     </row>
-    <row r="189" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B189" s="53"/>
       <c r="D189" s="54"/>
       <c r="E189" s="55"/>
       <c r="G189" s="56"/>
     </row>
-    <row r="190" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B190" s="53"/>
       <c r="D190" s="54"/>
       <c r="E190" s="55"/>
       <c r="G190" s="56"/>
     </row>
-    <row r="191" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B191" s="53"/>
       <c r="D191" s="54"/>
       <c r="E191" s="55"/>
       <c r="G191" s="56"/>
     </row>
-    <row r="192" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B192" s="53"/>
       <c r="D192" s="54"/>
       <c r="E192" s="55"/>
       <c r="G192" s="56"/>
     </row>
-    <row r="193" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B193" s="53"/>
       <c r="D193" s="54"/>
       <c r="E193" s="55"/>
       <c r="G193" s="56"/>
     </row>
-    <row r="194" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B194" s="53"/>
       <c r="D194" s="54"/>
       <c r="E194" s="55"/>
       <c r="G194" s="56"/>
     </row>
-    <row r="195" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B195" s="53"/>
       <c r="D195" s="54"/>
       <c r="E195" s="55"/>
       <c r="G195" s="56"/>
     </row>
-    <row r="196" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B196" s="53"/>
       <c r="D196" s="54"/>
       <c r="E196" s="55"/>
       <c r="G196" s="56"/>
     </row>
-    <row r="197" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B197" s="53"/>
       <c r="D197" s="54"/>
       <c r="E197" s="55"/>
       <c r="G197" s="56"/>
     </row>
-    <row r="198" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B198" s="53"/>
       <c r="D198" s="54"/>
       <c r="E198" s="55"/>
       <c r="G198" s="56"/>
     </row>
-    <row r="199" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B199" s="53"/>
       <c r="D199" s="54"/>
       <c r="E199" s="55"/>
       <c r="G199" s="56"/>
     </row>
-    <row r="200" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B200" s="53"/>
       <c r="D200" s="54"/>
       <c r="E200" s="55"/>
       <c r="G200" s="56"/>
     </row>
-    <row r="201" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B201" s="53"/>
       <c r="D201" s="54"/>
       <c r="E201" s="55"/>
       <c r="G201" s="56"/>
     </row>
-    <row r="202" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B202" s="53"/>
       <c r="D202" s="54"/>
       <c r="E202" s="55"/>
       <c r="G202" s="56"/>
     </row>
-    <row r="203" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B203" s="53"/>
       <c r="D203" s="54"/>
       <c r="E203" s="55"/>
       <c r="G203" s="56"/>
     </row>
-    <row r="204" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B204" s="53"/>
       <c r="D204" s="54"/>
       <c r="E204" s="55"/>
       <c r="G204" s="56"/>
     </row>
-    <row r="205" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B205" s="53"/>
       <c r="D205" s="54"/>
       <c r="E205" s="55"/>
       <c r="G205" s="56"/>
     </row>
-    <row r="206" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B206" s="53"/>
       <c r="D206" s="54"/>
       <c r="E206" s="55"/>
       <c r="G206" s="56"/>
     </row>
-    <row r="207" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B207" s="53"/>
       <c r="D207" s="54"/>
       <c r="E207" s="55"/>
       <c r="G207" s="56"/>
     </row>
-    <row r="208" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B208" s="53"/>
       <c r="D208" s="54"/>
       <c r="E208" s="55"/>
       <c r="G208" s="56"/>
     </row>
-    <row r="209" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B209" s="53"/>
       <c r="D209" s="54"/>
       <c r="E209" s="55"/>
       <c r="G209" s="56"/>
     </row>
-    <row r="210" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B210" s="53"/>
       <c r="D210" s="54"/>
       <c r="E210" s="55"/>
       <c r="G210" s="56"/>
     </row>
-    <row r="211" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B211" s="53"/>
       <c r="D211" s="54"/>
       <c r="E211" s="55"/>
       <c r="G211" s="56"/>
     </row>
-    <row r="212" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B212" s="53"/>
       <c r="D212" s="54"/>
       <c r="E212" s="55"/>
       <c r="G212" s="56"/>
     </row>
-    <row r="213" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B213" s="53"/>
       <c r="D213" s="54"/>
       <c r="E213" s="55"/>
       <c r="G213" s="56"/>
     </row>
-    <row r="214" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B214" s="53"/>
       <c r="D214" s="54"/>
       <c r="E214" s="55"/>
       <c r="G214" s="56"/>
     </row>
-    <row r="215" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B215" s="53"/>
       <c r="D215" s="54"/>
       <c r="E215" s="55"/>
       <c r="G215" s="56"/>
     </row>
-    <row r="216" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B216" s="53"/>
       <c r="D216" s="54"/>
       <c r="E216" s="55"/>
       <c r="G216" s="56"/>
     </row>
-    <row r="217" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B217" s="53"/>
       <c r="D217" s="54"/>
       <c r="E217" s="55"/>
       <c r="G217" s="56"/>
     </row>
-    <row r="218" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B218" s="53"/>
       <c r="D218" s="54"/>
       <c r="E218" s="55"/>
       <c r="G218" s="56"/>
     </row>
-    <row r="219" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B219" s="53"/>
       <c r="D219" s="54"/>
       <c r="E219" s="55"/>
       <c r="G219" s="56"/>
     </row>
-    <row r="220" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B220" s="53"/>
       <c r="D220" s="54"/>
       <c r="E220" s="55"/>
       <c r="G220" s="56"/>
     </row>
-    <row r="221" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B221" s="53"/>
       <c r="D221" s="54"/>
       <c r="E221" s="55"/>
       <c r="G221" s="56"/>
     </row>
-    <row r="222" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B222" s="53"/>
       <c r="D222" s="54"/>
       <c r="E222" s="55"/>
       <c r="G222" s="56"/>
     </row>
-    <row r="223" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B223" s="53"/>
       <c r="D223" s="54"/>
       <c r="E223" s="55"/>
       <c r="G223" s="56"/>
     </row>
-    <row r="224" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B224" s="53"/>
       <c r="D224" s="54"/>
       <c r="E224" s="55"/>
       <c r="G224" s="56"/>
     </row>
-    <row r="225" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B225" s="53"/>
       <c r="D225" s="54"/>
       <c r="E225" s="55"/>
       <c r="G225" s="56"/>
     </row>
-    <row r="226" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B226" s="53"/>
       <c r="D226" s="54"/>
       <c r="E226" s="55"/>
       <c r="G226" s="56"/>
     </row>
-    <row r="227" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B227" s="53"/>
       <c r="D227" s="54"/>
       <c r="E227" s="55"/>
       <c r="G227" s="56"/>
     </row>
-    <row r="228" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B228" s="53"/>
       <c r="D228" s="54"/>
       <c r="E228" s="55"/>
       <c r="G228" s="56"/>
     </row>
-    <row r="229" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B229" s="53"/>
       <c r="D229" s="54"/>
       <c r="E229" s="55"/>
       <c r="G229" s="56"/>
     </row>
-    <row r="230" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B230" s="53"/>
       <c r="D230" s="54"/>
       <c r="E230" s="55"/>
       <c r="G230" s="56"/>
     </row>
-    <row r="231" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B231" s="53"/>
       <c r="D231" s="54"/>
       <c r="E231" s="55"/>
       <c r="G231" s="56"/>
     </row>
-    <row r="232" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B232" s="53"/>
       <c r="D232" s="54"/>
       <c r="E232" s="55"/>
       <c r="G232" s="56"/>
     </row>
-    <row r="233" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B233" s="53"/>
       <c r="D233" s="54"/>
       <c r="E233" s="55"/>
       <c r="G233" s="56"/>
     </row>
-    <row r="234" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B234" s="53"/>
       <c r="D234" s="54"/>
       <c r="E234" s="55"/>
       <c r="G234" s="56"/>
     </row>
-    <row r="235" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B235" s="53"/>
       <c r="D235" s="54"/>
       <c r="E235" s="55"/>
       <c r="G235" s="56"/>
     </row>
-    <row r="236" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B236" s="53"/>
       <c r="D236" s="54"/>
       <c r="E236" s="55"/>
       <c r="G236" s="56"/>
     </row>
-    <row r="237" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B237" s="53"/>
       <c r="D237" s="54"/>
       <c r="E237" s="55"/>
       <c r="G237" s="56"/>
     </row>
-    <row r="238" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B238" s="53"/>
       <c r="D238" s="54"/>
       <c r="E238" s="55"/>
       <c r="G238" s="56"/>
     </row>
-    <row r="239" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B239" s="53"/>
       <c r="D239" s="54"/>
       <c r="E239" s="55"/>
       <c r="G239" s="56"/>
     </row>
-    <row r="240" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B240" s="53"/>
       <c r="D240" s="54"/>
       <c r="E240" s="55"/>
@@ -4417,6 +4485,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B71:F71"/>
+    <mergeCell ref="B73:F73"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="B121:B122"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="B75:F75"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A25:A55"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B105"/>
     <mergeCell ref="B106:B107"/>
     <mergeCell ref="B108:B113"/>
     <mergeCell ref="A59:A76"/>
@@ -4433,41 +4536,6 @@
     <mergeCell ref="B88:B90"/>
     <mergeCell ref="B91:B93"/>
     <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B75:F75"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A25:A55"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B71:F71"/>
-    <mergeCell ref="B73:F73"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="B121:B122"/>
-    <mergeCell ref="A58:F58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D108" r:id="rId1"/>
@@ -4490,56 +4558,56 @@
       <selection activeCell="A34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="4"/>
-    <col min="5" max="5" width="16.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="60.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="16.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="18.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="44" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4554,13 +4622,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4568,7 +4636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4576,7 +4644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4584,7 +4652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4592,10 +4660,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4603,42 +4671,42 @@
         <v>0.39513888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>0.39652777777777781</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>0.66597222222222219</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>0.81180555555555556</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>0.81319444444444444</v>
       </c>
@@ -4657,16 +4725,16 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -4677,7 +4745,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4688,7 +4756,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -4697,7 +4765,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -4710,14 +4778,14 @@
       <c r="D4" s="7"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
@@ -4725,7 +4793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
@@ -4733,7 +4801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -4742,13 +4810,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -4756,7 +4824,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -4767,7 +4835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -4775,17 +4843,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -4793,7 +4861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -4801,7 +4869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -4809,7 +4877,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -4817,12 +4885,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -4830,27 +4898,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>44</v>
       </c>

--- a/final-project/virtual-cards/smoke-test-virtual-cards.xlsx
+++ b/final-project/virtual-cards/smoke-test-virtual-cards.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\corina\Desktop\cursuri\siit-testing\final-project\virtual-cards\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="313">
   <si>
     <t xml:space="preserve">Test </t>
   </si>
@@ -835,9 +830,6 @@
   </si>
   <si>
     <t>Installation</t>
-  </si>
-  <si>
-    <t>Add same card</t>
   </si>
   <si>
     <t>Message: you already posses this card</t>
@@ -1134,84 +1126,94 @@
     <t xml:space="preserve">The application can be uninstalled in a reasonable amount of time </t>
   </si>
   <si>
-    <t>Navigation between relevant modules in the application are as per the requirement.
+    <t>The user should be able to create new account without encountering any errors</t>
+  </si>
+  <si>
+    <t>User should not be able to register with invalid credentials</t>
+  </si>
+  <si>
+    <t>An error message should appear ("Invalid password")
+The user is not logged in</t>
+  </si>
+  <si>
+    <t>An error message should appear ("Invalid credentials")
+The user is not logged in</t>
+  </si>
+  <si>
+    <t>The installation of the application should be done smoothly in a reasonable amount of time</t>
+  </si>
+  <si>
+    <t>Add virtual card by filling in the form with valid data</t>
+  </si>
+  <si>
+    <t>A registered user is allowed to login with username and password without encountering any errors</t>
+  </si>
+  <si>
+    <t>The "Log out" option should be available
+Any saved cards are removed from the list</t>
+  </si>
+  <si>
+    <t>The photo camera launches and the barcode can be scanned and the user is able to add cards
+The new card is added to the list of cards</t>
+  </si>
+  <si>
+    <t>The new card is added to the list
+The fields should be editable and should accept the input</t>
+  </si>
+  <si>
+    <t>Error message regarding the mandatory fields
+Mandatory fields are working as required
+Mandatory fields are displayed in a distinctive way than the non-mandatory fields</t>
+  </si>
+  <si>
+    <t>User  should have the possibility to delete a previously saved card</t>
+  </si>
+  <si>
+    <t>Cards are displayed in alphabetical order
+The anchor links work properly</t>
+  </si>
+  <si>
+    <t>The user should be able to find a card by filtering by name</t>
+  </si>
+  <si>
+    <t>Check the behaviour of mandatory fields by leaving them empty</t>
+  </si>
+  <si>
+    <t>Check if the user can find a  card using the alphabet anchors</t>
+  </si>
+  <si>
+    <t>Check the Search feature in the main list of all available cards by  entering card's name (or parts of it) in the search field</t>
+  </si>
+  <si>
+    <t>Check the Search feature in the list of previously added cards</t>
+  </si>
+  <si>
+    <t>The user should easily find a saved cart</t>
+  </si>
+  <si>
+    <t>Install</t>
+  </si>
+  <si>
+    <t>uninstall</t>
+  </si>
+  <si>
+    <t>Internet connection 
+Valid SIM card</t>
+  </si>
+  <si>
+    <t>Navigation between relevant modules in the application works properly.
 The application provides a method for going back or undoing an action
 The text is easy to read
 Application does not consume battery excessively</t>
   </si>
   <si>
-    <t>The user should be able to create new account without encountering any errors</t>
-  </si>
-  <si>
-    <t>User should not be able to register with invalid credentials</t>
-  </si>
-  <si>
-    <t>An error message should appear ("Invalid password")
-The user is not logged in</t>
-  </si>
-  <si>
-    <t>An error message should appear ("Invalid credentials")
-The user is not logged in</t>
-  </si>
-  <si>
-    <t>The installation of the application should be done smoothly in a reasonable amount of time</t>
-  </si>
-  <si>
-    <t>Add virtual card by filling in the form with valid data</t>
-  </si>
-  <si>
-    <t>A registered user is allowed to login with username and password without encountering any errors</t>
-  </si>
-  <si>
-    <t>The "Log out" option should be available
-Any saved cards are removed from the list</t>
-  </si>
-  <si>
-    <t>The photo camera launches and the barcode can be scanned and the user is able to add cards
-The new card is added to the list of cards</t>
-  </si>
-  <si>
-    <t>The new card is added to the list
-The fields should be editable and should accept the input</t>
-  </si>
-  <si>
-    <t>Error message regarding the mandatory fields
-Mandatory fields are working as required
-Mandatory fields are displayed in a distinctive way than the non-mandatory fields</t>
-  </si>
-  <si>
-    <t>User  should have the possibility to delete a previously saved card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet connection </t>
-  </si>
-  <si>
-    <t>Cards are displayed in alphabetical order
-The anchor links work properly</t>
-  </si>
-  <si>
-    <t>The user should be able to find a card by filtering by name</t>
-  </si>
-  <si>
-    <t>Check the behaviour of mandatory fields by leaving them empty</t>
-  </si>
-  <si>
-    <t>Check if the user can find a  card using the alphabet anchors</t>
-  </si>
-  <si>
-    <t>Check the Search feature in the main list of all available cards by  entering card's name (or parts of it) in the search field</t>
-  </si>
-  <si>
-    <t>Check the Search feature in the list of previously added cards</t>
-  </si>
-  <si>
-    <t>The user should easily find a saved cart</t>
-  </si>
-  <si>
-    <t>Install</t>
-  </si>
-  <si>
-    <t>uninstall</t>
+    <t>shopping list</t>
+  </si>
+  <si>
+    <t>offers</t>
+  </si>
+  <si>
+    <t>Add existing card</t>
   </si>
 </sst>
 </file>
@@ -1667,15 +1669,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1685,56 +1732,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1797,7 +1799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1832,7 +1834,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2041,59 +2043,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H240"/>
+  <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C137" sqref="B137:C137"/>
+      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="43.5546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="48"/>
       <c r="B1" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="66" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>245</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="F1" s="66" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="66" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="81"/>
       <c r="B3" s="43" t="s">
         <v>216</v>
       </c>
@@ -2101,205 +2103,205 @@
         <v>208</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82" t="s">
         <v>214</v>
       </c>
       <c r="C4" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="F4" s="44"/>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D5" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="44"/>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>286</v>
-      </c>
       <c r="F5" s="44"/>
     </row>
-    <row r="6" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="83"/>
+    <row r="6" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="F6" s="44"/>
     </row>
-    <row r="7" spans="1:6" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="83" t="s">
+    <row r="7" spans="1:6" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="81"/>
+      <c r="B7" s="82" t="s">
         <v>209</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>210</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="83"/>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="83"/>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="D9" s="25" t="s">
-        <v>231</v>
-      </c>
       <c r="E9" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F9" s="25"/>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="83" t="s">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="81"/>
+      <c r="B10" s="82" t="s">
         <v>133</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>84</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="83"/>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="83"/>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>233</v>
-      </c>
       <c r="E12" s="31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
       <c r="B13" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>235</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>236</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="83" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="82" t="s">
         <v>206</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>212</v>
       </c>
       <c r="D14" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:6" ht="195" x14ac:dyDescent="0.25">
+      <c r="A15" s="81"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="D15" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>274</v>
-      </c>
       <c r="E15" s="31" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F15" s="25"/>
     </row>
-    <row r="16" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="84"/>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="25" t="s">
         <v>211</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="31" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F16" s="25"/>
     </row>
-    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
       <c r="B17" s="23" t="s">
         <v>207</v>
       </c>
@@ -2307,89 +2309,89 @@
         <v>213</v>
       </c>
       <c r="D17" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="81"/>
+      <c r="B18" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E19" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="F17" s="25"/>
-    </row>
-    <row r="18" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="25" t="s">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="F18" s="25"/>
-    </row>
-    <row r="19" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>303</v>
-      </c>
-      <c r="F19" s="25"/>
-    </row>
-    <row r="20" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>308</v>
-      </c>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="71"/>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
       <c r="B21" s="45" t="s">
         <v>215</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="68" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F21" s="37"/>
     </row>
-    <row r="22" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="85" t="s">
-        <v>250</v>
-      </c>
-      <c r="B25" s="91" t="s">
-        <v>248</v>
-      </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-    </row>
-    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
-      <c r="B26" s="75" t="s">
-        <v>238</v>
+    <row r="22" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="81"/>
+      <c r="B26" s="69" t="s">
+        <v>237</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>1</v>
@@ -2404,9 +2406,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="71"/>
-      <c r="B27" s="75"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="81"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="25" t="s">
         <v>76</v>
       </c>
@@ -2414,13 +2416,13 @@
         <v>77</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="71"/>
-      <c r="B28" s="75"/>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="81"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="25" t="s">
         <v>3</v>
       </c>
@@ -2432,9 +2434,9 @@
       </c>
       <c r="F28" s="25"/>
     </row>
-    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="71"/>
-      <c r="B29" s="75"/>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="81"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="25" t="s">
         <v>2</v>
       </c>
@@ -2446,17 +2448,17 @@
       </c>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="71"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="79"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="71"/>
-      <c r="B31" s="75" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="81"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="81"/>
+      <c r="B31" s="69" t="s">
         <v>127</v>
       </c>
       <c r="C31" s="25" t="s">
@@ -2470,9 +2472,9 @@
       </c>
       <c r="F31" s="25"/>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
-      <c r="B32" s="75"/>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="81"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="28" t="s">
         <v>50</v>
       </c>
@@ -2484,9 +2486,9 @@
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="71"/>
-      <c r="B33" s="75"/>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="81"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="28" t="s">
         <v>51</v>
       </c>
@@ -2498,9 +2500,9 @@
       </c>
       <c r="F33" s="25"/>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="71"/>
-      <c r="B34" s="75"/>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="81"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="28" t="s">
         <v>52</v>
       </c>
@@ -2512,9 +2514,9 @@
       </c>
       <c r="F34" s="25"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
-      <c r="B35" s="75"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="81"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="25" t="s">
         <v>58</v>
       </c>
@@ -2526,9 +2528,9 @@
       </c>
       <c r="F35" s="25"/>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="71"/>
-      <c r="B36" s="75"/>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="81"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="28" t="s">
         <v>49</v>
       </c>
@@ -2540,17 +2542,17 @@
       </c>
       <c r="F36" s="25"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="71"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="79"/>
-    </row>
-    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A38" s="71"/>
-      <c r="B38" s="75" t="s">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="81"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="74"/>
+    </row>
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="81"/>
+      <c r="B38" s="69" t="s">
         <v>128</v>
       </c>
       <c r="C38" s="25" t="s">
@@ -2564,9 +2566,9 @@
       </c>
       <c r="F38" s="25"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="71"/>
-      <c r="B39" s="75"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="81"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="25" t="s">
         <v>61</v>
       </c>
@@ -2578,9 +2580,9 @@
       </c>
       <c r="F39" s="25"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="71"/>
-      <c r="B40" s="75"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="81"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="25" t="s">
         <v>63</v>
       </c>
@@ -2592,9 +2594,9 @@
       </c>
       <c r="F40" s="25"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="71"/>
-      <c r="B41" s="75"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="81"/>
+      <c r="B41" s="69"/>
       <c r="C41" s="25" t="s">
         <v>64</v>
       </c>
@@ -2606,9 +2608,9 @@
       </c>
       <c r="F41" s="25"/>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="71"/>
-      <c r="B42" s="75"/>
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="81"/>
+      <c r="B42" s="69"/>
       <c r="C42" s="25" t="s">
         <v>70</v>
       </c>
@@ -2620,9 +2622,9 @@
       </c>
       <c r="F42" s="25"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="71"/>
-      <c r="B43" s="75"/>
+    <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="81"/>
+      <c r="B43" s="69"/>
       <c r="C43" s="25" t="s">
         <v>67</v>
       </c>
@@ -2634,17 +2636,17 @@
       </c>
       <c r="F43" s="25"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="71"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="79"/>
-    </row>
-    <row r="45" spans="1:6" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="71"/>
-      <c r="B45" s="75" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="81"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="74"/>
+    </row>
+    <row r="45" spans="1:6" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="81"/>
+      <c r="B45" s="69" t="s">
         <v>129</v>
       </c>
       <c r="C45" s="25" t="s">
@@ -2658,9 +2660,9 @@
       </c>
       <c r="F45" s="25"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="71"/>
-      <c r="B46" s="75"/>
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="81"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="25" t="s">
         <v>104</v>
       </c>
@@ -2672,17 +2674,17 @@
       </c>
       <c r="F46" s="25"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="71"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="79"/>
-    </row>
-    <row r="48" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A48" s="71"/>
-      <c r="B48" s="75" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="81"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
+    </row>
+    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="81"/>
+      <c r="B48" s="69" t="s">
         <v>130</v>
       </c>
       <c r="C48" s="25" t="s">
@@ -2692,13 +2694,13 @@
         <v>82</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F48" s="25"/>
     </row>
-    <row r="49" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A49" s="71"/>
-      <c r="B49" s="75"/>
+    <row r="49" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="81"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="25" t="s">
         <v>99</v>
       </c>
@@ -2710,17 +2712,17 @@
       </c>
       <c r="F49" s="25"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="79"/>
-    </row>
-    <row r="51" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A51" s="71"/>
-      <c r="B51" s="75" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="81"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="73"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="74"/>
+    </row>
+    <row r="51" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="81"/>
+      <c r="B51" s="69" t="s">
         <v>131</v>
       </c>
       <c r="C51" s="25" t="s">
@@ -2730,13 +2732,13 @@
         <v>82</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F51" s="25"/>
     </row>
-    <row r="52" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A52" s="71"/>
-      <c r="B52" s="75"/>
+    <row r="52" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="81"/>
+      <c r="B52" s="69"/>
       <c r="C52" s="25" t="s">
         <v>103</v>
       </c>
@@ -2744,21 +2746,21 @@
         <v>82</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F52" s="25"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="71"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="79"/>
-    </row>
-    <row r="54" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="71"/>
-      <c r="B54" s="75" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="81"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="73"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="74"/>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="81"/>
+      <c r="B54" s="69" t="s">
         <v>132</v>
       </c>
       <c r="C54" s="25" t="s">
@@ -2768,13 +2770,13 @@
         <v>100</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F54" s="25"/>
     </row>
-    <row r="55" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A55" s="71"/>
-      <c r="B55" s="75"/>
+    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="81"/>
+      <c r="B55" s="69"/>
       <c r="C55" s="25" t="s">
         <v>47</v>
       </c>
@@ -2786,15 +2788,15 @@
       </c>
       <c r="F55" s="25"/>
     </row>
-    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-    </row>
-    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="75"/>
+      <c r="C56" s="75"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="75"/>
+      <c r="F56" s="75"/>
+    </row>
+    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="46"/>
       <c r="C57" s="20"/>
@@ -2803,22 +2805,22 @@
       <c r="F57" s="20"/>
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="89" t="s">
-        <v>249</v>
-      </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
+    <row r="58" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="70" t="s">
-        <v>249</v>
-      </c>
-      <c r="B59" s="75" t="s">
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="80" t="s">
+        <v>248</v>
+      </c>
+      <c r="B59" s="69" t="s">
         <v>134</v>
       </c>
       <c r="C59" s="25" t="s">
@@ -2828,15 +2830,15 @@
         <v>84</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="71"/>
-      <c r="B60" s="75"/>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="81"/>
+      <c r="B60" s="69"/>
       <c r="C60" s="25" t="s">
         <v>85</v>
       </c>
@@ -2848,9 +2850,9 @@
       </c>
       <c r="F60" s="25"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="71"/>
-      <c r="B61" s="75"/>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="81"/>
+      <c r="B61" s="69"/>
       <c r="C61" s="25" t="s">
         <v>88</v>
       </c>
@@ -2862,9 +2864,9 @@
       </c>
       <c r="F61" s="25"/>
     </row>
-    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="71"/>
-      <c r="B62" s="75"/>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="81"/>
+      <c r="B62" s="69"/>
       <c r="C62" s="25" t="s">
         <v>89</v>
       </c>
@@ -2876,9 +2878,9 @@
       </c>
       <c r="F62" s="25"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="71"/>
-      <c r="B63" s="75"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="81"/>
+      <c r="B63" s="69"/>
       <c r="C63" s="25" t="s">
         <v>92</v>
       </c>
@@ -2890,17 +2892,17 @@
       </c>
       <c r="F63" s="25"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="71"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="79"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="71"/>
-      <c r="B65" s="75" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="81"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="73"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="74"/>
+    </row>
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="81"/>
+      <c r="B65" s="69" t="s">
         <v>135</v>
       </c>
       <c r="C65" s="25" t="s">
@@ -2910,15 +2912,15 @@
         <v>105</v>
       </c>
       <c r="E65" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="F65" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="F65" s="25" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="71"/>
-      <c r="B66" s="75"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="81"/>
+      <c r="B66" s="69"/>
       <c r="C66" s="25" t="s">
         <v>107</v>
       </c>
@@ -2928,16 +2930,16 @@
       </c>
       <c r="F66" s="25"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="71"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="79"/>
-    </row>
-    <row r="68" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="71"/>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="81"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="73"/>
+      <c r="D67" s="73"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="74"/>
+    </row>
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="81"/>
       <c r="B68" s="34" t="s">
         <v>136</v>
       </c>
@@ -2952,16 +2954,16 @@
       </c>
       <c r="F68" s="25"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="71"/>
-      <c r="B69" s="77"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="79"/>
-    </row>
-    <row r="70" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="71"/>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="81"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="74"/>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="81"/>
       <c r="B70" s="35" t="s">
         <v>137</v>
       </c>
@@ -2972,21 +2974,21 @@
       <c r="E70" s="22"/>
       <c r="F70" s="25"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="71"/>
-      <c r="B71" s="86"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="88"/>
-    </row>
-    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="71"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="81"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="78"/>
+    </row>
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="81"/>
       <c r="B72" s="34" t="s">
         <v>138</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D72" s="26" t="s">
         <v>111</v>
@@ -2996,16 +2998,16 @@
       </c>
       <c r="F72" s="25"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="71"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="79"/>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="A74" s="71"/>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="81"/>
+      <c r="B73" s="72"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="73"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="74"/>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="81"/>
       <c r="B74" s="34" t="s">
         <v>139</v>
       </c>
@@ -3020,39 +3022,39 @@
       </c>
       <c r="F74" s="25"/>
     </row>
-    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="71"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="79"/>
-    </row>
-    <row r="76" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A76" s="71"/>
+    <row r="75" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="81"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="73"/>
+      <c r="F75" s="74"/>
+    </row>
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="81"/>
       <c r="B76" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" s="32" t="s">
         <v>261</v>
-      </c>
-      <c r="C76" s="32" t="s">
-        <v>262</v>
       </c>
       <c r="D76" s="26" t="s">
         <v>121</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F76" s="25"/>
     </row>
-    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="42"/>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-    </row>
-    <row r="78" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="75"/>
+      <c r="C77" s="75"/>
+      <c r="D77" s="75"/>
+      <c r="E77" s="75"/>
+      <c r="F77" s="75"/>
+    </row>
+    <row r="78" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="46"/>
       <c r="C78" s="20"/>
@@ -3061,20 +3063,20 @@
       <c r="F78" s="20"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="21"/>
-      <c r="B79" s="91" t="s">
-        <v>241</v>
-      </c>
-      <c r="C79" s="91"/>
-      <c r="D79" s="91"/>
-      <c r="E79" s="91"/>
+      <c r="B79" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
       <c r="F79" s="19"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="21"/>
-      <c r="B80" s="82" t="s">
+      <c r="B80" s="86" t="s">
         <v>140</v>
       </c>
       <c r="C80" s="24" t="s">
@@ -3088,9 +3090,9 @@
       </c>
       <c r="F80" s="25"/>
     </row>
-    <row r="81" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
-      <c r="B81" s="82"/>
+      <c r="B81" s="86"/>
       <c r="C81" s="24" t="s">
         <v>114</v>
       </c>
@@ -3102,25 +3104,25 @@
       </c>
       <c r="F81" s="25"/>
     </row>
-    <row r="82" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="51" t="s">
-        <v>241</v>
-      </c>
-      <c r="B82" s="82"/>
+        <v>240</v>
+      </c>
+      <c r="B82" s="86"/>
       <c r="C82" s="24" t="s">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="D82" s="26" t="s">
         <v>115</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F82" s="25"/>
     </row>
-    <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
-      <c r="B83" s="82"/>
+      <c r="B83" s="86"/>
       <c r="C83" s="24" t="s">
         <v>117</v>
       </c>
@@ -3132,9 +3134,9 @@
       </c>
       <c r="F83" s="25"/>
     </row>
-    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
-      <c r="B84" s="82"/>
+      <c r="B84" s="86"/>
       <c r="C84" s="24" t="s">
         <v>125</v>
       </c>
@@ -3144,11 +3146,11 @@
       </c>
       <c r="F84" s="25"/>
     </row>
-    <row r="85" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
-      <c r="B85" s="82"/>
+      <c r="B85" s="86"/>
       <c r="C85" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D85" s="26" t="s">
         <v>126</v>
@@ -3158,7 +3160,7 @@
       </c>
       <c r="F85" s="25"/>
     </row>
-    <row r="86" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="64"/>
       <c r="C86" s="60"/>
       <c r="D86" s="61"/>
@@ -3166,9 +3168,9 @@
       <c r="F86" s="60"/>
       <c r="G86" s="63"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="72" t="s">
-        <v>251</v>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="87" t="s">
+        <v>250</v>
       </c>
       <c r="B87" s="17" t="s">
         <v>141</v>
@@ -3182,9 +3184,9 @@
       <c r="E87" s="22"/>
       <c r="F87" s="25"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="73"/>
-      <c r="B88" s="69" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="88"/>
+      <c r="B88" s="70" t="s">
         <v>164</v>
       </c>
       <c r="C88" s="25" t="s">
@@ -3198,9 +3200,9 @@
       </c>
       <c r="F88" s="25"/>
     </row>
-    <row r="89" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="73"/>
-      <c r="B89" s="69"/>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="88"/>
+      <c r="B89" s="70"/>
       <c r="C89" s="25" t="s">
         <v>144</v>
       </c>
@@ -3212,9 +3214,9 @@
       </c>
       <c r="F89" s="25"/>
     </row>
-    <row r="90" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A90" s="73"/>
-      <c r="B90" s="69"/>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="88"/>
+      <c r="B90" s="70"/>
       <c r="C90" s="25" t="s">
         <v>3</v>
       </c>
@@ -3226,9 +3228,9 @@
       </c>
       <c r="F90" s="25"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="73"/>
-      <c r="B91" s="69" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="88"/>
+      <c r="B91" s="70" t="s">
         <v>165</v>
       </c>
       <c r="C91" s="25" t="s">
@@ -3240,9 +3242,9 @@
       <c r="E91" s="22"/>
       <c r="F91" s="25"/>
     </row>
-    <row r="92" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="73"/>
-      <c r="B92" s="69"/>
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="88"/>
+      <c r="B92" s="70"/>
       <c r="C92" s="25" t="s">
         <v>144</v>
       </c>
@@ -3254,9 +3256,9 @@
       </c>
       <c r="F92" s="25"/>
     </row>
-    <row r="93" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="73"/>
-      <c r="B93" s="69"/>
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="88"/>
+      <c r="B93" s="70"/>
       <c r="C93" s="25" t="s">
         <v>3</v>
       </c>
@@ -3268,9 +3270,9 @@
       </c>
       <c r="F93" s="25"/>
     </row>
-    <row r="94" spans="1:7" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="73"/>
-      <c r="B94" s="69" t="s">
+    <row r="94" spans="1:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="88"/>
+      <c r="B94" s="70" t="s">
         <v>166</v>
       </c>
       <c r="C94" s="25" t="s">
@@ -3284,9 +3286,9 @@
       </c>
       <c r="F94" s="25"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="73"/>
-      <c r="B95" s="69"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="88"/>
+      <c r="B95" s="70"/>
       <c r="C95" s="25" t="s">
         <v>151</v>
       </c>
@@ -3298,9 +3300,9 @@
       </c>
       <c r="F95" s="25"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="73"/>
-      <c r="B96" s="69" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="88"/>
+      <c r="B96" s="70" t="s">
         <v>167</v>
       </c>
       <c r="C96" s="25" t="s">
@@ -3310,13 +3312,13 @@
         <v>156</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F96" s="25"/>
     </row>
-    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="73"/>
-      <c r="B97" s="69"/>
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="88"/>
+      <c r="B97" s="70"/>
       <c r="C97" s="25" t="s">
         <v>191</v>
       </c>
@@ -3328,9 +3330,9 @@
       </c>
       <c r="F97" s="25"/>
     </row>
-    <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="73"/>
-      <c r="B98" s="69"/>
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="88"/>
+      <c r="B98" s="70"/>
       <c r="C98" s="25" t="s">
         <v>3</v>
       </c>
@@ -3342,9 +3344,9 @@
       </c>
       <c r="F98" s="25"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="73"/>
-      <c r="B99" s="69" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="88"/>
+      <c r="B99" s="70" t="s">
         <v>168</v>
       </c>
       <c r="C99" s="25" t="s">
@@ -3358,9 +3360,9 @@
       </c>
       <c r="F99" s="25"/>
     </row>
-    <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="73"/>
-      <c r="B100" s="69"/>
+    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="88"/>
+      <c r="B100" s="70"/>
       <c r="C100" s="25" t="s">
         <v>159</v>
       </c>
@@ -3368,13 +3370,13 @@
         <v>160</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F100" s="25"/>
     </row>
-    <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="73"/>
-      <c r="B101" s="69"/>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="88"/>
+      <c r="B101" s="70"/>
       <c r="C101" s="37" t="s">
         <v>161</v>
       </c>
@@ -3382,15 +3384,15 @@
         <v>6984000</v>
       </c>
       <c r="E101" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="16"/>
       <c r="H101" s="15"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="73"/>
-      <c r="B102" s="69" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="88"/>
+      <c r="B102" s="70" t="s">
         <v>169</v>
       </c>
       <c r="C102" s="25" t="s">
@@ -3406,9 +3408,9 @@
       <c r="G102" s="16"/>
       <c r="H102" s="15"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="73"/>
-      <c r="B103" s="69"/>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="88"/>
+      <c r="B103" s="70"/>
       <c r="C103" s="25" t="s">
         <v>170</v>
       </c>
@@ -3422,9 +3424,9 @@
       <c r="G103" s="16"/>
       <c r="H103" s="15"/>
     </row>
-    <row r="104" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="73"/>
-      <c r="B104" s="69"/>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="88"/>
+      <c r="B104" s="70"/>
       <c r="C104" s="25" t="s">
         <v>171</v>
       </c>
@@ -3438,9 +3440,9 @@
       <c r="G104" s="16"/>
       <c r="H104" s="15"/>
     </row>
-    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="73"/>
-      <c r="B105" s="69"/>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="88"/>
+      <c r="B105" s="70"/>
       <c r="C105" s="37" t="s">
         <v>172</v>
       </c>
@@ -3454,9 +3456,9 @@
       <c r="G105" s="16"/>
       <c r="H105" s="15"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="73"/>
-      <c r="B106" s="69" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="88"/>
+      <c r="B106" s="70" t="s">
         <v>175</v>
       </c>
       <c r="C106" s="37" t="s">
@@ -3472,9 +3474,9 @@
       <c r="G106" s="16"/>
       <c r="H106" s="15"/>
     </row>
-    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="73"/>
-      <c r="B107" s="69"/>
+    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="88"/>
+      <c r="B107" s="70"/>
       <c r="C107" s="37" t="s">
         <v>199</v>
       </c>
@@ -3488,9 +3490,9 @@
       <c r="G107" s="16"/>
       <c r="H107" s="15"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="73"/>
-      <c r="B108" s="69" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="88"/>
+      <c r="B108" s="70" t="s">
         <v>30</v>
       </c>
       <c r="C108" s="25" t="s">
@@ -3506,9 +3508,9 @@
       <c r="G108" s="16"/>
       <c r="H108" s="15"/>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A109" s="73"/>
-      <c r="B109" s="69"/>
+    <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="88"/>
+      <c r="B109" s="70"/>
       <c r="C109" s="28" t="s">
         <v>50</v>
       </c>
@@ -3522,9 +3524,9 @@
       <c r="G109" s="16"/>
       <c r="H109" s="15"/>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A110" s="73"/>
-      <c r="B110" s="69"/>
+    <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="88"/>
+      <c r="B110" s="70"/>
       <c r="C110" s="28" t="s">
         <v>51</v>
       </c>
@@ -3538,9 +3540,9 @@
       <c r="G110" s="16"/>
       <c r="H110" s="15"/>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A111" s="73"/>
-      <c r="B111" s="69"/>
+    <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A111" s="88"/>
+      <c r="B111" s="70"/>
       <c r="C111" s="28" t="s">
         <v>52</v>
       </c>
@@ -3554,9 +3556,9 @@
       <c r="G111" s="16"/>
       <c r="H111" s="15"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="73"/>
-      <c r="B112" s="69"/>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="88"/>
+      <c r="B112" s="70"/>
       <c r="C112" s="25" t="s">
         <v>58</v>
       </c>
@@ -3570,9 +3572,9 @@
       <c r="G112" s="16"/>
       <c r="H112" s="15"/>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A113" s="73"/>
-      <c r="B113" s="69"/>
+    <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A113" s="88"/>
+      <c r="B113" s="70"/>
       <c r="C113" s="28" t="s">
         <v>49</v>
       </c>
@@ -3586,43 +3588,43 @@
       <c r="G113" s="16"/>
       <c r="H113" s="15"/>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A114" s="73"/>
-      <c r="B114" s="76" t="s">
-        <v>240</v>
+    <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A114" s="88"/>
+      <c r="B114" s="90" t="s">
+        <v>239</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D114" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="E114" s="28" t="s">
         <v>271</v>
-      </c>
-      <c r="E114" s="28" t="s">
-        <v>272</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="16"/>
       <c r="H114" s="15"/>
     </row>
-    <row r="115" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="73"/>
-      <c r="B115" s="76"/>
+    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="88"/>
+      <c r="B115" s="90"/>
       <c r="C115" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D115" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="D115" s="41" t="s">
-        <v>221</v>
-      </c>
       <c r="E115" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="16"/>
       <c r="H115" s="15"/>
     </row>
-    <row r="116" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="73"/>
-      <c r="B116" s="69" t="s">
+    <row r="116" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A116" s="88"/>
+      <c r="B116" s="70" t="s">
         <v>130</v>
       </c>
       <c r="C116" s="25" t="s">
@@ -3638,9 +3640,9 @@
       <c r="G116" s="16"/>
       <c r="H116" s="15"/>
     </row>
-    <row r="117" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A117" s="73"/>
-      <c r="B117" s="69"/>
+    <row r="117" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A117" s="88"/>
+      <c r="B117" s="70"/>
       <c r="C117" s="25" t="s">
         <v>99</v>
       </c>
@@ -3654,9 +3656,9 @@
       <c r="G117" s="16"/>
       <c r="H117" s="15"/>
     </row>
-    <row r="118" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A118" s="73"/>
-      <c r="B118" s="69" t="s">
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A118" s="88"/>
+      <c r="B118" s="70" t="s">
         <v>132</v>
       </c>
       <c r="C118" s="25" t="s">
@@ -3666,15 +3668,15 @@
         <v>105</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="16"/>
       <c r="H118" s="15"/>
     </row>
-    <row r="119" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A119" s="73"/>
-      <c r="B119" s="69"/>
+    <row r="119" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A119" s="88"/>
+      <c r="B119" s="70"/>
       <c r="C119" s="25" t="s">
         <v>47</v>
       </c>
@@ -3682,15 +3684,15 @@
         <v>181</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="16"/>
       <c r="H119" s="15"/>
     </row>
-    <row r="120" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A120" s="74"/>
-      <c r="B120" s="69"/>
+    <row r="120" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A120" s="89"/>
+      <c r="B120" s="70"/>
       <c r="C120" s="25" t="s">
         <v>47</v>
       </c>
@@ -3698,15 +3700,15 @@
         <v>183</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="16"/>
       <c r="H120" s="15"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
-      <c r="B121" s="75" t="s">
+      <c r="B121" s="69" t="s">
         <v>184</v>
       </c>
       <c r="C121" s="25" t="s">
@@ -3720,9 +3722,9 @@
       </c>
       <c r="F121" s="25"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
-      <c r="B122" s="75"/>
+      <c r="B122" s="69"/>
       <c r="C122" s="25" t="s">
         <v>185</v>
       </c>
@@ -3732,13 +3734,13 @@
       </c>
       <c r="F122" s="25"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
-      <c r="B123" s="75" t="s">
+      <c r="B123" s="69" t="s">
         <v>201</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D123" s="26" t="s">
         <v>203</v>
@@ -3746,9 +3748,9 @@
       <c r="E123" s="22"/>
       <c r="F123" s="25"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
-      <c r="B124" s="75"/>
+      <c r="B124" s="69"/>
       <c r="C124" s="25" t="s">
         <v>202</v>
       </c>
@@ -3758,87 +3760,87 @@
       <c r="E124" s="22"/>
       <c r="F124" s="25"/>
     </row>
-    <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
-      <c r="B125" s="75" t="s">
+      <c r="B125" s="69" t="s">
         <v>204</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D125" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E125" s="22"/>
       <c r="F125" s="25"/>
     </row>
-    <row r="126" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" s="57"/>
-      <c r="B126" s="69"/>
+      <c r="B126" s="70"/>
       <c r="C126" s="25" t="s">
         <v>205</v>
       </c>
       <c r="D126" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E126" s="22"/>
       <c r="F126" s="25"/>
     </row>
-    <row r="127" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="46"/>
       <c r="D127" s="49"/>
       <c r="E127" s="47"/>
       <c r="G127" s="50"/>
     </row>
-    <row r="128" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="53"/>
       <c r="D128" s="54"/>
       <c r="E128" s="55"/>
       <c r="G128" s="56"/>
     </row>
-    <row r="129" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="53"/>
       <c r="D129" s="54"/>
       <c r="E129" s="55"/>
       <c r="G129" s="56"/>
     </row>
-    <row r="130" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="52" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B130" s="53"/>
       <c r="D130" s="54"/>
       <c r="E130" s="55"/>
       <c r="G130" s="56"/>
     </row>
-    <row r="131" spans="1:7" s="52" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B131" s="53"/>
       <c r="D131" s="54"/>
       <c r="E131" s="55"/>
       <c r="G131" s="56"/>
     </row>
-    <row r="132" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B132" s="53"/>
       <c r="D132" s="54"/>
       <c r="E132" s="55"/>
       <c r="G132" s="56"/>
     </row>
-    <row r="133" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B133" s="53"/>
       <c r="D133" s="54"/>
       <c r="E133" s="55"/>
       <c r="G133" s="56"/>
     </row>
-    <row r="134" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="52" t="s">
         <v>310</v>
       </c>
@@ -3847,644 +3849,697 @@
       <c r="E134" s="55"/>
       <c r="G134" s="56"/>
     </row>
-    <row r="135" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="52" t="s">
+        <v>311</v>
+      </c>
       <c r="B135" s="53"/>
       <c r="D135" s="54"/>
       <c r="E135" s="55"/>
       <c r="G135" s="56"/>
     </row>
-    <row r="136" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="52" t="s">
+        <v>307</v>
+      </c>
       <c r="B136" s="53"/>
       <c r="D136" s="54"/>
       <c r="E136" s="55"/>
       <c r="G136" s="56"/>
     </row>
-    <row r="137" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="53"/>
       <c r="D137" s="54"/>
       <c r="E137" s="55"/>
       <c r="G137" s="56"/>
     </row>
-    <row r="138" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="53"/>
       <c r="D138" s="54"/>
       <c r="E138" s="55"/>
       <c r="G138" s="56"/>
     </row>
-    <row r="139" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="53"/>
       <c r="D139" s="54"/>
       <c r="E139" s="55"/>
       <c r="G139" s="56"/>
     </row>
-    <row r="140" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="53"/>
       <c r="D140" s="54"/>
       <c r="E140" s="55"/>
       <c r="G140" s="56"/>
     </row>
-    <row r="141" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="53"/>
       <c r="D141" s="54"/>
       <c r="E141" s="55"/>
       <c r="G141" s="56"/>
     </row>
-    <row r="142" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="53"/>
       <c r="D142" s="54"/>
       <c r="E142" s="55"/>
       <c r="G142" s="56"/>
     </row>
-    <row r="143" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="53"/>
       <c r="D143" s="54"/>
       <c r="E143" s="55"/>
       <c r="G143" s="56"/>
     </row>
-    <row r="144" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="53"/>
       <c r="D144" s="54"/>
       <c r="E144" s="55"/>
       <c r="G144" s="56"/>
     </row>
-    <row r="145" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="53"/>
       <c r="D145" s="54"/>
       <c r="E145" s="55"/>
       <c r="G145" s="56"/>
     </row>
-    <row r="146" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="53"/>
       <c r="D146" s="54"/>
       <c r="E146" s="55"/>
       <c r="G146" s="56"/>
     </row>
-    <row r="147" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="53"/>
       <c r="D147" s="54"/>
       <c r="E147" s="55"/>
       <c r="G147" s="56"/>
     </row>
-    <row r="148" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="53"/>
       <c r="D148" s="54"/>
       <c r="E148" s="55"/>
       <c r="G148" s="56"/>
     </row>
-    <row r="149" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="53"/>
       <c r="D149" s="54"/>
       <c r="E149" s="55"/>
       <c r="G149" s="56"/>
     </row>
-    <row r="150" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="53"/>
       <c r="D150" s="54"/>
       <c r="E150" s="55"/>
       <c r="G150" s="56"/>
     </row>
-    <row r="151" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="53"/>
       <c r="D151" s="54"/>
       <c r="E151" s="55"/>
       <c r="G151" s="56"/>
     </row>
-    <row r="152" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="53"/>
       <c r="D152" s="54"/>
       <c r="E152" s="55"/>
       <c r="G152" s="56"/>
     </row>
-    <row r="153" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="53"/>
       <c r="D153" s="54"/>
       <c r="E153" s="55"/>
       <c r="G153" s="56"/>
     </row>
-    <row r="154" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="53"/>
       <c r="D154" s="54"/>
       <c r="E154" s="55"/>
       <c r="G154" s="56"/>
     </row>
-    <row r="155" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="53"/>
       <c r="D155" s="54"/>
       <c r="E155" s="55"/>
       <c r="G155" s="56"/>
     </row>
-    <row r="156" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="53"/>
       <c r="D156" s="54"/>
       <c r="E156" s="55"/>
       <c r="G156" s="56"/>
     </row>
-    <row r="157" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="53"/>
       <c r="D157" s="54"/>
       <c r="E157" s="55"/>
       <c r="G157" s="56"/>
     </row>
-    <row r="158" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="53"/>
       <c r="D158" s="54"/>
       <c r="E158" s="55"/>
       <c r="G158" s="56"/>
     </row>
-    <row r="159" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="53"/>
       <c r="D159" s="54"/>
       <c r="E159" s="55"/>
       <c r="G159" s="56"/>
     </row>
-    <row r="160" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="53"/>
       <c r="D160" s="54"/>
       <c r="E160" s="55"/>
       <c r="G160" s="56"/>
     </row>
-    <row r="161" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="53"/>
       <c r="D161" s="54"/>
       <c r="E161" s="55"/>
       <c r="G161" s="56"/>
     </row>
-    <row r="162" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="53"/>
       <c r="D162" s="54"/>
       <c r="E162" s="55"/>
       <c r="G162" s="56"/>
     </row>
-    <row r="163" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="53"/>
       <c r="D163" s="54"/>
       <c r="E163" s="55"/>
       <c r="G163" s="56"/>
     </row>
-    <row r="164" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="53"/>
       <c r="D164" s="54"/>
       <c r="E164" s="55"/>
       <c r="G164" s="56"/>
     </row>
-    <row r="165" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="53"/>
       <c r="D165" s="54"/>
       <c r="E165" s="55"/>
       <c r="G165" s="56"/>
     </row>
-    <row r="166" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="53"/>
       <c r="D166" s="54"/>
       <c r="E166" s="55"/>
       <c r="G166" s="56"/>
     </row>
-    <row r="167" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="53"/>
       <c r="D167" s="54"/>
       <c r="E167" s="55"/>
       <c r="G167" s="56"/>
     </row>
-    <row r="168" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="53"/>
       <c r="D168" s="54"/>
       <c r="E168" s="55"/>
       <c r="G168" s="56"/>
     </row>
-    <row r="169" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B169" s="53"/>
       <c r="D169" s="54"/>
       <c r="E169" s="55"/>
       <c r="G169" s="56"/>
     </row>
-    <row r="170" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B170" s="53"/>
       <c r="D170" s="54"/>
       <c r="E170" s="55"/>
       <c r="G170" s="56"/>
     </row>
-    <row r="171" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="53"/>
       <c r="D171" s="54"/>
       <c r="E171" s="55"/>
       <c r="G171" s="56"/>
     </row>
-    <row r="172" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="53"/>
       <c r="D172" s="54"/>
       <c r="E172" s="55"/>
       <c r="G172" s="56"/>
     </row>
-    <row r="173" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B173" s="53"/>
       <c r="D173" s="54"/>
       <c r="E173" s="55"/>
       <c r="G173" s="56"/>
     </row>
-    <row r="174" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="53"/>
       <c r="D174" s="54"/>
       <c r="E174" s="55"/>
       <c r="G174" s="56"/>
     </row>
-    <row r="175" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B175" s="53"/>
       <c r="D175" s="54"/>
       <c r="E175" s="55"/>
       <c r="G175" s="56"/>
     </row>
-    <row r="176" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="53"/>
       <c r="D176" s="54"/>
       <c r="E176" s="55"/>
       <c r="G176" s="56"/>
     </row>
-    <row r="177" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="53"/>
       <c r="D177" s="54"/>
       <c r="E177" s="55"/>
       <c r="G177" s="56"/>
     </row>
-    <row r="178" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="53"/>
       <c r="D178" s="54"/>
       <c r="E178" s="55"/>
       <c r="G178" s="56"/>
     </row>
-    <row r="179" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B179" s="53"/>
       <c r="D179" s="54"/>
       <c r="E179" s="55"/>
       <c r="G179" s="56"/>
     </row>
-    <row r="180" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="53"/>
       <c r="D180" s="54"/>
       <c r="E180" s="55"/>
       <c r="G180" s="56"/>
     </row>
-    <row r="181" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="53"/>
       <c r="D181" s="54"/>
       <c r="E181" s="55"/>
       <c r="G181" s="56"/>
     </row>
-    <row r="182" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B182" s="53"/>
       <c r="D182" s="54"/>
       <c r="E182" s="55"/>
       <c r="G182" s="56"/>
     </row>
-    <row r="183" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B183" s="53"/>
       <c r="D183" s="54"/>
       <c r="E183" s="55"/>
       <c r="G183" s="56"/>
     </row>
-    <row r="184" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="53"/>
       <c r="D184" s="54"/>
       <c r="E184" s="55"/>
       <c r="G184" s="56"/>
     </row>
-    <row r="185" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B185" s="53"/>
       <c r="D185" s="54"/>
       <c r="E185" s="55"/>
       <c r="G185" s="56"/>
     </row>
-    <row r="186" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B186" s="53"/>
       <c r="D186" s="54"/>
       <c r="E186" s="55"/>
       <c r="G186" s="56"/>
     </row>
-    <row r="187" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B187" s="53"/>
       <c r="D187" s="54"/>
       <c r="E187" s="55"/>
       <c r="G187" s="56"/>
     </row>
-    <row r="188" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B188" s="53"/>
       <c r="D188" s="54"/>
       <c r="E188" s="55"/>
       <c r="G188" s="56"/>
     </row>
-    <row r="189" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B189" s="53"/>
       <c r="D189" s="54"/>
       <c r="E189" s="55"/>
       <c r="G189" s="56"/>
     </row>
-    <row r="190" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B190" s="53"/>
       <c r="D190" s="54"/>
       <c r="E190" s="55"/>
       <c r="G190" s="56"/>
     </row>
-    <row r="191" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B191" s="53"/>
       <c r="D191" s="54"/>
       <c r="E191" s="55"/>
       <c r="G191" s="56"/>
     </row>
-    <row r="192" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="53"/>
       <c r="D192" s="54"/>
       <c r="E192" s="55"/>
       <c r="G192" s="56"/>
     </row>
-    <row r="193" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B193" s="53"/>
       <c r="D193" s="54"/>
       <c r="E193" s="55"/>
       <c r="G193" s="56"/>
     </row>
-    <row r="194" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B194" s="53"/>
       <c r="D194" s="54"/>
       <c r="E194" s="55"/>
       <c r="G194" s="56"/>
     </row>
-    <row r="195" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="53"/>
       <c r="D195" s="54"/>
       <c r="E195" s="55"/>
       <c r="G195" s="56"/>
     </row>
-    <row r="196" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B196" s="53"/>
       <c r="D196" s="54"/>
       <c r="E196" s="55"/>
       <c r="G196" s="56"/>
     </row>
-    <row r="197" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B197" s="53"/>
       <c r="D197" s="54"/>
       <c r="E197" s="55"/>
       <c r="G197" s="56"/>
     </row>
-    <row r="198" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B198" s="53"/>
       <c r="D198" s="54"/>
       <c r="E198" s="55"/>
       <c r="G198" s="56"/>
     </row>
-    <row r="199" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B199" s="53"/>
       <c r="D199" s="54"/>
       <c r="E199" s="55"/>
       <c r="G199" s="56"/>
     </row>
-    <row r="200" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="53"/>
       <c r="D200" s="54"/>
       <c r="E200" s="55"/>
       <c r="G200" s="56"/>
     </row>
-    <row r="201" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="53"/>
       <c r="D201" s="54"/>
       <c r="E201" s="55"/>
       <c r="G201" s="56"/>
     </row>
-    <row r="202" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B202" s="53"/>
       <c r="D202" s="54"/>
       <c r="E202" s="55"/>
       <c r="G202" s="56"/>
     </row>
-    <row r="203" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B203" s="53"/>
       <c r="D203" s="54"/>
       <c r="E203" s="55"/>
       <c r="G203" s="56"/>
     </row>
-    <row r="204" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B204" s="53"/>
       <c r="D204" s="54"/>
       <c r="E204" s="55"/>
       <c r="G204" s="56"/>
     </row>
-    <row r="205" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B205" s="53"/>
       <c r="D205" s="54"/>
       <c r="E205" s="55"/>
       <c r="G205" s="56"/>
     </row>
-    <row r="206" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B206" s="53"/>
       <c r="D206" s="54"/>
       <c r="E206" s="55"/>
       <c r="G206" s="56"/>
     </row>
-    <row r="207" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B207" s="53"/>
       <c r="D207" s="54"/>
       <c r="E207" s="55"/>
       <c r="G207" s="56"/>
     </row>
-    <row r="208" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B208" s="53"/>
       <c r="D208" s="54"/>
       <c r="E208" s="55"/>
       <c r="G208" s="56"/>
     </row>
-    <row r="209" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B209" s="53"/>
       <c r="D209" s="54"/>
       <c r="E209" s="55"/>
       <c r="G209" s="56"/>
     </row>
-    <row r="210" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B210" s="53"/>
       <c r="D210" s="54"/>
       <c r="E210" s="55"/>
       <c r="G210" s="56"/>
     </row>
-    <row r="211" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B211" s="53"/>
       <c r="D211" s="54"/>
       <c r="E211" s="55"/>
       <c r="G211" s="56"/>
     </row>
-    <row r="212" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B212" s="53"/>
       <c r="D212" s="54"/>
       <c r="E212" s="55"/>
       <c r="G212" s="56"/>
     </row>
-    <row r="213" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B213" s="53"/>
       <c r="D213" s="54"/>
       <c r="E213" s="55"/>
       <c r="G213" s="56"/>
     </row>
-    <row r="214" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B214" s="53"/>
       <c r="D214" s="54"/>
       <c r="E214" s="55"/>
       <c r="G214" s="56"/>
     </row>
-    <row r="215" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B215" s="53"/>
       <c r="D215" s="54"/>
       <c r="E215" s="55"/>
       <c r="G215" s="56"/>
     </row>
-    <row r="216" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B216" s="53"/>
       <c r="D216" s="54"/>
       <c r="E216" s="55"/>
       <c r="G216" s="56"/>
     </row>
-    <row r="217" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B217" s="53"/>
       <c r="D217" s="54"/>
       <c r="E217" s="55"/>
       <c r="G217" s="56"/>
     </row>
-    <row r="218" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B218" s="53"/>
       <c r="D218" s="54"/>
       <c r="E218" s="55"/>
       <c r="G218" s="56"/>
     </row>
-    <row r="219" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B219" s="53"/>
       <c r="D219" s="54"/>
       <c r="E219" s="55"/>
       <c r="G219" s="56"/>
     </row>
-    <row r="220" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="53"/>
       <c r="D220" s="54"/>
       <c r="E220" s="55"/>
       <c r="G220" s="56"/>
     </row>
-    <row r="221" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B221" s="53"/>
       <c r="D221" s="54"/>
       <c r="E221" s="55"/>
       <c r="G221" s="56"/>
     </row>
-    <row r="222" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="53"/>
       <c r="D222" s="54"/>
       <c r="E222" s="55"/>
       <c r="G222" s="56"/>
     </row>
-    <row r="223" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B223" s="53"/>
       <c r="D223" s="54"/>
       <c r="E223" s="55"/>
       <c r="G223" s="56"/>
     </row>
-    <row r="224" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B224" s="53"/>
       <c r="D224" s="54"/>
       <c r="E224" s="55"/>
       <c r="G224" s="56"/>
     </row>
-    <row r="225" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B225" s="53"/>
       <c r="D225" s="54"/>
       <c r="E225" s="55"/>
       <c r="G225" s="56"/>
     </row>
-    <row r="226" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B226" s="53"/>
       <c r="D226" s="54"/>
       <c r="E226" s="55"/>
       <c r="G226" s="56"/>
     </row>
-    <row r="227" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B227" s="53"/>
       <c r="D227" s="54"/>
       <c r="E227" s="55"/>
       <c r="G227" s="56"/>
     </row>
-    <row r="228" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B228" s="53"/>
       <c r="D228" s="54"/>
       <c r="E228" s="55"/>
       <c r="G228" s="56"/>
     </row>
-    <row r="229" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B229" s="53"/>
       <c r="D229" s="54"/>
       <c r="E229" s="55"/>
       <c r="G229" s="56"/>
     </row>
-    <row r="230" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B230" s="53"/>
       <c r="D230" s="54"/>
       <c r="E230" s="55"/>
       <c r="G230" s="56"/>
     </row>
-    <row r="231" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B231" s="53"/>
       <c r="D231" s="54"/>
       <c r="E231" s="55"/>
       <c r="G231" s="56"/>
     </row>
-    <row r="232" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B232" s="53"/>
       <c r="D232" s="54"/>
       <c r="E232" s="55"/>
       <c r="G232" s="56"/>
     </row>
-    <row r="233" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B233" s="53"/>
       <c r="D233" s="54"/>
       <c r="E233" s="55"/>
       <c r="G233" s="56"/>
     </row>
-    <row r="234" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B234" s="53"/>
       <c r="D234" s="54"/>
       <c r="E234" s="55"/>
       <c r="G234" s="56"/>
     </row>
-    <row r="235" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B235" s="53"/>
       <c r="D235" s="54"/>
       <c r="E235" s="55"/>
       <c r="G235" s="56"/>
     </row>
-    <row r="236" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B236" s="53"/>
       <c r="D236" s="54"/>
       <c r="E236" s="55"/>
       <c r="G236" s="56"/>
     </row>
-    <row r="237" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B237" s="53"/>
       <c r="D237" s="54"/>
       <c r="E237" s="55"/>
       <c r="G237" s="56"/>
     </row>
-    <row r="238" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B238" s="53"/>
       <c r="D238" s="54"/>
       <c r="E238" s="55"/>
       <c r="G238" s="56"/>
     </row>
-    <row r="239" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B239" s="53"/>
       <c r="D239" s="54"/>
       <c r="E239" s="55"/>
       <c r="G239" s="56"/>
     </row>
-    <row r="240" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="53"/>
       <c r="D240" s="54"/>
       <c r="E240" s="55"/>
       <c r="G240" s="56"/>
     </row>
+    <row r="241" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="53"/>
+      <c r="D241" s="54"/>
+      <c r="E241" s="55"/>
+      <c r="G241" s="56"/>
+    </row>
+    <row r="242" spans="2:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="53"/>
+      <c r="D242" s="54"/>
+      <c r="E242" s="55"/>
+      <c r="G242" s="56"/>
+    </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B113"/>
+    <mergeCell ref="A59:A76"/>
+    <mergeCell ref="A87:A120"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B59:B63"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B80:B85"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A25:A55"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="B123:B124"/>
     <mergeCell ref="B125:B126"/>
     <mergeCell ref="B2:E2"/>
@@ -4501,41 +4556,6 @@
     <mergeCell ref="A58:F58"/>
     <mergeCell ref="B77:F77"/>
     <mergeCell ref="B75:F75"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A25:A55"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B59:B63"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B80:B85"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="B108:B113"/>
-    <mergeCell ref="A59:A76"/>
-    <mergeCell ref="A87:A120"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B94:B95"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D108" r:id="rId1"/>
@@ -4555,59 +4575,59 @@
   <dimension ref="A4:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A1:XFD1048576"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="4"/>
-    <col min="5" max="5" width="16.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="60.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="4"/>
+    <col min="5" max="5" width="16.5703125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="12" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="44" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4622,13 +4642,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4636,7 +4656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4644,7 +4664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -4652,7 +4672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4660,10 +4680,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -4671,42 +4691,42 @@
         <v>0.39513888888888887</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>0.39652777777777781</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>0.66597222222222219</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>0.81180555555555556</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10">
         <v>0.8125</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>0.81319444444444444</v>
       </c>
@@ -4725,16 +4745,16 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>14</v>
       </c>
@@ -4745,7 +4765,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
@@ -4756,7 +4776,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -4765,7 +4785,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -4778,14 +4798,14 @@
       <c r="D4" s="7"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
@@ -4793,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
@@ -4801,7 +4821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -4810,13 +4830,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
@@ -4824,7 +4844,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
@@ -4835,7 +4855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
@@ -4843,17 +4863,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -4861,7 +4881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -4869,7 +4889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -4877,7 +4897,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -4885,12 +4905,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -4898,27 +4918,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
